--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2814100</v>
+        <v>2630300</v>
       </c>
       <c r="E8" s="3">
-        <v>3263300</v>
+        <v>4103500</v>
       </c>
       <c r="F8" s="3">
-        <v>3058800</v>
+        <v>2745000</v>
       </c>
       <c r="G8" s="3">
-        <v>3742400</v>
+        <v>3183200</v>
       </c>
       <c r="H8" s="3">
-        <v>2558500</v>
+        <v>2983800</v>
       </c>
       <c r="I8" s="3">
+        <v>3650600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2495700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2975500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2851000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3581100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2272600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2599600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2320000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2760300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2206600</v>
+        <v>2124000</v>
       </c>
       <c r="E9" s="3">
-        <v>2533100</v>
+        <v>3123700</v>
       </c>
       <c r="F9" s="3">
-        <v>2433700</v>
+        <v>2152400</v>
       </c>
       <c r="G9" s="3">
-        <v>2969900</v>
+        <v>2470900</v>
       </c>
       <c r="H9" s="3">
-        <v>2037400</v>
+        <v>2374000</v>
       </c>
       <c r="I9" s="3">
+        <v>2897000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1987500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2395300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2275800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2803400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1753300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2026800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1782700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2110600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>607500</v>
+        <v>506300</v>
       </c>
       <c r="E10" s="3">
-        <v>730200</v>
+        <v>979800</v>
       </c>
       <c r="F10" s="3">
-        <v>625000</v>
+        <v>592600</v>
       </c>
       <c r="G10" s="3">
-        <v>772600</v>
+        <v>712300</v>
       </c>
       <c r="H10" s="3">
-        <v>521000</v>
+        <v>609700</v>
       </c>
       <c r="I10" s="3">
+        <v>753600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>508300</v>
+      </c>
+      <c r="K10" s="3">
         <v>580200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>575300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>777700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>519400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>572800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>537300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>649700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>15300</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>6300</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>12500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>12700</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2658300</v>
+        <v>2521500</v>
       </c>
       <c r="E17" s="3">
-        <v>3124800</v>
+        <v>3861200</v>
       </c>
       <c r="F17" s="3">
-        <v>2934900</v>
+        <v>2593100</v>
       </c>
       <c r="G17" s="3">
-        <v>3601300</v>
+        <v>3048100</v>
       </c>
       <c r="H17" s="3">
-        <v>2507600</v>
+        <v>2862900</v>
       </c>
       <c r="I17" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2446100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2918100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2756000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3465300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2221400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2550100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2237600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2643200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>155800</v>
+        <v>108800</v>
       </c>
       <c r="E18" s="3">
-        <v>138500</v>
+        <v>242300</v>
       </c>
       <c r="F18" s="3">
-        <v>123800</v>
+        <v>152000</v>
       </c>
       <c r="G18" s="3">
-        <v>141100</v>
+        <v>135100</v>
       </c>
       <c r="H18" s="3">
-        <v>50900</v>
+        <v>120800</v>
       </c>
       <c r="I18" s="3">
+        <v>137600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K18" s="3">
         <v>57400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>95100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>115800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>51200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>49600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>82500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>117100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6800</v>
+        <v>24100</v>
       </c>
       <c r="E20" s="3">
-        <v>12600</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>34900</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>12300</v>
       </c>
       <c r="H20" s="3">
-        <v>2500</v>
+        <v>34000</v>
       </c>
       <c r="I20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>64700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>12500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>34600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>26900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>30400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,140 +1339,164 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5500</v>
-      </c>
       <c r="H22" s="3">
-        <v>7700</v>
+        <v>4500</v>
       </c>
       <c r="I22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2800</v>
       </c>
       <c r="M22" s="3">
         <v>2900</v>
       </c>
       <c r="N22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>158800</v>
+        <v>128000</v>
       </c>
       <c r="E23" s="3">
-        <v>149300</v>
+        <v>240900</v>
       </c>
       <c r="F23" s="3">
-        <v>154100</v>
+        <v>154900</v>
       </c>
       <c r="G23" s="3">
-        <v>141500</v>
+        <v>145700</v>
       </c>
       <c r="H23" s="3">
-        <v>45700</v>
+        <v>150300</v>
       </c>
       <c r="I23" s="3">
+        <v>138000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K23" s="3">
         <v>116500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>90400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>125400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>62500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>81300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>105700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>144500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30500</v>
+        <v>24200</v>
       </c>
       <c r="E24" s="3">
-        <v>30600</v>
+        <v>43900</v>
       </c>
       <c r="F24" s="3">
-        <v>35000</v>
+        <v>29700</v>
       </c>
       <c r="G24" s="3">
-        <v>33300</v>
+        <v>29900</v>
       </c>
       <c r="H24" s="3">
-        <v>14700</v>
+        <v>34100</v>
       </c>
       <c r="I24" s="3">
+        <v>32400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K24" s="3">
         <v>18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>25200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>24100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>30100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>128300</v>
+        <v>103800</v>
       </c>
       <c r="E26" s="3">
-        <v>118700</v>
+        <v>197000</v>
       </c>
       <c r="F26" s="3">
-        <v>119100</v>
+        <v>125100</v>
       </c>
       <c r="G26" s="3">
-        <v>108200</v>
+        <v>115800</v>
       </c>
       <c r="H26" s="3">
-        <v>30900</v>
+        <v>116200</v>
       </c>
       <c r="I26" s="3">
+        <v>105600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K26" s="3">
         <v>98500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>75200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>97400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>47400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>56100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>81600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>114400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>125600</v>
+        <v>95800</v>
       </c>
       <c r="E27" s="3">
-        <v>116700</v>
+        <v>203700</v>
       </c>
       <c r="F27" s="3">
-        <v>125200</v>
+        <v>122500</v>
       </c>
       <c r="G27" s="3">
-        <v>98800</v>
+        <v>113900</v>
       </c>
       <c r="H27" s="3">
-        <v>32800</v>
+        <v>122100</v>
       </c>
       <c r="I27" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K27" s="3">
         <v>97800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>76000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>99900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>50200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>57400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>80300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>111700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6800</v>
+        <v>-24100</v>
       </c>
       <c r="E32" s="3">
-        <v>-12600</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-34900</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>-12300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2500</v>
+        <v>-34000</v>
       </c>
       <c r="I32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-64700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-12500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-34600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-26900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-30400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>125600</v>
+        <v>95800</v>
       </c>
       <c r="E33" s="3">
-        <v>116700</v>
+        <v>203700</v>
       </c>
       <c r="F33" s="3">
-        <v>125200</v>
+        <v>122500</v>
       </c>
       <c r="G33" s="3">
-        <v>98800</v>
+        <v>113900</v>
       </c>
       <c r="H33" s="3">
-        <v>32800</v>
+        <v>122100</v>
       </c>
       <c r="I33" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K33" s="3">
         <v>97800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>76000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>99900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>50200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>57400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>80300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>111700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>125600</v>
+        <v>95800</v>
       </c>
       <c r="E35" s="3">
-        <v>116700</v>
+        <v>203700</v>
       </c>
       <c r="F35" s="3">
-        <v>125200</v>
+        <v>122500</v>
       </c>
       <c r="G35" s="3">
-        <v>98800</v>
+        <v>113900</v>
       </c>
       <c r="H35" s="3">
-        <v>32800</v>
+        <v>122100</v>
       </c>
       <c r="I35" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K35" s="3">
         <v>97800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>76000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>99900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>50200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>57400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>80300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>111700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>821900</v>
+        <v>688300</v>
       </c>
       <c r="E41" s="3">
-        <v>981000</v>
+        <v>920100</v>
       </c>
       <c r="F41" s="3">
-        <v>832200</v>
+        <v>801700</v>
       </c>
       <c r="G41" s="3">
-        <v>1368900</v>
+        <v>956900</v>
       </c>
       <c r="H41" s="3">
-        <v>886700</v>
+        <v>811800</v>
       </c>
       <c r="I41" s="3">
+        <v>1335300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>864900</v>
+      </c>
+      <c r="K41" s="3">
         <v>868200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1005500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1480200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>544000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>615700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>645000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>597700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8300</v>
+        <v>479200</v>
       </c>
       <c r="E42" s="3">
+        <v>427300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>324900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>266200</v>
+      </c>
+      <c r="K42" s="3">
+        <v>296900</v>
+      </c>
+      <c r="L42" s="3">
+        <v>259300</v>
+      </c>
+      <c r="M42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="N42" s="3">
         <v>34200</v>
       </c>
-      <c r="F42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>333100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>272900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>296900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>259300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>36500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>34200</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>50900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>108500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>97700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1544600</v>
+        <v>572300</v>
       </c>
       <c r="E43" s="3">
-        <v>1065400</v>
+        <v>636500</v>
       </c>
       <c r="F43" s="3">
-        <v>1115900</v>
+        <v>1506700</v>
       </c>
       <c r="G43" s="3">
-        <v>1377100</v>
+        <v>1039300</v>
       </c>
       <c r="H43" s="3">
-        <v>1202500</v>
+        <v>1088500</v>
       </c>
       <c r="I43" s="3">
+        <v>1343300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1173000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1280600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1171200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1258200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>941600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>845400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>717900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>673000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77100</v>
+        <v>715500</v>
       </c>
       <c r="E44" s="3">
-        <v>644100</v>
+        <v>1078900</v>
       </c>
       <c r="F44" s="3">
-        <v>576000</v>
+        <v>75200</v>
       </c>
       <c r="G44" s="3">
-        <v>770200</v>
+        <v>628300</v>
       </c>
       <c r="H44" s="3">
-        <v>614600</v>
+        <v>561900</v>
       </c>
       <c r="I44" s="3">
+        <v>751300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>599500</v>
+      </c>
+      <c r="K44" s="3">
         <v>658600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>729100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1033000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>644300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>551600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>525900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>719700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129800</v>
+        <v>123500</v>
       </c>
       <c r="E45" s="3">
-        <v>142800</v>
+        <v>160300</v>
       </c>
       <c r="F45" s="3">
-        <v>71300</v>
+        <v>126600</v>
       </c>
       <c r="G45" s="3">
-        <v>71400</v>
+        <v>139300</v>
       </c>
       <c r="H45" s="3">
-        <v>50800</v>
+        <v>69500</v>
       </c>
       <c r="I45" s="3">
+        <v>69700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K45" s="3">
         <v>53900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>50000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>38300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>32500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2581700</v>
+        <v>2578800</v>
       </c>
       <c r="E46" s="3">
-        <v>2867500</v>
+        <v>3223000</v>
       </c>
       <c r="F46" s="3">
-        <v>2601200</v>
+        <v>2518300</v>
       </c>
       <c r="G46" s="3">
-        <v>3920700</v>
+        <v>2797100</v>
       </c>
       <c r="H46" s="3">
-        <v>3027400</v>
+        <v>2537400</v>
       </c>
       <c r="I46" s="3">
+        <v>3824500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2953200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3158200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3215200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3846200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2170400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2072600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1998100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2120500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>745500</v>
+        <v>747800</v>
       </c>
       <c r="E47" s="3">
-        <v>359800</v>
+        <v>730300</v>
       </c>
       <c r="F47" s="3">
-        <v>344000</v>
+        <v>727200</v>
       </c>
       <c r="G47" s="3">
-        <v>306800</v>
+        <v>351000</v>
       </c>
       <c r="H47" s="3">
-        <v>270300</v>
+        <v>335600</v>
       </c>
       <c r="I47" s="3">
+        <v>299200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>263700</v>
+      </c>
+      <c r="K47" s="3">
         <v>260300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>83900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>89100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>94200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>93500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>147400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>146000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1719500</v>
+        <v>1816300</v>
       </c>
       <c r="E48" s="3">
-        <v>1461000</v>
+        <v>1815600</v>
       </c>
       <c r="F48" s="3">
-        <v>1328000</v>
+        <v>1677300</v>
       </c>
       <c r="G48" s="3">
-        <v>1224100</v>
+        <v>1425200</v>
       </c>
       <c r="H48" s="3">
-        <v>1099800</v>
+        <v>1295400</v>
       </c>
       <c r="I48" s="3">
+        <v>1194100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1072900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1018600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>961500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>988500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>914400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>817800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>671000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>649700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>80300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>101000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>99000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>100700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K49" s="3">
         <v>103600</v>
       </c>
-      <c r="E49" s="3">
-        <v>101500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>103200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>103300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>103500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>103600</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>103700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>114000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>126400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>139000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>148500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>158800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>930900</v>
+        <v>946700</v>
       </c>
       <c r="E52" s="3">
-        <v>839400</v>
+        <v>950400</v>
       </c>
       <c r="F52" s="3">
-        <v>820700</v>
+        <v>908100</v>
       </c>
       <c r="G52" s="3">
-        <v>695500</v>
+        <v>818800</v>
       </c>
       <c r="H52" s="3">
-        <v>687100</v>
+        <v>800600</v>
       </c>
       <c r="I52" s="3">
+        <v>678400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>670300</v>
+      </c>
+      <c r="K52" s="3">
         <v>644100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>648800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>599200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>590200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>602000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>628200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>574400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6081100</v>
+        <v>6167000</v>
       </c>
       <c r="E54" s="3">
-        <v>5629200</v>
+        <v>6799600</v>
       </c>
       <c r="F54" s="3">
-        <v>5197100</v>
+        <v>5931900</v>
       </c>
       <c r="G54" s="3">
-        <v>6250400</v>
+        <v>5491100</v>
       </c>
       <c r="H54" s="3">
-        <v>5188200</v>
+        <v>5069600</v>
       </c>
       <c r="I54" s="3">
+        <v>6097000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5060900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5184800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5013200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5637000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3895700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3724800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3593200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3649500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1459500</v>
+        <v>1298800</v>
       </c>
       <c r="E57" s="3">
-        <v>1544100</v>
+        <v>1930400</v>
       </c>
       <c r="F57" s="3">
-        <v>1368900</v>
+        <v>1423600</v>
       </c>
       <c r="G57" s="3">
-        <v>1668700</v>
+        <v>1506300</v>
       </c>
       <c r="H57" s="3">
-        <v>994300</v>
+        <v>1335300</v>
       </c>
       <c r="I57" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>969900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1206500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1373100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1698600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1252000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1209800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1139500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1212000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>220500</v>
+        <v>260400</v>
       </c>
       <c r="E58" s="3">
-        <v>162300</v>
+        <v>153100</v>
       </c>
       <c r="F58" s="3">
-        <v>139000</v>
+        <v>215100</v>
       </c>
       <c r="G58" s="3">
-        <v>952600</v>
+        <v>158400</v>
       </c>
       <c r="H58" s="3">
-        <v>1003700</v>
+        <v>135600</v>
       </c>
       <c r="I58" s="3">
+        <v>929300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>979100</v>
+      </c>
+      <c r="K58" s="3">
         <v>950500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>742300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>247400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>124500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>42700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>41400</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1114400</v>
+        <v>990200</v>
       </c>
       <c r="E59" s="3">
-        <v>977500</v>
+        <v>1265200</v>
       </c>
       <c r="F59" s="3">
-        <v>947800</v>
+        <v>1087100</v>
       </c>
       <c r="G59" s="3">
-        <v>1101400</v>
+        <v>953500</v>
       </c>
       <c r="H59" s="3">
-        <v>706100</v>
+        <v>924500</v>
       </c>
       <c r="I59" s="3">
+        <v>1074400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>688800</v>
+      </c>
+      <c r="K59" s="3">
         <v>678100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>678100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>912000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>699500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>724200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>778600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>908900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2794400</v>
+        <v>2549300</v>
       </c>
       <c r="E60" s="3">
-        <v>2683900</v>
+        <v>3348600</v>
       </c>
       <c r="F60" s="3">
-        <v>2455700</v>
+        <v>2725800</v>
       </c>
       <c r="G60" s="3">
-        <v>3722700</v>
+        <v>2618100</v>
       </c>
       <c r="H60" s="3">
-        <v>2704200</v>
+        <v>2395400</v>
       </c>
       <c r="I60" s="3">
+        <v>3631400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2637800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2835000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2793500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2858000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2076000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1976700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1959500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2120900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48800</v>
+        <v>36700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>47600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>70900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>69100</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>607700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>621500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>633200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>631500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>637200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>266900</v>
+        <v>340700</v>
       </c>
       <c r="E62" s="3">
-        <v>176100</v>
+        <v>327900</v>
       </c>
       <c r="F62" s="3">
-        <v>118400</v>
+        <v>260400</v>
       </c>
       <c r="G62" s="3">
-        <v>58200</v>
+        <v>171800</v>
       </c>
       <c r="H62" s="3">
-        <v>55200</v>
+        <v>115500</v>
       </c>
       <c r="I62" s="3">
+        <v>56800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K62" s="3">
         <v>55600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>52700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>56300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>52500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>55100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>48500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>50500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3147400</v>
+        <v>2993500</v>
       </c>
       <c r="E66" s="3">
-        <v>2854300</v>
+        <v>3744700</v>
       </c>
       <c r="F66" s="3">
-        <v>2567800</v>
+        <v>3070200</v>
       </c>
       <c r="G66" s="3">
-        <v>3773600</v>
+        <v>2784300</v>
       </c>
       <c r="H66" s="3">
-        <v>2823000</v>
+        <v>2504800</v>
       </c>
       <c r="I66" s="3">
+        <v>3681100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2753700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2883700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2839200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3515600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2745200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2663200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2645500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2815900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1502000</v>
+        <v>1752100</v>
       </c>
       <c r="E72" s="3">
-        <v>1376400</v>
+        <v>1668900</v>
       </c>
       <c r="F72" s="3">
-        <v>1259700</v>
+        <v>1465200</v>
       </c>
       <c r="G72" s="3">
-        <v>1134600</v>
+        <v>1342700</v>
       </c>
       <c r="H72" s="3">
-        <v>1035900</v>
+        <v>1228800</v>
       </c>
       <c r="I72" s="3">
+        <v>1106700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1010400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1003000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>905200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>831500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>731600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>681400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>611500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>531300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2933700</v>
+        <v>3173400</v>
       </c>
       <c r="E76" s="3">
-        <v>2774800</v>
+        <v>3054900</v>
       </c>
       <c r="F76" s="3">
-        <v>2629300</v>
+        <v>2861800</v>
       </c>
       <c r="G76" s="3">
-        <v>2476700</v>
+        <v>2706800</v>
       </c>
       <c r="H76" s="3">
-        <v>2365200</v>
+        <v>2564800</v>
       </c>
       <c r="I76" s="3">
+        <v>2416000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2307200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2301100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2174000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2121400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1150500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1061600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>947600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>833600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>125600</v>
+        <v>95800</v>
       </c>
       <c r="E81" s="3">
-        <v>116700</v>
+        <v>203700</v>
       </c>
       <c r="F81" s="3">
-        <v>125200</v>
+        <v>122500</v>
       </c>
       <c r="G81" s="3">
-        <v>98800</v>
+        <v>113900</v>
       </c>
       <c r="H81" s="3">
-        <v>32800</v>
+        <v>122100</v>
       </c>
       <c r="I81" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K81" s="3">
         <v>97800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>76000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>99900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>50200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>57400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>80300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>111700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2630300</v>
+        <v>3501600</v>
       </c>
       <c r="E8" s="3">
-        <v>4103500</v>
+        <v>2729300</v>
       </c>
       <c r="F8" s="3">
-        <v>2745000</v>
+        <v>4258000</v>
       </c>
       <c r="G8" s="3">
-        <v>3183200</v>
+        <v>2848400</v>
       </c>
       <c r="H8" s="3">
-        <v>2983800</v>
+        <v>3303100</v>
       </c>
       <c r="I8" s="3">
-        <v>3650600</v>
+        <v>3096100</v>
       </c>
       <c r="J8" s="3">
+        <v>3788100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2495700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2975500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2851000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3581100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2272600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2599600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2320000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2760300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2124000</v>
+        <v>2784200</v>
       </c>
       <c r="E9" s="3">
-        <v>3123700</v>
+        <v>2204000</v>
       </c>
       <c r="F9" s="3">
-        <v>2152400</v>
+        <v>3241300</v>
       </c>
       <c r="G9" s="3">
-        <v>2470900</v>
+        <v>2233500</v>
       </c>
       <c r="H9" s="3">
-        <v>2374000</v>
+        <v>2564000</v>
       </c>
       <c r="I9" s="3">
-        <v>2897000</v>
+        <v>2463400</v>
       </c>
       <c r="J9" s="3">
+        <v>3006100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1987500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2395300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2275800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2803400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1753300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2026800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1782700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2110600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>506300</v>
+        <v>717400</v>
       </c>
       <c r="E10" s="3">
-        <v>979800</v>
+        <v>525300</v>
       </c>
       <c r="F10" s="3">
-        <v>592600</v>
+        <v>1016700</v>
       </c>
       <c r="G10" s="3">
-        <v>712300</v>
+        <v>614900</v>
       </c>
       <c r="H10" s="3">
-        <v>609700</v>
+        <v>739100</v>
       </c>
       <c r="I10" s="3">
-        <v>753600</v>
+        <v>632700</v>
       </c>
       <c r="J10" s="3">
+        <v>782000</v>
+      </c>
+      <c r="K10" s="3">
         <v>508300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>580200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>575300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>777700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>519400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>572800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>537300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>649700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
-        <v>45100</v>
-      </c>
       <c r="F14" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>46800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>12100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>15300</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1069,47 +1092,50 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>6300</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N15" s="3">
-        <v>12500</v>
       </c>
       <c r="O15" s="3">
         <v>12500</v>
       </c>
       <c r="P15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="Q15" s="3">
         <v>12700</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2521500</v>
+        <v>3321500</v>
       </c>
       <c r="E17" s="3">
-        <v>3861200</v>
+        <v>2616400</v>
       </c>
       <c r="F17" s="3">
-        <v>2593100</v>
+        <v>4006600</v>
       </c>
       <c r="G17" s="3">
-        <v>3048100</v>
+        <v>2690700</v>
       </c>
       <c r="H17" s="3">
-        <v>2862900</v>
+        <v>3162900</v>
       </c>
       <c r="I17" s="3">
-        <v>3513000</v>
+        <v>2970700</v>
       </c>
       <c r="J17" s="3">
+        <v>3645300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2446100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2918100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2756000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3465300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2221400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2550100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2237600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2643200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>108800</v>
+        <v>180100</v>
       </c>
       <c r="E18" s="3">
-        <v>242300</v>
+        <v>112900</v>
       </c>
       <c r="F18" s="3">
-        <v>152000</v>
+        <v>251500</v>
       </c>
       <c r="G18" s="3">
-        <v>135100</v>
+        <v>157700</v>
       </c>
       <c r="H18" s="3">
-        <v>120800</v>
+        <v>140200</v>
       </c>
       <c r="I18" s="3">
-        <v>137600</v>
+        <v>125400</v>
       </c>
       <c r="J18" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K18" s="3">
         <v>49600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>57400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>51200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>117100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24100</v>
+        <v>92600</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>25000</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>700</v>
       </c>
       <c r="G20" s="3">
-        <v>12300</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
-        <v>34000</v>
+        <v>12700</v>
       </c>
       <c r="I20" s="3">
-        <v>5700</v>
+        <v>35300</v>
       </c>
       <c r="J20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>64700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,158 +1382,170 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5000</v>
+        <v>3100</v>
       </c>
       <c r="E22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
-        <v>3800</v>
-      </c>
       <c r="G22" s="3">
-        <v>1700</v>
+        <v>3900</v>
       </c>
       <c r="H22" s="3">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="I22" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="J22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>128000</v>
+        <v>269600</v>
       </c>
       <c r="E23" s="3">
-        <v>240900</v>
+        <v>132800</v>
       </c>
       <c r="F23" s="3">
-        <v>154900</v>
+        <v>250000</v>
       </c>
       <c r="G23" s="3">
-        <v>145700</v>
+        <v>160700</v>
       </c>
       <c r="H23" s="3">
-        <v>150300</v>
+        <v>151200</v>
       </c>
       <c r="I23" s="3">
-        <v>138000</v>
+        <v>156000</v>
       </c>
       <c r="J23" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K23" s="3">
         <v>44600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>90400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>125400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>105700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>144500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24200</v>
+        <v>47200</v>
       </c>
       <c r="E24" s="3">
-        <v>43900</v>
+        <v>25100</v>
       </c>
       <c r="F24" s="3">
-        <v>29700</v>
+        <v>45600</v>
       </c>
       <c r="G24" s="3">
-        <v>29900</v>
+        <v>30900</v>
       </c>
       <c r="H24" s="3">
-        <v>34100</v>
+        <v>31000</v>
       </c>
       <c r="I24" s="3">
-        <v>32400</v>
+        <v>35400</v>
       </c>
       <c r="J24" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K24" s="3">
         <v>14400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103800</v>
+        <v>222400</v>
       </c>
       <c r="E26" s="3">
-        <v>197000</v>
+        <v>107700</v>
       </c>
       <c r="F26" s="3">
-        <v>125100</v>
+        <v>204400</v>
       </c>
       <c r="G26" s="3">
-        <v>115800</v>
+        <v>129800</v>
       </c>
       <c r="H26" s="3">
-        <v>116200</v>
+        <v>120200</v>
       </c>
       <c r="I26" s="3">
-        <v>105600</v>
+        <v>120600</v>
       </c>
       <c r="J26" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K26" s="3">
         <v>30200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>97400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>47400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>81600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>114400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>95800</v>
+        <v>223200</v>
       </c>
       <c r="E27" s="3">
-        <v>203700</v>
+        <v>99500</v>
       </c>
       <c r="F27" s="3">
-        <v>122500</v>
+        <v>211400</v>
       </c>
       <c r="G27" s="3">
-        <v>113900</v>
+        <v>127100</v>
       </c>
       <c r="H27" s="3">
-        <v>122100</v>
+        <v>118100</v>
       </c>
       <c r="I27" s="3">
-        <v>96400</v>
+        <v>126700</v>
       </c>
       <c r="J27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>97800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>80300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24100</v>
+        <v>-92600</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>-25000</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-700</v>
       </c>
       <c r="G32" s="3">
-        <v>-12300</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
-        <v>-34000</v>
+        <v>-12700</v>
       </c>
       <c r="I32" s="3">
-        <v>-5700</v>
+        <v>-35300</v>
       </c>
       <c r="J32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-64700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>95800</v>
+        <v>223200</v>
       </c>
       <c r="E33" s="3">
-        <v>203700</v>
+        <v>99500</v>
       </c>
       <c r="F33" s="3">
-        <v>122500</v>
+        <v>211400</v>
       </c>
       <c r="G33" s="3">
-        <v>113900</v>
+        <v>127100</v>
       </c>
       <c r="H33" s="3">
-        <v>122100</v>
+        <v>118100</v>
       </c>
       <c r="I33" s="3">
-        <v>96400</v>
+        <v>126700</v>
       </c>
       <c r="J33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K33" s="3">
         <v>32000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>97800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>80300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>111700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>95800</v>
+        <v>223200</v>
       </c>
       <c r="E35" s="3">
-        <v>203700</v>
+        <v>99500</v>
       </c>
       <c r="F35" s="3">
-        <v>122500</v>
+        <v>211400</v>
       </c>
       <c r="G35" s="3">
-        <v>113900</v>
+        <v>127100</v>
       </c>
       <c r="H35" s="3">
-        <v>122100</v>
+        <v>118100</v>
       </c>
       <c r="I35" s="3">
-        <v>96400</v>
+        <v>126700</v>
       </c>
       <c r="J35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K35" s="3">
         <v>32000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>97800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>80300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>111700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>688300</v>
+        <v>1074000</v>
       </c>
       <c r="E41" s="3">
-        <v>920100</v>
+        <v>714200</v>
       </c>
       <c r="F41" s="3">
-        <v>801700</v>
+        <v>954700</v>
       </c>
       <c r="G41" s="3">
-        <v>956900</v>
+        <v>831900</v>
       </c>
       <c r="H41" s="3">
-        <v>811800</v>
+        <v>992900</v>
       </c>
       <c r="I41" s="3">
-        <v>1335300</v>
+        <v>842400</v>
       </c>
       <c r="J41" s="3">
+        <v>1385600</v>
+      </c>
+      <c r="K41" s="3">
         <v>864900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>868200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1005500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1480200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>544000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>615700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>645000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>597700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>479200</v>
+        <v>862600</v>
       </c>
       <c r="E42" s="3">
-        <v>427300</v>
+        <v>497300</v>
       </c>
       <c r="F42" s="3">
-        <v>8100</v>
+        <v>443300</v>
       </c>
       <c r="G42" s="3">
-        <v>33400</v>
+        <v>8400</v>
       </c>
       <c r="H42" s="3">
-        <v>5600</v>
+        <v>34600</v>
       </c>
       <c r="I42" s="3">
-        <v>324900</v>
+        <v>5800</v>
       </c>
       <c r="J42" s="3">
+        <v>337100</v>
+      </c>
+      <c r="K42" s="3">
         <v>266200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>296900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>259300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>108500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>572300</v>
+        <v>503600</v>
       </c>
       <c r="E43" s="3">
-        <v>636500</v>
+        <v>593800</v>
       </c>
       <c r="F43" s="3">
-        <v>1506700</v>
+        <v>660500</v>
       </c>
       <c r="G43" s="3">
-        <v>1039300</v>
+        <v>1563500</v>
       </c>
       <c r="H43" s="3">
-        <v>1088500</v>
+        <v>1078400</v>
       </c>
       <c r="I43" s="3">
-        <v>1343300</v>
+        <v>1129500</v>
       </c>
       <c r="J43" s="3">
+        <v>1393900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1173000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1280600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1171200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1258200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>941600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>845400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>717900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>673000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>715500</v>
+        <v>837200</v>
       </c>
       <c r="E44" s="3">
-        <v>1078900</v>
+        <v>742400</v>
       </c>
       <c r="F44" s="3">
-        <v>75200</v>
+        <v>1119500</v>
       </c>
       <c r="G44" s="3">
-        <v>628300</v>
+        <v>78000</v>
       </c>
       <c r="H44" s="3">
-        <v>561900</v>
+        <v>652000</v>
       </c>
       <c r="I44" s="3">
-        <v>751300</v>
+        <v>583100</v>
       </c>
       <c r="J44" s="3">
+        <v>779600</v>
+      </c>
+      <c r="K44" s="3">
         <v>599500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>658600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>729100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1033000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>644300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>551600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>525900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>719700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>123500</v>
+        <v>102300</v>
       </c>
       <c r="E45" s="3">
-        <v>160300</v>
+        <v>128100</v>
       </c>
       <c r="F45" s="3">
-        <v>126600</v>
+        <v>166400</v>
       </c>
       <c r="G45" s="3">
-        <v>139300</v>
+        <v>131400</v>
       </c>
       <c r="H45" s="3">
-        <v>69500</v>
+        <v>144500</v>
       </c>
       <c r="I45" s="3">
-        <v>69700</v>
+        <v>72200</v>
       </c>
       <c r="J45" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K45" s="3">
         <v>49600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2578800</v>
+        <v>3379800</v>
       </c>
       <c r="E46" s="3">
-        <v>3223000</v>
+        <v>2675900</v>
       </c>
       <c r="F46" s="3">
-        <v>2518300</v>
+        <v>3344400</v>
       </c>
       <c r="G46" s="3">
-        <v>2797100</v>
+        <v>2613100</v>
       </c>
       <c r="H46" s="3">
-        <v>2537400</v>
+        <v>2902500</v>
       </c>
       <c r="I46" s="3">
-        <v>3824500</v>
+        <v>2632900</v>
       </c>
       <c r="J46" s="3">
+        <v>3968500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2953200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3158200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3215200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3846200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2170400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2072600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1998100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2120500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>747800</v>
+        <v>680000</v>
       </c>
       <c r="E47" s="3">
-        <v>730300</v>
+        <v>776000</v>
       </c>
       <c r="F47" s="3">
-        <v>727200</v>
+        <v>757800</v>
       </c>
       <c r="G47" s="3">
-        <v>351000</v>
+        <v>754600</v>
       </c>
       <c r="H47" s="3">
-        <v>335600</v>
+        <v>364200</v>
       </c>
       <c r="I47" s="3">
-        <v>299200</v>
+        <v>348200</v>
       </c>
       <c r="J47" s="3">
+        <v>310500</v>
+      </c>
+      <c r="K47" s="3">
         <v>263700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>260300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>93500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>147400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>146000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1816300</v>
+        <v>2088400</v>
       </c>
       <c r="E48" s="3">
-        <v>1815600</v>
+        <v>1884700</v>
       </c>
       <c r="F48" s="3">
-        <v>1677300</v>
+        <v>1884000</v>
       </c>
       <c r="G48" s="3">
-        <v>1425200</v>
+        <v>1740500</v>
       </c>
       <c r="H48" s="3">
-        <v>1295400</v>
+        <v>1478800</v>
       </c>
       <c r="I48" s="3">
-        <v>1194100</v>
+        <v>1344200</v>
       </c>
       <c r="J48" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1072900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1018600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>961500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>988500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>914400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>817800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>671000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>649700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>77400</v>
+        <v>106000</v>
       </c>
       <c r="E49" s="3">
         <v>80300</v>
       </c>
       <c r="F49" s="3">
-        <v>101000</v>
+        <v>83400</v>
       </c>
       <c r="G49" s="3">
-        <v>99000</v>
+        <v>104900</v>
       </c>
       <c r="H49" s="3">
-        <v>100700</v>
+        <v>102700</v>
       </c>
       <c r="I49" s="3">
-        <v>100800</v>
+        <v>104500</v>
       </c>
       <c r="J49" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K49" s="3">
         <v>100900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>103600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>103700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>114000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>139000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>148500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>158800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>946700</v>
+        <v>1022200</v>
       </c>
       <c r="E52" s="3">
-        <v>950400</v>
+        <v>982300</v>
       </c>
       <c r="F52" s="3">
-        <v>908100</v>
+        <v>986200</v>
       </c>
       <c r="G52" s="3">
-        <v>818800</v>
+        <v>942300</v>
       </c>
       <c r="H52" s="3">
-        <v>800600</v>
+        <v>849600</v>
       </c>
       <c r="I52" s="3">
-        <v>678400</v>
+        <v>830700</v>
       </c>
       <c r="J52" s="3">
+        <v>704000</v>
+      </c>
+      <c r="K52" s="3">
         <v>670300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>644100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>648800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>599200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>590200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>602000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>628200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>574400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6167000</v>
+        <v>7276400</v>
       </c>
       <c r="E54" s="3">
-        <v>6799600</v>
+        <v>6399200</v>
       </c>
       <c r="F54" s="3">
-        <v>5931900</v>
+        <v>7055700</v>
       </c>
       <c r="G54" s="3">
-        <v>5491100</v>
+        <v>6155300</v>
       </c>
       <c r="H54" s="3">
-        <v>5069600</v>
+        <v>5697800</v>
       </c>
       <c r="I54" s="3">
-        <v>6097000</v>
+        <v>5260500</v>
       </c>
       <c r="J54" s="3">
+        <v>6326600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5060900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5184800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5013200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5637000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3895700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3724800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3593200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3649500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,222 +3010,235 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1298800</v>
+        <v>1728500</v>
       </c>
       <c r="E57" s="3">
-        <v>1930400</v>
+        <v>1347700</v>
       </c>
       <c r="F57" s="3">
-        <v>1423600</v>
+        <v>2003000</v>
       </c>
       <c r="G57" s="3">
-        <v>1506300</v>
+        <v>1477300</v>
       </c>
       <c r="H57" s="3">
-        <v>1335300</v>
+        <v>1563000</v>
       </c>
       <c r="I57" s="3">
-        <v>1627800</v>
+        <v>1385600</v>
       </c>
       <c r="J57" s="3">
+        <v>1689000</v>
+      </c>
+      <c r="K57" s="3">
         <v>969900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1206500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1373100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1698600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1252000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1209800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1139500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1212000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>260400</v>
+        <v>268800</v>
       </c>
       <c r="E58" s="3">
-        <v>153100</v>
+        <v>270200</v>
       </c>
       <c r="F58" s="3">
-        <v>215100</v>
+        <v>158800</v>
       </c>
       <c r="G58" s="3">
-        <v>158400</v>
+        <v>223200</v>
       </c>
       <c r="H58" s="3">
-        <v>135600</v>
+        <v>164300</v>
       </c>
       <c r="I58" s="3">
-        <v>929300</v>
+        <v>140700</v>
       </c>
       <c r="J58" s="3">
+        <v>964200</v>
+      </c>
+      <c r="K58" s="3">
         <v>979100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>950500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>742300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>247400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>124500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>41400</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>990200</v>
+        <v>1144400</v>
       </c>
       <c r="E59" s="3">
-        <v>1265200</v>
+        <v>1027500</v>
       </c>
       <c r="F59" s="3">
-        <v>1087100</v>
+        <v>1312800</v>
       </c>
       <c r="G59" s="3">
-        <v>953500</v>
+        <v>1128000</v>
       </c>
       <c r="H59" s="3">
-        <v>924500</v>
+        <v>989400</v>
       </c>
       <c r="I59" s="3">
-        <v>1074400</v>
+        <v>959300</v>
       </c>
       <c r="J59" s="3">
+        <v>1114800</v>
+      </c>
+      <c r="K59" s="3">
         <v>688800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>678100</v>
       </c>
       <c r="L59" s="3">
         <v>678100</v>
       </c>
       <c r="M59" s="3">
+        <v>678100</v>
+      </c>
+      <c r="N59" s="3">
         <v>912000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>699500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>724200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>778600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>908900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2549300</v>
+        <v>3141700</v>
       </c>
       <c r="E60" s="3">
-        <v>3348600</v>
+        <v>2645300</v>
       </c>
       <c r="F60" s="3">
-        <v>2725800</v>
+        <v>3474700</v>
       </c>
       <c r="G60" s="3">
-        <v>2618100</v>
+        <v>2828500</v>
       </c>
       <c r="H60" s="3">
-        <v>2395400</v>
+        <v>2716700</v>
       </c>
       <c r="I60" s="3">
-        <v>3631400</v>
+        <v>2485600</v>
       </c>
       <c r="J60" s="3">
+        <v>3768100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2637800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2835000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2793500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2858000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2076000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1976700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1959500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2120900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36700</v>
+        <v>28700</v>
       </c>
       <c r="E61" s="3">
-        <v>9000</v>
+        <v>38100</v>
       </c>
       <c r="F61" s="3">
-        <v>47600</v>
+        <v>9400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>49400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3104,84 +3247,90 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>69100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>607700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>621500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>633200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>631500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>637200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>340700</v>
+        <v>449200</v>
       </c>
       <c r="E62" s="3">
-        <v>327900</v>
+        <v>353500</v>
       </c>
       <c r="F62" s="3">
-        <v>260400</v>
+        <v>340200</v>
       </c>
       <c r="G62" s="3">
-        <v>171800</v>
+        <v>270200</v>
       </c>
       <c r="H62" s="3">
-        <v>115500</v>
+        <v>178200</v>
       </c>
       <c r="I62" s="3">
-        <v>56800</v>
+        <v>119900</v>
       </c>
       <c r="J62" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K62" s="3">
         <v>53900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2993500</v>
+        <v>3723500</v>
       </c>
       <c r="E66" s="3">
-        <v>3744700</v>
+        <v>3106300</v>
       </c>
       <c r="F66" s="3">
-        <v>3070200</v>
+        <v>3885700</v>
       </c>
       <c r="G66" s="3">
-        <v>2784300</v>
+        <v>3185800</v>
       </c>
       <c r="H66" s="3">
-        <v>2504800</v>
+        <v>2889200</v>
       </c>
       <c r="I66" s="3">
-        <v>3681100</v>
+        <v>2599100</v>
       </c>
       <c r="J66" s="3">
+        <v>3819700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2753700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2883700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2839200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3515600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2745200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2663200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2645500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2815900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1752100</v>
+        <v>2041200</v>
       </c>
       <c r="E72" s="3">
-        <v>1668900</v>
+        <v>1818000</v>
       </c>
       <c r="F72" s="3">
-        <v>1465200</v>
+        <v>1731800</v>
       </c>
       <c r="G72" s="3">
-        <v>1342700</v>
+        <v>1520400</v>
       </c>
       <c r="H72" s="3">
-        <v>1228800</v>
+        <v>1393200</v>
       </c>
       <c r="I72" s="3">
-        <v>1106700</v>
+        <v>1275100</v>
       </c>
       <c r="J72" s="3">
+        <v>1148400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1010400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1003000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>905200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>831500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>731600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>681400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>611500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>531300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3173400</v>
+        <v>3552900</v>
       </c>
       <c r="E76" s="3">
-        <v>3054900</v>
+        <v>3292900</v>
       </c>
       <c r="F76" s="3">
-        <v>2861800</v>
+        <v>3170000</v>
       </c>
       <c r="G76" s="3">
-        <v>2706800</v>
+        <v>2969500</v>
       </c>
       <c r="H76" s="3">
-        <v>2564800</v>
+        <v>2808700</v>
       </c>
       <c r="I76" s="3">
-        <v>2416000</v>
+        <v>2661400</v>
       </c>
       <c r="J76" s="3">
+        <v>2506900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2307200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2301100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2174000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2121400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1150500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1061600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>947600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>833600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>95800</v>
+        <v>223200</v>
       </c>
       <c r="E81" s="3">
-        <v>203700</v>
+        <v>99500</v>
       </c>
       <c r="F81" s="3">
-        <v>122500</v>
+        <v>211400</v>
       </c>
       <c r="G81" s="3">
-        <v>113900</v>
+        <v>127100</v>
       </c>
       <c r="H81" s="3">
-        <v>122100</v>
+        <v>118100</v>
       </c>
       <c r="I81" s="3">
-        <v>96400</v>
+        <v>126700</v>
       </c>
       <c r="J81" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K81" s="3">
         <v>32000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>97800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>80300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>111700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3501600</v>
+        <v>3667700</v>
       </c>
       <c r="E8" s="3">
-        <v>2729300</v>
+        <v>2858800</v>
       </c>
       <c r="F8" s="3">
-        <v>4258000</v>
+        <v>4460000</v>
       </c>
       <c r="G8" s="3">
-        <v>2848400</v>
+        <v>2983500</v>
       </c>
       <c r="H8" s="3">
-        <v>3303100</v>
+        <v>3459800</v>
       </c>
       <c r="I8" s="3">
-        <v>3096100</v>
+        <v>3243000</v>
       </c>
       <c r="J8" s="3">
-        <v>3788100</v>
+        <v>3967800</v>
       </c>
       <c r="K8" s="3">
         <v>2495700</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2784200</v>
+        <v>2916300</v>
       </c>
       <c r="E9" s="3">
-        <v>2204000</v>
+        <v>2308500</v>
       </c>
       <c r="F9" s="3">
-        <v>3241300</v>
+        <v>3395100</v>
       </c>
       <c r="G9" s="3">
-        <v>2233500</v>
+        <v>2339400</v>
       </c>
       <c r="H9" s="3">
-        <v>2564000</v>
+        <v>2685600</v>
       </c>
       <c r="I9" s="3">
-        <v>2463400</v>
+        <v>2580300</v>
       </c>
       <c r="J9" s="3">
-        <v>3006100</v>
+        <v>3148700</v>
       </c>
       <c r="K9" s="3">
         <v>1987500</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>717400</v>
+        <v>751400</v>
       </c>
       <c r="E10" s="3">
-        <v>525300</v>
+        <v>550200</v>
       </c>
       <c r="F10" s="3">
-        <v>1016700</v>
+        <v>1065000</v>
       </c>
       <c r="G10" s="3">
-        <v>614900</v>
+        <v>644100</v>
       </c>
       <c r="H10" s="3">
-        <v>739100</v>
+        <v>774200</v>
       </c>
       <c r="I10" s="3">
-        <v>632700</v>
+        <v>662700</v>
       </c>
       <c r="J10" s="3">
-        <v>782000</v>
+        <v>819100</v>
       </c>
       <c r="K10" s="3">
         <v>508300</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>46800</v>
+        <v>49000</v>
       </c>
       <c r="G14" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1052,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3321500</v>
+        <v>3479100</v>
       </c>
       <c r="E17" s="3">
-        <v>2616400</v>
+        <v>2740500</v>
       </c>
       <c r="F17" s="3">
-        <v>4006600</v>
+        <v>4196600</v>
       </c>
       <c r="G17" s="3">
-        <v>2690700</v>
+        <v>2818400</v>
       </c>
       <c r="H17" s="3">
-        <v>3162900</v>
+        <v>3312900</v>
       </c>
       <c r="I17" s="3">
-        <v>2970700</v>
+        <v>3111700</v>
       </c>
       <c r="J17" s="3">
-        <v>3645300</v>
+        <v>3818200</v>
       </c>
       <c r="K17" s="3">
         <v>2446100</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>180100</v>
+        <v>188600</v>
       </c>
       <c r="E18" s="3">
-        <v>112900</v>
+        <v>118200</v>
       </c>
       <c r="F18" s="3">
-        <v>251500</v>
+        <v>263400</v>
       </c>
       <c r="G18" s="3">
-        <v>157700</v>
+        <v>165200</v>
       </c>
       <c r="H18" s="3">
-        <v>140200</v>
+        <v>146800</v>
       </c>
       <c r="I18" s="3">
-        <v>125400</v>
+        <v>131300</v>
       </c>
       <c r="J18" s="3">
-        <v>142800</v>
+        <v>149600</v>
       </c>
       <c r="K18" s="3">
         <v>49600</v>
@@ -1285,25 +1285,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>92600</v>
+        <v>97000</v>
       </c>
       <c r="E20" s="3">
-        <v>25000</v>
+        <v>26200</v>
       </c>
       <c r="F20" s="3">
         <v>700</v>
       </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="H20" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="I20" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="J20" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="K20" s="3">
         <v>2400</v>
@@ -1391,25 +1391,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="F22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G22" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="J22" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K22" s="3">
         <v>7500</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>269600</v>
+        <v>282400</v>
       </c>
       <c r="E23" s="3">
-        <v>132800</v>
+        <v>139100</v>
       </c>
       <c r="F23" s="3">
-        <v>250000</v>
+        <v>261800</v>
       </c>
       <c r="G23" s="3">
-        <v>160700</v>
+        <v>168300</v>
       </c>
       <c r="H23" s="3">
-        <v>151200</v>
+        <v>158300</v>
       </c>
       <c r="I23" s="3">
-        <v>156000</v>
+        <v>163400</v>
       </c>
       <c r="J23" s="3">
-        <v>143200</v>
+        <v>150000</v>
       </c>
       <c r="K23" s="3">
         <v>44600</v>
@@ -1497,25 +1497,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47200</v>
+        <v>49400</v>
       </c>
       <c r="E24" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="F24" s="3">
-        <v>45600</v>
+        <v>47700</v>
       </c>
       <c r="G24" s="3">
-        <v>30900</v>
+        <v>32300</v>
       </c>
       <c r="H24" s="3">
-        <v>31000</v>
+        <v>32500</v>
       </c>
       <c r="I24" s="3">
-        <v>35400</v>
+        <v>37100</v>
       </c>
       <c r="J24" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="K24" s="3">
         <v>14400</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>222400</v>
+        <v>233000</v>
       </c>
       <c r="E26" s="3">
-        <v>107700</v>
+        <v>112800</v>
       </c>
       <c r="F26" s="3">
-        <v>204400</v>
+        <v>214100</v>
       </c>
       <c r="G26" s="3">
-        <v>129800</v>
+        <v>136000</v>
       </c>
       <c r="H26" s="3">
-        <v>120200</v>
+        <v>125900</v>
       </c>
       <c r="I26" s="3">
-        <v>120600</v>
+        <v>126300</v>
       </c>
       <c r="J26" s="3">
-        <v>109500</v>
+        <v>114700</v>
       </c>
       <c r="K26" s="3">
         <v>30200</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>223200</v>
+        <v>233800</v>
       </c>
       <c r="E27" s="3">
-        <v>99500</v>
+        <v>104200</v>
       </c>
       <c r="F27" s="3">
-        <v>211400</v>
+        <v>221400</v>
       </c>
       <c r="G27" s="3">
-        <v>127100</v>
+        <v>133200</v>
       </c>
       <c r="H27" s="3">
-        <v>118100</v>
+        <v>123800</v>
       </c>
       <c r="I27" s="3">
-        <v>126700</v>
+        <v>132700</v>
       </c>
       <c r="J27" s="3">
-        <v>100000</v>
+        <v>104800</v>
       </c>
       <c r="K27" s="3">
         <v>32000</v>
@@ -1921,25 +1921,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-92600</v>
+        <v>-97000</v>
       </c>
       <c r="E32" s="3">
-        <v>-25000</v>
+        <v>-26200</v>
       </c>
       <c r="F32" s="3">
         <v>-700</v>
       </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-7300</v>
       </c>
       <c r="H32" s="3">
-        <v>-12700</v>
+        <v>-13300</v>
       </c>
       <c r="I32" s="3">
-        <v>-35300</v>
+        <v>-37000</v>
       </c>
       <c r="J32" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="K32" s="3">
         <v>-2400</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>223200</v>
+        <v>233800</v>
       </c>
       <c r="E33" s="3">
-        <v>99500</v>
+        <v>104200</v>
       </c>
       <c r="F33" s="3">
-        <v>211400</v>
+        <v>221400</v>
       </c>
       <c r="G33" s="3">
-        <v>127100</v>
+        <v>133200</v>
       </c>
       <c r="H33" s="3">
-        <v>118100</v>
+        <v>123800</v>
       </c>
       <c r="I33" s="3">
-        <v>126700</v>
+        <v>132700</v>
       </c>
       <c r="J33" s="3">
-        <v>100000</v>
+        <v>104800</v>
       </c>
       <c r="K33" s="3">
         <v>32000</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>223200</v>
+        <v>233800</v>
       </c>
       <c r="E35" s="3">
-        <v>99500</v>
+        <v>104200</v>
       </c>
       <c r="F35" s="3">
-        <v>211400</v>
+        <v>221400</v>
       </c>
       <c r="G35" s="3">
-        <v>127100</v>
+        <v>133200</v>
       </c>
       <c r="H35" s="3">
-        <v>118100</v>
+        <v>123800</v>
       </c>
       <c r="I35" s="3">
-        <v>126700</v>
+        <v>132700</v>
       </c>
       <c r="J35" s="3">
-        <v>100000</v>
+        <v>104800</v>
       </c>
       <c r="K35" s="3">
         <v>32000</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1074000</v>
+        <v>1124900</v>
       </c>
       <c r="E41" s="3">
-        <v>714200</v>
+        <v>748100</v>
       </c>
       <c r="F41" s="3">
-        <v>954700</v>
+        <v>1000000</v>
       </c>
       <c r="G41" s="3">
-        <v>831900</v>
+        <v>871300</v>
       </c>
       <c r="H41" s="3">
-        <v>992900</v>
+        <v>1040000</v>
       </c>
       <c r="I41" s="3">
-        <v>842400</v>
+        <v>882300</v>
       </c>
       <c r="J41" s="3">
-        <v>1385600</v>
+        <v>1451300</v>
       </c>
       <c r="K41" s="3">
         <v>864900</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>862600</v>
+        <v>903600</v>
       </c>
       <c r="E42" s="3">
-        <v>497300</v>
+        <v>520900</v>
       </c>
       <c r="F42" s="3">
-        <v>443300</v>
+        <v>464400</v>
       </c>
       <c r="G42" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="H42" s="3">
-        <v>34600</v>
+        <v>36300</v>
       </c>
       <c r="I42" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="J42" s="3">
-        <v>337100</v>
+        <v>353100</v>
       </c>
       <c r="K42" s="3">
         <v>266200</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>503600</v>
+        <v>527500</v>
       </c>
       <c r="E43" s="3">
-        <v>593800</v>
+        <v>622000</v>
       </c>
       <c r="F43" s="3">
-        <v>660500</v>
+        <v>691800</v>
       </c>
       <c r="G43" s="3">
-        <v>1563500</v>
+        <v>1637700</v>
       </c>
       <c r="H43" s="3">
-        <v>1078400</v>
+        <v>1129600</v>
       </c>
       <c r="I43" s="3">
-        <v>1129500</v>
+        <v>1183100</v>
       </c>
       <c r="J43" s="3">
-        <v>1393900</v>
+        <v>1460000</v>
       </c>
       <c r="K43" s="3">
         <v>1173000</v>
@@ -2392,25 +2392,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>837200</v>
+        <v>877000</v>
       </c>
       <c r="E44" s="3">
-        <v>742400</v>
+        <v>777700</v>
       </c>
       <c r="F44" s="3">
-        <v>1119500</v>
+        <v>1172600</v>
       </c>
       <c r="G44" s="3">
-        <v>78000</v>
+        <v>81700</v>
       </c>
       <c r="H44" s="3">
-        <v>652000</v>
+        <v>682900</v>
       </c>
       <c r="I44" s="3">
-        <v>583100</v>
+        <v>610700</v>
       </c>
       <c r="J44" s="3">
-        <v>779600</v>
+        <v>816600</v>
       </c>
       <c r="K44" s="3">
         <v>599500</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102300</v>
+        <v>107200</v>
       </c>
       <c r="E45" s="3">
-        <v>128100</v>
+        <v>134200</v>
       </c>
       <c r="F45" s="3">
-        <v>166400</v>
+        <v>174200</v>
       </c>
       <c r="G45" s="3">
-        <v>131400</v>
+        <v>137700</v>
       </c>
       <c r="H45" s="3">
-        <v>144500</v>
+        <v>151400</v>
       </c>
       <c r="I45" s="3">
-        <v>72200</v>
+        <v>75600</v>
       </c>
       <c r="J45" s="3">
-        <v>72300</v>
+        <v>75700</v>
       </c>
       <c r="K45" s="3">
         <v>49600</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3379800</v>
+        <v>3540200</v>
       </c>
       <c r="E46" s="3">
-        <v>2675900</v>
+        <v>2802800</v>
       </c>
       <c r="F46" s="3">
-        <v>3344400</v>
+        <v>3503000</v>
       </c>
       <c r="G46" s="3">
-        <v>2613100</v>
+        <v>2737100</v>
       </c>
       <c r="H46" s="3">
-        <v>2902500</v>
+        <v>3040200</v>
       </c>
       <c r="I46" s="3">
-        <v>2632900</v>
+        <v>2757900</v>
       </c>
       <c r="J46" s="3">
-        <v>3968500</v>
+        <v>4156800</v>
       </c>
       <c r="K46" s="3">
         <v>2953200</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>680000</v>
+        <v>712300</v>
       </c>
       <c r="E47" s="3">
-        <v>776000</v>
+        <v>812800</v>
       </c>
       <c r="F47" s="3">
-        <v>757800</v>
+        <v>793700</v>
       </c>
       <c r="G47" s="3">
-        <v>754600</v>
+        <v>790400</v>
       </c>
       <c r="H47" s="3">
-        <v>364200</v>
+        <v>381500</v>
       </c>
       <c r="I47" s="3">
-        <v>348200</v>
+        <v>364700</v>
       </c>
       <c r="J47" s="3">
-        <v>310500</v>
+        <v>325200</v>
       </c>
       <c r="K47" s="3">
         <v>263700</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2088400</v>
+        <v>2187400</v>
       </c>
       <c r="E48" s="3">
-        <v>1884700</v>
+        <v>1974100</v>
       </c>
       <c r="F48" s="3">
-        <v>1884000</v>
+        <v>1973400</v>
       </c>
       <c r="G48" s="3">
-        <v>1740500</v>
+        <v>1823000</v>
       </c>
       <c r="H48" s="3">
-        <v>1478800</v>
+        <v>1549000</v>
       </c>
       <c r="I48" s="3">
-        <v>1344200</v>
+        <v>1407900</v>
       </c>
       <c r="J48" s="3">
-        <v>1239000</v>
+        <v>1297800</v>
       </c>
       <c r="K48" s="3">
         <v>1072900</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>106000</v>
+        <v>111100</v>
       </c>
       <c r="E49" s="3">
-        <v>80300</v>
+        <v>84200</v>
       </c>
       <c r="F49" s="3">
-        <v>83400</v>
+        <v>87300</v>
       </c>
       <c r="G49" s="3">
-        <v>104900</v>
+        <v>109800</v>
       </c>
       <c r="H49" s="3">
-        <v>102700</v>
+        <v>107600</v>
       </c>
       <c r="I49" s="3">
-        <v>104500</v>
+        <v>109400</v>
       </c>
       <c r="J49" s="3">
-        <v>104600</v>
+        <v>109600</v>
       </c>
       <c r="K49" s="3">
         <v>100900</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1022200</v>
+        <v>1070700</v>
       </c>
       <c r="E52" s="3">
-        <v>982300</v>
+        <v>1028900</v>
       </c>
       <c r="F52" s="3">
-        <v>986200</v>
+        <v>1033000</v>
       </c>
       <c r="G52" s="3">
-        <v>942300</v>
+        <v>987000</v>
       </c>
       <c r="H52" s="3">
-        <v>849600</v>
+        <v>889900</v>
       </c>
       <c r="I52" s="3">
-        <v>830700</v>
+        <v>870200</v>
       </c>
       <c r="J52" s="3">
-        <v>704000</v>
+        <v>737400</v>
       </c>
       <c r="K52" s="3">
         <v>670300</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7276400</v>
+        <v>7621600</v>
       </c>
       <c r="E54" s="3">
-        <v>6399200</v>
+        <v>6702800</v>
       </c>
       <c r="F54" s="3">
-        <v>7055700</v>
+        <v>7390400</v>
       </c>
       <c r="G54" s="3">
-        <v>6155300</v>
+        <v>6447300</v>
       </c>
       <c r="H54" s="3">
-        <v>5697800</v>
+        <v>5968200</v>
       </c>
       <c r="I54" s="3">
-        <v>5260500</v>
+        <v>5510100</v>
       </c>
       <c r="J54" s="3">
-        <v>6326600</v>
+        <v>6626800</v>
       </c>
       <c r="K54" s="3">
         <v>5060900</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1728500</v>
+        <v>1810500</v>
       </c>
       <c r="E57" s="3">
-        <v>1347700</v>
+        <v>1411600</v>
       </c>
       <c r="F57" s="3">
-        <v>2003000</v>
+        <v>2098100</v>
       </c>
       <c r="G57" s="3">
-        <v>1477300</v>
+        <v>1547300</v>
       </c>
       <c r="H57" s="3">
-        <v>1563000</v>
+        <v>1637100</v>
       </c>
       <c r="I57" s="3">
-        <v>1385600</v>
+        <v>1451300</v>
       </c>
       <c r="J57" s="3">
-        <v>1689000</v>
+        <v>1769200</v>
       </c>
       <c r="K57" s="3">
         <v>969900</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>268800</v>
+        <v>281500</v>
       </c>
       <c r="E58" s="3">
-        <v>270200</v>
+        <v>283000</v>
       </c>
       <c r="F58" s="3">
-        <v>158800</v>
+        <v>166400</v>
       </c>
       <c r="G58" s="3">
-        <v>223200</v>
+        <v>233800</v>
       </c>
       <c r="H58" s="3">
-        <v>164300</v>
+        <v>172100</v>
       </c>
       <c r="I58" s="3">
-        <v>140700</v>
+        <v>147400</v>
       </c>
       <c r="J58" s="3">
-        <v>964200</v>
+        <v>1010000</v>
       </c>
       <c r="K58" s="3">
         <v>979100</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1144400</v>
+        <v>1198600</v>
       </c>
       <c r="E59" s="3">
-        <v>1027500</v>
+        <v>1076200</v>
       </c>
       <c r="F59" s="3">
-        <v>1312800</v>
+        <v>1375100</v>
       </c>
       <c r="G59" s="3">
-        <v>1128000</v>
+        <v>1181500</v>
       </c>
       <c r="H59" s="3">
-        <v>989400</v>
+        <v>1036300</v>
       </c>
       <c r="I59" s="3">
-        <v>959300</v>
+        <v>1004800</v>
       </c>
       <c r="J59" s="3">
-        <v>1114800</v>
+        <v>1167700</v>
       </c>
       <c r="K59" s="3">
         <v>688800</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3141700</v>
+        <v>3290700</v>
       </c>
       <c r="E60" s="3">
-        <v>2645300</v>
+        <v>2770800</v>
       </c>
       <c r="F60" s="3">
-        <v>3474700</v>
+        <v>3639600</v>
       </c>
       <c r="G60" s="3">
-        <v>2828500</v>
+        <v>2962700</v>
       </c>
       <c r="H60" s="3">
-        <v>2716700</v>
+        <v>2845600</v>
       </c>
       <c r="I60" s="3">
-        <v>2485600</v>
+        <v>2603600</v>
       </c>
       <c r="J60" s="3">
-        <v>3768100</v>
+        <v>3946900</v>
       </c>
       <c r="K60" s="3">
         <v>2637800</v>
@@ -3229,16 +3229,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28700</v>
+        <v>30100</v>
       </c>
       <c r="E61" s="3">
-        <v>38100</v>
+        <v>39900</v>
       </c>
       <c r="F61" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="G61" s="3">
-        <v>49400</v>
+        <v>51700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3282,25 +3282,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>449200</v>
+        <v>470500</v>
       </c>
       <c r="E62" s="3">
-        <v>353500</v>
+        <v>370300</v>
       </c>
       <c r="F62" s="3">
-        <v>340200</v>
+        <v>356400</v>
       </c>
       <c r="G62" s="3">
-        <v>270200</v>
+        <v>283000</v>
       </c>
       <c r="H62" s="3">
-        <v>178200</v>
+        <v>186700</v>
       </c>
       <c r="I62" s="3">
-        <v>119900</v>
+        <v>125600</v>
       </c>
       <c r="J62" s="3">
-        <v>59000</v>
+        <v>61700</v>
       </c>
       <c r="K62" s="3">
         <v>53900</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3723500</v>
+        <v>3900200</v>
       </c>
       <c r="E66" s="3">
-        <v>3106300</v>
+        <v>3253600</v>
       </c>
       <c r="F66" s="3">
-        <v>3885700</v>
+        <v>4070100</v>
       </c>
       <c r="G66" s="3">
-        <v>3185800</v>
+        <v>3336900</v>
       </c>
       <c r="H66" s="3">
-        <v>2889200</v>
+        <v>3026200</v>
       </c>
       <c r="I66" s="3">
-        <v>2599100</v>
+        <v>2722400</v>
       </c>
       <c r="J66" s="3">
-        <v>3819700</v>
+        <v>4000900</v>
       </c>
       <c r="K66" s="3">
         <v>2753700</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2041200</v>
+        <v>2138100</v>
       </c>
       <c r="E72" s="3">
-        <v>1818000</v>
+        <v>1904300</v>
       </c>
       <c r="F72" s="3">
-        <v>1731800</v>
+        <v>1813900</v>
       </c>
       <c r="G72" s="3">
-        <v>1520400</v>
+        <v>1592500</v>
       </c>
       <c r="H72" s="3">
-        <v>1393200</v>
+        <v>1459300</v>
       </c>
       <c r="I72" s="3">
-        <v>1275100</v>
+        <v>1335600</v>
       </c>
       <c r="J72" s="3">
-        <v>1148400</v>
+        <v>1202900</v>
       </c>
       <c r="K72" s="3">
         <v>1010400</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3552900</v>
+        <v>3721500</v>
       </c>
       <c r="E76" s="3">
-        <v>3292900</v>
+        <v>3449200</v>
       </c>
       <c r="F76" s="3">
-        <v>3170000</v>
+        <v>3320300</v>
       </c>
       <c r="G76" s="3">
-        <v>2969500</v>
+        <v>3110400</v>
       </c>
       <c r="H76" s="3">
-        <v>2808700</v>
+        <v>2941900</v>
       </c>
       <c r="I76" s="3">
-        <v>2661400</v>
+        <v>2787600</v>
       </c>
       <c r="J76" s="3">
-        <v>2506900</v>
+        <v>2625900</v>
       </c>
       <c r="K76" s="3">
         <v>2307200</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>223200</v>
+        <v>233800</v>
       </c>
       <c r="E81" s="3">
-        <v>99500</v>
+        <v>104200</v>
       </c>
       <c r="F81" s="3">
-        <v>211400</v>
+        <v>221400</v>
       </c>
       <c r="G81" s="3">
-        <v>127100</v>
+        <v>133200</v>
       </c>
       <c r="H81" s="3">
-        <v>118100</v>
+        <v>123800</v>
       </c>
       <c r="I81" s="3">
-        <v>126700</v>
+        <v>132700</v>
       </c>
       <c r="J81" s="3">
-        <v>100000</v>
+        <v>104800</v>
       </c>
       <c r="K81" s="3">
         <v>32000</v>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3667700</v>
+        <v>5465700</v>
       </c>
       <c r="E8" s="3">
-        <v>2858800</v>
+        <v>3541400</v>
       </c>
       <c r="F8" s="3">
-        <v>4460000</v>
+        <v>3683600</v>
       </c>
       <c r="G8" s="3">
-        <v>2983500</v>
+        <v>2871200</v>
       </c>
       <c r="H8" s="3">
-        <v>3459800</v>
+        <v>4479400</v>
       </c>
       <c r="I8" s="3">
+        <v>2996500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3474800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3243000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3967800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2495700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2975500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2851000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3581100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2272600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2599600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2320000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2760300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2916300</v>
+        <v>4266800</v>
       </c>
       <c r="E9" s="3">
-        <v>2308500</v>
+        <v>2795700</v>
       </c>
       <c r="F9" s="3">
-        <v>3395100</v>
+        <v>2928900</v>
       </c>
       <c r="G9" s="3">
-        <v>2339400</v>
+        <v>2318500</v>
       </c>
       <c r="H9" s="3">
-        <v>2685600</v>
+        <v>3409800</v>
       </c>
       <c r="I9" s="3">
+        <v>2349600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2697300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2580300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3148700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1987500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2395300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2275800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2803400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1753300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2026800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1782700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2110600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>751400</v>
+        <v>1198900</v>
       </c>
       <c r="E10" s="3">
-        <v>550200</v>
+        <v>745700</v>
       </c>
       <c r="F10" s="3">
-        <v>1065000</v>
+        <v>754700</v>
       </c>
       <c r="G10" s="3">
-        <v>644100</v>
+        <v>552600</v>
       </c>
       <c r="H10" s="3">
-        <v>774200</v>
+        <v>1069600</v>
       </c>
       <c r="I10" s="3">
+        <v>646900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>777500</v>
+      </c>
+      <c r="K10" s="3">
         <v>662700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>819100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>508300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>580200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>575300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>777700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>519400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>572800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>537300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>649700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,66 +1061,78 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>49000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>49200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>4400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>15300</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1095,47 +1140,53 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>6300</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>12500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>12500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>12700</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3479100</v>
+        <v>5075900</v>
       </c>
       <c r="E17" s="3">
-        <v>2740500</v>
+        <v>3350800</v>
       </c>
       <c r="F17" s="3">
-        <v>4196600</v>
+        <v>3494200</v>
       </c>
       <c r="G17" s="3">
-        <v>2818400</v>
+        <v>2752400</v>
       </c>
       <c r="H17" s="3">
-        <v>3312900</v>
+        <v>4214800</v>
       </c>
       <c r="I17" s="3">
+        <v>2830600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3327300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3111700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3818200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2446100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2918100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2756000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3465300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2221400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2550100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2237600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2643200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>188600</v>
+        <v>389800</v>
       </c>
       <c r="E18" s="3">
-        <v>118200</v>
+        <v>190700</v>
       </c>
       <c r="F18" s="3">
-        <v>263400</v>
+        <v>189500</v>
       </c>
       <c r="G18" s="3">
-        <v>165200</v>
+        <v>118700</v>
       </c>
       <c r="H18" s="3">
-        <v>146800</v>
+        <v>264500</v>
       </c>
       <c r="I18" s="3">
+        <v>165900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K18" s="3">
         <v>131300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>149600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>49600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>57400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>95100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>115800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>51200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>49600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>82500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>117100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1344,69 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>97000</v>
+        <v>39300</v>
       </c>
       <c r="E20" s="3">
-        <v>26200</v>
+        <v>30900</v>
       </c>
       <c r="F20" s="3">
+        <v>97400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>7300</v>
       </c>
-      <c r="H20" s="3">
-        <v>13300</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K20" s="3">
         <v>37000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>64700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>12500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>34600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>26900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>30400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,167 +1458,191 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5400</v>
       </c>
-      <c r="F22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2800</v>
       </c>
       <c r="P22" s="3">
         <v>2900</v>
       </c>
       <c r="Q22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S22" s="3">
         <v>3700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>282400</v>
+        <v>428200</v>
       </c>
       <c r="E23" s="3">
-        <v>139100</v>
+        <v>220900</v>
       </c>
       <c r="F23" s="3">
-        <v>261800</v>
+        <v>283600</v>
       </c>
       <c r="G23" s="3">
-        <v>168300</v>
+        <v>139700</v>
       </c>
       <c r="H23" s="3">
-        <v>158300</v>
+        <v>263000</v>
       </c>
       <c r="I23" s="3">
+        <v>169000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K23" s="3">
         <v>163400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>150000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>44600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>116500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>90400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>125400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>62500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>81300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>105700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>144500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>49400</v>
+        <v>58800</v>
       </c>
       <c r="E24" s="3">
-        <v>26300</v>
+        <v>37900</v>
       </c>
       <c r="F24" s="3">
-        <v>47700</v>
+        <v>49600</v>
       </c>
       <c r="G24" s="3">
-        <v>32300</v>
+        <v>26400</v>
       </c>
       <c r="H24" s="3">
+        <v>47900</v>
+      </c>
+      <c r="I24" s="3">
         <v>32500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K24" s="3">
         <v>37100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>35300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>18000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>15300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>28000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>15100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>25200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>24100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>30100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>233000</v>
+        <v>369500</v>
       </c>
       <c r="E26" s="3">
-        <v>112800</v>
+        <v>183000</v>
       </c>
       <c r="F26" s="3">
-        <v>214100</v>
+        <v>234000</v>
       </c>
       <c r="G26" s="3">
-        <v>136000</v>
+        <v>113300</v>
       </c>
       <c r="H26" s="3">
-        <v>125900</v>
+        <v>215000</v>
       </c>
       <c r="I26" s="3">
+        <v>136600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>126400</v>
+      </c>
+      <c r="K26" s="3">
         <v>126300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>114700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>30200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>98500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>75200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>97400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>47400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>56100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>81600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>114400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>233800</v>
+        <v>372900</v>
       </c>
       <c r="E27" s="3">
-        <v>104200</v>
+        <v>190100</v>
       </c>
       <c r="F27" s="3">
-        <v>221400</v>
+        <v>234800</v>
       </c>
       <c r="G27" s="3">
-        <v>133200</v>
+        <v>104600</v>
       </c>
       <c r="H27" s="3">
-        <v>123800</v>
+        <v>222400</v>
       </c>
       <c r="I27" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K27" s="3">
         <v>132700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>104800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>97800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>76000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>99900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>50200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>57400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>80300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>111700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-97000</v>
+        <v>-39300</v>
       </c>
       <c r="E32" s="3">
-        <v>-26200</v>
+        <v>-30900</v>
       </c>
       <c r="F32" s="3">
+        <v>-97400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-7300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-37000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-64700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-12500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-26900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-30400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>233800</v>
+        <v>372900</v>
       </c>
       <c r="E33" s="3">
-        <v>104200</v>
+        <v>190100</v>
       </c>
       <c r="F33" s="3">
-        <v>221400</v>
+        <v>234800</v>
       </c>
       <c r="G33" s="3">
-        <v>133200</v>
+        <v>104600</v>
       </c>
       <c r="H33" s="3">
-        <v>123800</v>
+        <v>222400</v>
       </c>
       <c r="I33" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K33" s="3">
         <v>132700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>104800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>32000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>97800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>76000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>99900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>50200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>57400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>80300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>111700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>233800</v>
+        <v>372900</v>
       </c>
       <c r="E35" s="3">
-        <v>104200</v>
+        <v>190100</v>
       </c>
       <c r="F35" s="3">
-        <v>221400</v>
+        <v>234800</v>
       </c>
       <c r="G35" s="3">
-        <v>133200</v>
+        <v>104600</v>
       </c>
       <c r="H35" s="3">
-        <v>123800</v>
+        <v>222400</v>
       </c>
       <c r="I35" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K35" s="3">
         <v>132700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>104800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>32000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>97800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>76000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>99900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>50200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>57400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>80300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>111700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2398,541 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1124900</v>
+        <v>1832700</v>
       </c>
       <c r="E41" s="3">
-        <v>748100</v>
+        <v>1357300</v>
       </c>
       <c r="F41" s="3">
-        <v>1000000</v>
+        <v>1129800</v>
       </c>
       <c r="G41" s="3">
-        <v>871300</v>
+        <v>751400</v>
       </c>
       <c r="H41" s="3">
-        <v>1040000</v>
+        <v>1004300</v>
       </c>
       <c r="I41" s="3">
+        <v>875100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1044600</v>
+      </c>
+      <c r="K41" s="3">
         <v>882300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1451300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>864900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>868200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1005500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1480200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>544000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>615700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>645000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>597700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>903600</v>
+        <v>1119700</v>
       </c>
       <c r="E42" s="3">
-        <v>520900</v>
+        <v>755900</v>
       </c>
       <c r="F42" s="3">
-        <v>464400</v>
+        <v>907500</v>
       </c>
       <c r="G42" s="3">
+        <v>523100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>466400</v>
+      </c>
+      <c r="I42" s="3">
         <v>8800</v>
       </c>
-      <c r="H42" s="3">
-        <v>36300</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K42" s="3">
         <v>6100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>353100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>266200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>296900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>259300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>36500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>34200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>50900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>108500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>97700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>527500</v>
+        <v>455500</v>
       </c>
       <c r="E43" s="3">
-        <v>622000</v>
+        <v>478100</v>
       </c>
       <c r="F43" s="3">
-        <v>691800</v>
+        <v>529800</v>
       </c>
       <c r="G43" s="3">
-        <v>1637700</v>
+        <v>624700</v>
       </c>
       <c r="H43" s="3">
-        <v>1129600</v>
+        <v>694800</v>
       </c>
       <c r="I43" s="3">
+        <v>1644800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1134500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1183100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1460000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1173000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1280600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1171200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1258200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>941600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>845400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>717900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>673000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>877000</v>
+        <v>1167600</v>
       </c>
       <c r="E44" s="3">
-        <v>777700</v>
+        <v>980800</v>
       </c>
       <c r="F44" s="3">
-        <v>1172600</v>
+        <v>880800</v>
       </c>
       <c r="G44" s="3">
-        <v>81700</v>
+        <v>781000</v>
       </c>
       <c r="H44" s="3">
-        <v>682900</v>
+        <v>1177700</v>
       </c>
       <c r="I44" s="3">
+        <v>82100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>685900</v>
+      </c>
+      <c r="K44" s="3">
         <v>610700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>816600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>599500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>658600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>729100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1033000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>644300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>551600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>525900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>719700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107200</v>
+        <v>187100</v>
       </c>
       <c r="E45" s="3">
-        <v>134200</v>
+        <v>108600</v>
       </c>
       <c r="F45" s="3">
-        <v>174200</v>
+        <v>107700</v>
       </c>
       <c r="G45" s="3">
-        <v>137700</v>
+        <v>134800</v>
       </c>
       <c r="H45" s="3">
-        <v>151400</v>
+        <v>175000</v>
       </c>
       <c r="I45" s="3">
+        <v>138200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K45" s="3">
         <v>75600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>75700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>49600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>53900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>50000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>38300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>32500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3540200</v>
+        <v>4762600</v>
       </c>
       <c r="E46" s="3">
-        <v>2802800</v>
+        <v>3680700</v>
       </c>
       <c r="F46" s="3">
-        <v>3503000</v>
+        <v>3555500</v>
       </c>
       <c r="G46" s="3">
-        <v>2737100</v>
+        <v>2815000</v>
       </c>
       <c r="H46" s="3">
-        <v>3040200</v>
+        <v>3518200</v>
       </c>
       <c r="I46" s="3">
+        <v>2749000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3053400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2757900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4156800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2953200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3158200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3215200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3846200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2170400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2072600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1998100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2120500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>712300</v>
+        <v>735000</v>
       </c>
       <c r="E47" s="3">
-        <v>812800</v>
+        <v>743900</v>
       </c>
       <c r="F47" s="3">
-        <v>793700</v>
+        <v>715400</v>
       </c>
       <c r="G47" s="3">
-        <v>790400</v>
+        <v>816300</v>
       </c>
       <c r="H47" s="3">
-        <v>381500</v>
+        <v>797200</v>
       </c>
       <c r="I47" s="3">
+        <v>793800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>383100</v>
+      </c>
+      <c r="K47" s="3">
         <v>364700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>325200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>263700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>260300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>83900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>89100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>94200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>93500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>147400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>146000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2187400</v>
+        <v>2316900</v>
       </c>
       <c r="E48" s="3">
-        <v>1974100</v>
+        <v>2324100</v>
       </c>
       <c r="F48" s="3">
-        <v>1973400</v>
+        <v>2196900</v>
       </c>
       <c r="G48" s="3">
-        <v>1823000</v>
+        <v>1982600</v>
       </c>
       <c r="H48" s="3">
-        <v>1549000</v>
+        <v>1981900</v>
       </c>
       <c r="I48" s="3">
+        <v>1830900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1555700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1407900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1297800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1072900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1018600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>961500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>988500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>914400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>817800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>671000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>649700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>111100</v>
+        <v>141600</v>
       </c>
       <c r="E49" s="3">
-        <v>84200</v>
+        <v>144800</v>
       </c>
       <c r="F49" s="3">
-        <v>87300</v>
+        <v>111600</v>
       </c>
       <c r="G49" s="3">
-        <v>109800</v>
+        <v>84500</v>
       </c>
       <c r="H49" s="3">
-        <v>107600</v>
+        <v>87700</v>
       </c>
       <c r="I49" s="3">
+        <v>110300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>108100</v>
+      </c>
+      <c r="K49" s="3">
         <v>109400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>109600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>100900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>103600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>103700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>114000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>126400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>139000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>148500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>158800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1070700</v>
+        <v>1048900</v>
       </c>
       <c r="E52" s="3">
-        <v>1028900</v>
+        <v>1087900</v>
       </c>
       <c r="F52" s="3">
-        <v>1033000</v>
+        <v>1075300</v>
       </c>
       <c r="G52" s="3">
-        <v>987000</v>
+        <v>1033400</v>
       </c>
       <c r="H52" s="3">
-        <v>889900</v>
+        <v>1037500</v>
       </c>
       <c r="I52" s="3">
+        <v>991200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>893800</v>
+      </c>
+      <c r="K52" s="3">
         <v>870200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>737400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>670300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>644100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>648800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>599200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>590200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>602000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>628200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>574400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7621600</v>
+        <v>9005000</v>
       </c>
       <c r="E54" s="3">
-        <v>6702800</v>
+        <v>7981400</v>
       </c>
       <c r="F54" s="3">
-        <v>7390400</v>
+        <v>7654700</v>
       </c>
       <c r="G54" s="3">
-        <v>6447300</v>
+        <v>6731900</v>
       </c>
       <c r="H54" s="3">
-        <v>5968200</v>
+        <v>7422500</v>
       </c>
       <c r="I54" s="3">
+        <v>6475300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5994100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5510100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6626800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5060900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5184800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5013200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5637000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3895700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3724800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3593200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3649500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1810500</v>
+        <v>2320900</v>
       </c>
       <c r="E57" s="3">
-        <v>1411600</v>
+        <v>1745000</v>
       </c>
       <c r="F57" s="3">
-        <v>2098100</v>
+        <v>1818400</v>
       </c>
       <c r="G57" s="3">
-        <v>1547300</v>
+        <v>1417700</v>
       </c>
       <c r="H57" s="3">
-        <v>1637100</v>
+        <v>2107200</v>
       </c>
       <c r="I57" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1644200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1451300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1769200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>969900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1206500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1373100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1698600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1252000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1209800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1139500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1212000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>281500</v>
+        <v>159400</v>
       </c>
       <c r="E58" s="3">
-        <v>283000</v>
+        <v>310900</v>
       </c>
       <c r="F58" s="3">
-        <v>166400</v>
+        <v>282800</v>
       </c>
       <c r="G58" s="3">
-        <v>233800</v>
+        <v>284200</v>
       </c>
       <c r="H58" s="3">
-        <v>172100</v>
+        <v>167100</v>
       </c>
       <c r="I58" s="3">
+        <v>234800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K58" s="3">
         <v>147400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1010000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>979100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>950500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>742300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>247400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>124500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>42700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>41400</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1198600</v>
+        <v>1578900</v>
       </c>
       <c r="E59" s="3">
-        <v>1076200</v>
+        <v>1362900</v>
       </c>
       <c r="F59" s="3">
-        <v>1375100</v>
+        <v>1203800</v>
       </c>
       <c r="G59" s="3">
-        <v>1181500</v>
+        <v>1080900</v>
       </c>
       <c r="H59" s="3">
-        <v>1036300</v>
+        <v>1381100</v>
       </c>
       <c r="I59" s="3">
+        <v>1186600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1040800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1004800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1167700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>688800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>678100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>678100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>912000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>699500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>724200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>778600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>908900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3290700</v>
+        <v>4059200</v>
       </c>
       <c r="E60" s="3">
-        <v>2770800</v>
+        <v>3418800</v>
       </c>
       <c r="F60" s="3">
-        <v>3639600</v>
+        <v>3305000</v>
       </c>
       <c r="G60" s="3">
-        <v>2962700</v>
+        <v>2782800</v>
       </c>
       <c r="H60" s="3">
-        <v>2845600</v>
+        <v>3655400</v>
       </c>
       <c r="I60" s="3">
+        <v>2975500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2857900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2603600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3946900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2637800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2835000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2793500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2858000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2076000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1976700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1959500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2120900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>39900</v>
+        <v>30200</v>
       </c>
       <c r="F61" s="3">
-        <v>9800</v>
+        <v>30200</v>
       </c>
       <c r="G61" s="3">
-        <v>51700</v>
+        <v>40100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>51900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>69100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>607700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>621500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>633200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>631500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>637200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>470500</v>
+        <v>456200</v>
       </c>
       <c r="E62" s="3">
-        <v>370300</v>
+        <v>460800</v>
       </c>
       <c r="F62" s="3">
-        <v>356400</v>
+        <v>472500</v>
       </c>
       <c r="G62" s="3">
-        <v>283000</v>
+        <v>371900</v>
       </c>
       <c r="H62" s="3">
-        <v>186700</v>
+        <v>357900</v>
       </c>
       <c r="I62" s="3">
+        <v>284200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K62" s="3">
         <v>125600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>61700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>53900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>55600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>52700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>56300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>52500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>55100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>48500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>50500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3900200</v>
+        <v>4651100</v>
       </c>
       <c r="E66" s="3">
-        <v>3253600</v>
+        <v>4021800</v>
       </c>
       <c r="F66" s="3">
-        <v>4070100</v>
+        <v>3917100</v>
       </c>
       <c r="G66" s="3">
-        <v>3336900</v>
+        <v>3267700</v>
       </c>
       <c r="H66" s="3">
-        <v>3026200</v>
+        <v>4087700</v>
       </c>
       <c r="I66" s="3">
+        <v>3351400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3039400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2722400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4000900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2753700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2883700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2839200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3515600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2745200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2663200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2645500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2815900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2138100</v>
+        <v>2710400</v>
       </c>
       <c r="E72" s="3">
-        <v>1904300</v>
+        <v>2337500</v>
       </c>
       <c r="F72" s="3">
-        <v>1813900</v>
+        <v>2147400</v>
       </c>
       <c r="G72" s="3">
-        <v>1592500</v>
+        <v>1912500</v>
       </c>
       <c r="H72" s="3">
-        <v>1459300</v>
+        <v>1821800</v>
       </c>
       <c r="I72" s="3">
+        <v>1599400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1465600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1335600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1202900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1010400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1003000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>905200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>831500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>731600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>681400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>611500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>531300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3721500</v>
+        <v>4353900</v>
       </c>
       <c r="E76" s="3">
-        <v>3449200</v>
+        <v>3959600</v>
       </c>
       <c r="F76" s="3">
-        <v>3320300</v>
+        <v>3737600</v>
       </c>
       <c r="G76" s="3">
-        <v>3110400</v>
+        <v>3464100</v>
       </c>
       <c r="H76" s="3">
-        <v>2941900</v>
+        <v>3334800</v>
       </c>
       <c r="I76" s="3">
+        <v>3123900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2954700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2787600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2625900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2307200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2301100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2174000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2121400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1150500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1061600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>947600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>833600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>233800</v>
+        <v>372900</v>
       </c>
       <c r="E81" s="3">
-        <v>104200</v>
+        <v>190100</v>
       </c>
       <c r="F81" s="3">
-        <v>221400</v>
+        <v>234800</v>
       </c>
       <c r="G81" s="3">
-        <v>133200</v>
+        <v>104600</v>
       </c>
       <c r="H81" s="3">
-        <v>123800</v>
+        <v>222400</v>
       </c>
       <c r="I81" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K81" s="3">
         <v>132700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>104800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>32000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>97800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>76000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>99900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>50200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>57400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>80300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>111700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4969,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5546,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5465700</v>
+        <v>4430400</v>
       </c>
       <c r="E8" s="3">
-        <v>3541400</v>
+        <v>5581200</v>
       </c>
       <c r="F8" s="3">
-        <v>3683600</v>
+        <v>3616300</v>
       </c>
       <c r="G8" s="3">
-        <v>2871200</v>
+        <v>3761500</v>
       </c>
       <c r="H8" s="3">
-        <v>4479400</v>
+        <v>2931900</v>
       </c>
       <c r="I8" s="3">
-        <v>2996500</v>
+        <v>4574100</v>
       </c>
       <c r="J8" s="3">
+        <v>3059800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3474800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3243000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3967800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2495700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2975500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2851000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3581100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2272600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2599600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2320000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2760300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4266800</v>
+        <v>3557600</v>
       </c>
       <c r="E9" s="3">
-        <v>2795700</v>
+        <v>4357000</v>
       </c>
       <c r="F9" s="3">
-        <v>2928900</v>
+        <v>2854800</v>
       </c>
       <c r="G9" s="3">
-        <v>2318500</v>
+        <v>2990800</v>
       </c>
       <c r="H9" s="3">
-        <v>3409800</v>
+        <v>2367600</v>
       </c>
       <c r="I9" s="3">
-        <v>2349600</v>
+        <v>3481900</v>
       </c>
       <c r="J9" s="3">
+        <v>2399300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2697300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2580300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3148700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1987500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2395300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2275800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2803400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1753300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2026800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1782700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2110600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1198900</v>
+        <v>872800</v>
       </c>
       <c r="E10" s="3">
-        <v>745700</v>
+        <v>1224300</v>
       </c>
       <c r="F10" s="3">
-        <v>754700</v>
+        <v>761500</v>
       </c>
       <c r="G10" s="3">
-        <v>552600</v>
+        <v>770700</v>
       </c>
       <c r="H10" s="3">
-        <v>1069600</v>
+        <v>564300</v>
       </c>
       <c r="I10" s="3">
-        <v>646900</v>
+        <v>1092200</v>
       </c>
       <c r="J10" s="3">
+        <v>660600</v>
+      </c>
+      <c r="K10" s="3">
         <v>777500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>662700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>819100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>508300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>580200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>575300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>777700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>519400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>572800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>537300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>649700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,72 +1084,78 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>49200</v>
-      </c>
       <c r="I14" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>50300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>13000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>15300</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>900</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1146,47 +1169,50 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
         <v>6300</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>12500</v>
       </c>
       <c r="R15" s="3">
         <v>12500</v>
       </c>
       <c r="S15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="T15" s="3">
         <v>12700</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5075900</v>
+        <v>4194700</v>
       </c>
       <c r="E17" s="3">
-        <v>3350800</v>
+        <v>5183200</v>
       </c>
       <c r="F17" s="3">
-        <v>3494200</v>
+        <v>3421600</v>
       </c>
       <c r="G17" s="3">
-        <v>2752400</v>
+        <v>3568100</v>
       </c>
       <c r="H17" s="3">
-        <v>4214800</v>
+        <v>2810600</v>
       </c>
       <c r="I17" s="3">
-        <v>2830600</v>
+        <v>4303900</v>
       </c>
       <c r="J17" s="3">
+        <v>2890400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3327300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3111700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3818200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2446100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2918100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2756000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3465300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2221400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2550100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2237600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2643200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>389800</v>
+        <v>235800</v>
       </c>
       <c r="E18" s="3">
-        <v>190700</v>
+        <v>398100</v>
       </c>
       <c r="F18" s="3">
-        <v>189500</v>
+        <v>194700</v>
       </c>
       <c r="G18" s="3">
-        <v>118700</v>
+        <v>193500</v>
       </c>
       <c r="H18" s="3">
-        <v>264500</v>
+        <v>121200</v>
       </c>
       <c r="I18" s="3">
-        <v>165900</v>
+        <v>270100</v>
       </c>
       <c r="J18" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K18" s="3">
         <v>147500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>131300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>149600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>49600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>115800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>49600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>82500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>117100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39300</v>
+        <v>44000</v>
       </c>
       <c r="E20" s="3">
-        <v>30900</v>
+        <v>40200</v>
       </c>
       <c r="F20" s="3">
-        <v>97400</v>
+        <v>31600</v>
       </c>
       <c r="G20" s="3">
-        <v>26300</v>
+        <v>99400</v>
       </c>
       <c r="H20" s="3">
+        <v>26900</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
-        <v>7300</v>
-      </c>
       <c r="J20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K20" s="3">
         <v>13400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>64700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>26900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,185 +1501,197 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
-        <v>3200</v>
-      </c>
       <c r="G22" s="3">
-        <v>5400</v>
+        <v>3300</v>
       </c>
       <c r="H22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
-        <v>4100</v>
-      </c>
       <c r="J22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>428200</v>
+        <v>279300</v>
       </c>
       <c r="E23" s="3">
-        <v>220900</v>
+        <v>437300</v>
       </c>
       <c r="F23" s="3">
-        <v>283600</v>
+        <v>225600</v>
       </c>
       <c r="G23" s="3">
-        <v>139700</v>
+        <v>289600</v>
       </c>
       <c r="H23" s="3">
-        <v>263000</v>
+        <v>142600</v>
       </c>
       <c r="I23" s="3">
-        <v>169000</v>
+        <v>268500</v>
       </c>
       <c r="J23" s="3">
+        <v>172600</v>
+      </c>
+      <c r="K23" s="3">
         <v>159000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>163400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>150000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>116500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>90400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>125400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>62500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>81300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>105700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>144500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>58800</v>
+        <v>47900</v>
       </c>
       <c r="E24" s="3">
-        <v>37900</v>
+        <v>60000</v>
       </c>
       <c r="F24" s="3">
-        <v>49600</v>
+        <v>38700</v>
       </c>
       <c r="G24" s="3">
-        <v>26400</v>
+        <v>50700</v>
       </c>
       <c r="H24" s="3">
-        <v>47900</v>
+        <v>26900</v>
       </c>
       <c r="I24" s="3">
-        <v>32500</v>
+        <v>49000</v>
       </c>
       <c r="J24" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K24" s="3">
         <v>32600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>369500</v>
+        <v>231400</v>
       </c>
       <c r="E26" s="3">
-        <v>183000</v>
+        <v>377300</v>
       </c>
       <c r="F26" s="3">
-        <v>234000</v>
+        <v>186900</v>
       </c>
       <c r="G26" s="3">
-        <v>113300</v>
+        <v>238900</v>
       </c>
       <c r="H26" s="3">
-        <v>215000</v>
+        <v>115700</v>
       </c>
       <c r="I26" s="3">
-        <v>136600</v>
+        <v>219600</v>
       </c>
       <c r="J26" s="3">
+        <v>139500</v>
+      </c>
+      <c r="K26" s="3">
         <v>126400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>126300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>98500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>75200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>97400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>81600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>114400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>372900</v>
+        <v>241100</v>
       </c>
       <c r="E27" s="3">
-        <v>190100</v>
+        <v>380800</v>
       </c>
       <c r="F27" s="3">
-        <v>234800</v>
+        <v>194100</v>
       </c>
       <c r="G27" s="3">
-        <v>104600</v>
+        <v>239800</v>
       </c>
       <c r="H27" s="3">
-        <v>222400</v>
+        <v>106800</v>
       </c>
       <c r="I27" s="3">
-        <v>133800</v>
+        <v>227100</v>
       </c>
       <c r="J27" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K27" s="3">
         <v>124300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>132700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>104800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>97800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>99900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>80300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>111700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39300</v>
+        <v>-44000</v>
       </c>
       <c r="E32" s="3">
-        <v>-30900</v>
+        <v>-40200</v>
       </c>
       <c r="F32" s="3">
-        <v>-97400</v>
+        <v>-31600</v>
       </c>
       <c r="G32" s="3">
-        <v>-26300</v>
+        <v>-99400</v>
       </c>
       <c r="H32" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-64700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-26900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>372900</v>
+        <v>241100</v>
       </c>
       <c r="E33" s="3">
-        <v>190100</v>
+        <v>380800</v>
       </c>
       <c r="F33" s="3">
-        <v>234800</v>
+        <v>194100</v>
       </c>
       <c r="G33" s="3">
-        <v>104600</v>
+        <v>239800</v>
       </c>
       <c r="H33" s="3">
-        <v>222400</v>
+        <v>106800</v>
       </c>
       <c r="I33" s="3">
-        <v>133800</v>
+        <v>227100</v>
       </c>
       <c r="J33" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K33" s="3">
         <v>124300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>132700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>104800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>97800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>99900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>80300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>111700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>372900</v>
+        <v>241100</v>
       </c>
       <c r="E35" s="3">
-        <v>190100</v>
+        <v>380800</v>
       </c>
       <c r="F35" s="3">
-        <v>234800</v>
+        <v>194100</v>
       </c>
       <c r="G35" s="3">
-        <v>104600</v>
+        <v>239800</v>
       </c>
       <c r="H35" s="3">
-        <v>222400</v>
+        <v>106800</v>
       </c>
       <c r="I35" s="3">
-        <v>133800</v>
+        <v>227100</v>
       </c>
       <c r="J35" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K35" s="3">
         <v>124300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>132700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>104800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>97800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>99900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>80300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>111700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1832700</v>
+        <v>2252000</v>
       </c>
       <c r="E41" s="3">
-        <v>1357300</v>
+        <v>1871400</v>
       </c>
       <c r="F41" s="3">
-        <v>1129800</v>
+        <v>1386000</v>
       </c>
       <c r="G41" s="3">
-        <v>751400</v>
+        <v>1153700</v>
       </c>
       <c r="H41" s="3">
-        <v>1004300</v>
+        <v>767200</v>
       </c>
       <c r="I41" s="3">
-        <v>875100</v>
+        <v>1025600</v>
       </c>
       <c r="J41" s="3">
+        <v>893600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1044600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>882300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1451300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>864900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>868200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1005500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1480200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>544000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>615700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>645000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>597700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1119700</v>
+        <v>580800</v>
       </c>
       <c r="E42" s="3">
-        <v>755900</v>
+        <v>1143400</v>
       </c>
       <c r="F42" s="3">
-        <v>907500</v>
+        <v>771800</v>
       </c>
       <c r="G42" s="3">
-        <v>523100</v>
+        <v>926700</v>
       </c>
       <c r="H42" s="3">
-        <v>466400</v>
+        <v>534200</v>
       </c>
       <c r="I42" s="3">
-        <v>8800</v>
+        <v>476300</v>
       </c>
       <c r="J42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K42" s="3">
         <v>36400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>353100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>266200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>296900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>259300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>50900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>108500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>97700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>455500</v>
+        <v>459200</v>
       </c>
       <c r="E43" s="3">
-        <v>478100</v>
+        <v>465200</v>
       </c>
       <c r="F43" s="3">
-        <v>529800</v>
+        <v>488200</v>
       </c>
       <c r="G43" s="3">
-        <v>624700</v>
+        <v>541000</v>
       </c>
       <c r="H43" s="3">
-        <v>694800</v>
+        <v>637900</v>
       </c>
       <c r="I43" s="3">
-        <v>1644800</v>
+        <v>709500</v>
       </c>
       <c r="J43" s="3">
+        <v>1679500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1134500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1183100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1460000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1173000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1280600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1171200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1258200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>941600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>845400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>717900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>673000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1167600</v>
+        <v>907800</v>
       </c>
       <c r="E44" s="3">
-        <v>980800</v>
+        <v>1192300</v>
       </c>
       <c r="F44" s="3">
-        <v>880800</v>
+        <v>1001600</v>
       </c>
       <c r="G44" s="3">
-        <v>781000</v>
+        <v>899400</v>
       </c>
       <c r="H44" s="3">
-        <v>1177700</v>
+        <v>797500</v>
       </c>
       <c r="I44" s="3">
-        <v>82100</v>
+        <v>1202600</v>
       </c>
       <c r="J44" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K44" s="3">
         <v>685900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>610700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>816600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>599500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>658600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>729100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>644300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>551600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>525900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>719700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187100</v>
+        <v>104800</v>
       </c>
       <c r="E45" s="3">
-        <v>108600</v>
+        <v>191100</v>
       </c>
       <c r="F45" s="3">
-        <v>107700</v>
+        <v>110900</v>
       </c>
       <c r="G45" s="3">
-        <v>134800</v>
+        <v>109900</v>
       </c>
       <c r="H45" s="3">
-        <v>175000</v>
+        <v>137600</v>
       </c>
       <c r="I45" s="3">
-        <v>138200</v>
+        <v>178700</v>
       </c>
       <c r="J45" s="3">
+        <v>141200</v>
+      </c>
+      <c r="K45" s="3">
         <v>152100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4762600</v>
+        <v>4304600</v>
       </c>
       <c r="E46" s="3">
-        <v>3680700</v>
+        <v>4863300</v>
       </c>
       <c r="F46" s="3">
-        <v>3555500</v>
+        <v>3758500</v>
       </c>
       <c r="G46" s="3">
-        <v>2815000</v>
+        <v>3630700</v>
       </c>
       <c r="H46" s="3">
-        <v>3518200</v>
+        <v>2874500</v>
       </c>
       <c r="I46" s="3">
-        <v>2749000</v>
+        <v>3592600</v>
       </c>
       <c r="J46" s="3">
+        <v>2807100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3053400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2757900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4156800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2953200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3158200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3215200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3846200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2170400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2072600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1998100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2120500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>735000</v>
+        <v>779900</v>
       </c>
       <c r="E47" s="3">
-        <v>743900</v>
+        <v>750500</v>
       </c>
       <c r="F47" s="3">
-        <v>715400</v>
+        <v>759600</v>
       </c>
       <c r="G47" s="3">
-        <v>816300</v>
+        <v>730500</v>
       </c>
       <c r="H47" s="3">
-        <v>797200</v>
+        <v>833600</v>
       </c>
       <c r="I47" s="3">
-        <v>793800</v>
+        <v>814000</v>
       </c>
       <c r="J47" s="3">
+        <v>810600</v>
+      </c>
+      <c r="K47" s="3">
         <v>383100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>364700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>325200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>263700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>260300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>83900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>94200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>93500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>147400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>146000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2316900</v>
+        <v>2345000</v>
       </c>
       <c r="E48" s="3">
-        <v>2324100</v>
+        <v>2365900</v>
       </c>
       <c r="F48" s="3">
-        <v>2196900</v>
+        <v>2373200</v>
       </c>
       <c r="G48" s="3">
-        <v>1982600</v>
+        <v>2243400</v>
       </c>
       <c r="H48" s="3">
-        <v>1981900</v>
+        <v>2024500</v>
       </c>
       <c r="I48" s="3">
-        <v>1830900</v>
+        <v>2023800</v>
       </c>
       <c r="J48" s="3">
+        <v>1869600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1555700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1407900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1297800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1072900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1018600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>961500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>988500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>914400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>817800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>671000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>649700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141600</v>
+        <v>143600</v>
       </c>
       <c r="E49" s="3">
-        <v>144800</v>
+        <v>144600</v>
       </c>
       <c r="F49" s="3">
-        <v>111600</v>
+        <v>147900</v>
       </c>
       <c r="G49" s="3">
-        <v>84500</v>
+        <v>113900</v>
       </c>
       <c r="H49" s="3">
-        <v>87700</v>
+        <v>86300</v>
       </c>
       <c r="I49" s="3">
-        <v>110300</v>
+        <v>89600</v>
       </c>
       <c r="J49" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K49" s="3">
         <v>108100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>109400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>109600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>100900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>103600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>103700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>114000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>126400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>139000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>148500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>158800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1048900</v>
+        <v>1092800</v>
       </c>
       <c r="E52" s="3">
-        <v>1087900</v>
+        <v>1071000</v>
       </c>
       <c r="F52" s="3">
-        <v>1075300</v>
+        <v>1110900</v>
       </c>
       <c r="G52" s="3">
-        <v>1033400</v>
+        <v>1098000</v>
       </c>
       <c r="H52" s="3">
-        <v>1037500</v>
+        <v>1055200</v>
       </c>
       <c r="I52" s="3">
-        <v>991200</v>
+        <v>1059400</v>
       </c>
       <c r="J52" s="3">
+        <v>1012200</v>
+      </c>
+      <c r="K52" s="3">
         <v>893800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>870200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>737400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>670300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>644100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>648800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>599200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>590200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>602000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>628200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>574400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9005000</v>
+        <v>8665900</v>
       </c>
       <c r="E54" s="3">
-        <v>7981400</v>
+        <v>9195400</v>
       </c>
       <c r="F54" s="3">
-        <v>7654700</v>
+        <v>8150100</v>
       </c>
       <c r="G54" s="3">
-        <v>6731900</v>
+        <v>7816500</v>
       </c>
       <c r="H54" s="3">
-        <v>7422500</v>
+        <v>6874200</v>
       </c>
       <c r="I54" s="3">
-        <v>6475300</v>
+        <v>7579400</v>
       </c>
       <c r="J54" s="3">
+        <v>6612200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5994100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5510100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6626800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5060900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5184800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5013200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5637000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3895700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3724800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3593200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3649500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,244 +3402,257 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2320900</v>
+        <v>1683200</v>
       </c>
       <c r="E57" s="3">
-        <v>1745000</v>
+        <v>2370000</v>
       </c>
       <c r="F57" s="3">
-        <v>1818400</v>
+        <v>1781900</v>
       </c>
       <c r="G57" s="3">
-        <v>1417700</v>
+        <v>1856800</v>
       </c>
       <c r="H57" s="3">
-        <v>2107200</v>
+        <v>1447700</v>
       </c>
       <c r="I57" s="3">
-        <v>1554000</v>
+        <v>2151700</v>
       </c>
       <c r="J57" s="3">
+        <v>1586900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1644200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1451300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1769200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>969900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1206500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1373100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1698600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1252000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1209800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1139500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1212000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159400</v>
+        <v>19100</v>
       </c>
       <c r="E58" s="3">
-        <v>310900</v>
+        <v>162800</v>
       </c>
       <c r="F58" s="3">
-        <v>282800</v>
+        <v>317500</v>
       </c>
       <c r="G58" s="3">
-        <v>284200</v>
+        <v>288700</v>
       </c>
       <c r="H58" s="3">
-        <v>167100</v>
+        <v>290200</v>
       </c>
       <c r="I58" s="3">
-        <v>234800</v>
+        <v>170600</v>
       </c>
       <c r="J58" s="3">
+        <v>239800</v>
+      </c>
+      <c r="K58" s="3">
         <v>172900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>147400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1010000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>979100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>950500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>742300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>247400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>124500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>42700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>41400</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1578900</v>
+        <v>1575900</v>
       </c>
       <c r="E59" s="3">
-        <v>1362900</v>
+        <v>1612200</v>
       </c>
       <c r="F59" s="3">
-        <v>1203800</v>
+        <v>1391700</v>
       </c>
       <c r="G59" s="3">
-        <v>1080900</v>
+        <v>1229300</v>
       </c>
       <c r="H59" s="3">
-        <v>1381100</v>
+        <v>1103700</v>
       </c>
       <c r="I59" s="3">
-        <v>1186600</v>
+        <v>1410300</v>
       </c>
       <c r="J59" s="3">
+        <v>1211700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1040800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1004800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1167700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>688800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>678100</v>
       </c>
       <c r="O59" s="3">
         <v>678100</v>
       </c>
       <c r="P59" s="3">
+        <v>678100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>912000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>699500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>724200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>778600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>908900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4059200</v>
+        <v>3278100</v>
       </c>
       <c r="E60" s="3">
-        <v>3418800</v>
+        <v>4145000</v>
       </c>
       <c r="F60" s="3">
-        <v>3305000</v>
+        <v>3491100</v>
       </c>
       <c r="G60" s="3">
-        <v>2782800</v>
+        <v>3374900</v>
       </c>
       <c r="H60" s="3">
-        <v>3655400</v>
+        <v>2841600</v>
       </c>
       <c r="I60" s="3">
-        <v>2975500</v>
+        <v>3732600</v>
       </c>
       <c r="J60" s="3">
+        <v>3038400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2857900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2603600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3946900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2637800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2835000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2793500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2858000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2076000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1976700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1959500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2120900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3517,22 +3660,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>30200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>30200</v>
+        <v>30900</v>
       </c>
       <c r="G61" s="3">
-        <v>40100</v>
+        <v>30900</v>
       </c>
       <c r="H61" s="3">
-        <v>9900</v>
+        <v>40900</v>
       </c>
       <c r="I61" s="3">
-        <v>51900</v>
+        <v>10100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>53000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3541,93 +3684,99 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>69100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>607700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>621500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>633200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>631500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>637200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>456200</v>
+        <v>450700</v>
       </c>
       <c r="E62" s="3">
-        <v>460800</v>
+        <v>465900</v>
       </c>
       <c r="F62" s="3">
-        <v>472500</v>
+        <v>470500</v>
       </c>
       <c r="G62" s="3">
-        <v>371900</v>
+        <v>482500</v>
       </c>
       <c r="H62" s="3">
-        <v>357900</v>
+        <v>379800</v>
       </c>
       <c r="I62" s="3">
-        <v>284200</v>
+        <v>365500</v>
       </c>
       <c r="J62" s="3">
+        <v>290200</v>
+      </c>
+      <c r="K62" s="3">
         <v>187500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>125600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>52500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>48500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4651100</v>
+        <v>3878600</v>
       </c>
       <c r="E66" s="3">
-        <v>4021800</v>
+        <v>4749400</v>
       </c>
       <c r="F66" s="3">
-        <v>3917100</v>
+        <v>4106800</v>
       </c>
       <c r="G66" s="3">
-        <v>3267700</v>
+        <v>3999900</v>
       </c>
       <c r="H66" s="3">
-        <v>4087700</v>
+        <v>3336800</v>
       </c>
       <c r="I66" s="3">
-        <v>3351400</v>
+        <v>4174100</v>
       </c>
       <c r="J66" s="3">
+        <v>3422200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3039400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2722400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2753700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2883700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2839200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3515600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2745200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2663200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2645500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2815900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2710400</v>
+        <v>3008800</v>
       </c>
       <c r="E72" s="3">
-        <v>2337500</v>
+        <v>2767700</v>
       </c>
       <c r="F72" s="3">
-        <v>2147400</v>
+        <v>2386900</v>
       </c>
       <c r="G72" s="3">
-        <v>1912500</v>
+        <v>2192800</v>
       </c>
       <c r="H72" s="3">
-        <v>1821800</v>
+        <v>1953000</v>
       </c>
       <c r="I72" s="3">
-        <v>1599400</v>
+        <v>1860300</v>
       </c>
       <c r="J72" s="3">
+        <v>1633200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1465600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1335600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1202900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1010400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1003000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>905200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>831500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>731600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>681400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>611500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>531300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4353900</v>
+        <v>4787300</v>
       </c>
       <c r="E76" s="3">
-        <v>3959600</v>
+        <v>4445900</v>
       </c>
       <c r="F76" s="3">
-        <v>3737600</v>
+        <v>4043300</v>
       </c>
       <c r="G76" s="3">
-        <v>3464100</v>
+        <v>3816600</v>
       </c>
       <c r="H76" s="3">
-        <v>3334800</v>
+        <v>3537400</v>
       </c>
       <c r="I76" s="3">
-        <v>3123900</v>
+        <v>3405300</v>
       </c>
       <c r="J76" s="3">
+        <v>3189900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2954700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2787600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2625900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2307200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2301100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2174000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2121400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1150500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1061600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>947600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>833600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>372900</v>
+        <v>241100</v>
       </c>
       <c r="E81" s="3">
-        <v>190100</v>
+        <v>380800</v>
       </c>
       <c r="F81" s="3">
-        <v>234800</v>
+        <v>194100</v>
       </c>
       <c r="G81" s="3">
-        <v>104600</v>
+        <v>239800</v>
       </c>
       <c r="H81" s="3">
-        <v>222400</v>
+        <v>106800</v>
       </c>
       <c r="I81" s="3">
-        <v>133800</v>
+        <v>227100</v>
       </c>
       <c r="J81" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K81" s="3">
         <v>124300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>132700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>104800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>97800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>99900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>80300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>111700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4430400</v>
+        <v>4372800</v>
       </c>
       <c r="E8" s="3">
-        <v>5581200</v>
+        <v>5508600</v>
       </c>
       <c r="F8" s="3">
-        <v>3616300</v>
+        <v>3569300</v>
       </c>
       <c r="G8" s="3">
-        <v>3761500</v>
+        <v>3712600</v>
       </c>
       <c r="H8" s="3">
-        <v>2931900</v>
+        <v>2893700</v>
       </c>
       <c r="I8" s="3">
-        <v>4574100</v>
+        <v>4514600</v>
       </c>
       <c r="J8" s="3">
-        <v>3059800</v>
+        <v>3020000</v>
       </c>
       <c r="K8" s="3">
         <v>3474800</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3557600</v>
+        <v>3511300</v>
       </c>
       <c r="E9" s="3">
-        <v>4357000</v>
+        <v>4300300</v>
       </c>
       <c r="F9" s="3">
-        <v>2854800</v>
+        <v>2817700</v>
       </c>
       <c r="G9" s="3">
-        <v>2990800</v>
+        <v>2951900</v>
       </c>
       <c r="H9" s="3">
-        <v>2367600</v>
+        <v>2336800</v>
       </c>
       <c r="I9" s="3">
-        <v>3481900</v>
+        <v>3436600</v>
       </c>
       <c r="J9" s="3">
-        <v>2399300</v>
+        <v>2368100</v>
       </c>
       <c r="K9" s="3">
         <v>2697300</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>872800</v>
+        <v>861500</v>
       </c>
       <c r="E10" s="3">
-        <v>1224300</v>
+        <v>1208300</v>
       </c>
       <c r="F10" s="3">
-        <v>761500</v>
+        <v>751600</v>
       </c>
       <c r="G10" s="3">
-        <v>770700</v>
+        <v>760600</v>
       </c>
       <c r="H10" s="3">
-        <v>564300</v>
+        <v>557000</v>
       </c>
       <c r="I10" s="3">
-        <v>1092200</v>
+        <v>1078000</v>
       </c>
       <c r="J10" s="3">
-        <v>660600</v>
+        <v>652000</v>
       </c>
       <c r="K10" s="3">
         <v>777500</v>
@@ -1108,10 +1108,10 @@
         <v>800</v>
       </c>
       <c r="I14" s="3">
-        <v>50300</v>
+        <v>49600</v>
       </c>
       <c r="J14" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4194700</v>
+        <v>4140100</v>
       </c>
       <c r="E17" s="3">
-        <v>5183200</v>
+        <v>5115700</v>
       </c>
       <c r="F17" s="3">
-        <v>3421600</v>
+        <v>3377100</v>
       </c>
       <c r="G17" s="3">
-        <v>3568100</v>
+        <v>3521600</v>
       </c>
       <c r="H17" s="3">
-        <v>2810600</v>
+        <v>2774100</v>
       </c>
       <c r="I17" s="3">
-        <v>4303900</v>
+        <v>4247900</v>
       </c>
       <c r="J17" s="3">
-        <v>2890400</v>
+        <v>2852800</v>
       </c>
       <c r="K17" s="3">
         <v>3327300</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>235800</v>
+        <v>232700</v>
       </c>
       <c r="E18" s="3">
-        <v>398100</v>
+        <v>392900</v>
       </c>
       <c r="F18" s="3">
-        <v>194700</v>
+        <v>192200</v>
       </c>
       <c r="G18" s="3">
-        <v>193500</v>
+        <v>190900</v>
       </c>
       <c r="H18" s="3">
-        <v>121200</v>
+        <v>119700</v>
       </c>
       <c r="I18" s="3">
-        <v>270100</v>
+        <v>266600</v>
       </c>
       <c r="J18" s="3">
-        <v>169400</v>
+        <v>167200</v>
       </c>
       <c r="K18" s="3">
         <v>147500</v>
@@ -1386,25 +1386,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44000</v>
+        <v>43500</v>
       </c>
       <c r="E20" s="3">
-        <v>40200</v>
+        <v>39700</v>
       </c>
       <c r="F20" s="3">
-        <v>31600</v>
+        <v>31200</v>
       </c>
       <c r="G20" s="3">
-        <v>99400</v>
+        <v>98200</v>
       </c>
       <c r="H20" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
       </c>
       <c r="J20" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="K20" s="3">
         <v>13400</v>
@@ -1519,7 +1519,7 @@
         <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H22" s="3">
         <v>5500</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>279300</v>
+        <v>275600</v>
       </c>
       <c r="E23" s="3">
-        <v>437300</v>
+        <v>431600</v>
       </c>
       <c r="F23" s="3">
-        <v>225600</v>
+        <v>222600</v>
       </c>
       <c r="G23" s="3">
-        <v>289600</v>
+        <v>285800</v>
       </c>
       <c r="H23" s="3">
-        <v>142600</v>
+        <v>140800</v>
       </c>
       <c r="I23" s="3">
-        <v>268500</v>
+        <v>265000</v>
       </c>
       <c r="J23" s="3">
-        <v>172600</v>
+        <v>170400</v>
       </c>
       <c r="K23" s="3">
         <v>159000</v>
@@ -1634,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="E24" s="3">
-        <v>60000</v>
+        <v>59200</v>
       </c>
       <c r="F24" s="3">
-        <v>38700</v>
+        <v>38100</v>
       </c>
       <c r="G24" s="3">
-        <v>50700</v>
+        <v>50000</v>
       </c>
       <c r="H24" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="I24" s="3">
-        <v>49000</v>
+        <v>48300</v>
       </c>
       <c r="J24" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="K24" s="3">
         <v>32600</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>231400</v>
+        <v>228400</v>
       </c>
       <c r="E26" s="3">
-        <v>377300</v>
+        <v>372400</v>
       </c>
       <c r="F26" s="3">
-        <v>186900</v>
+        <v>184500</v>
       </c>
       <c r="G26" s="3">
-        <v>238900</v>
+        <v>235800</v>
       </c>
       <c r="H26" s="3">
-        <v>115700</v>
+        <v>114200</v>
       </c>
       <c r="I26" s="3">
-        <v>219600</v>
+        <v>216700</v>
       </c>
       <c r="J26" s="3">
-        <v>139500</v>
+        <v>137700</v>
       </c>
       <c r="K26" s="3">
         <v>126400</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>241100</v>
+        <v>238000</v>
       </c>
       <c r="E27" s="3">
-        <v>380800</v>
+        <v>375800</v>
       </c>
       <c r="F27" s="3">
-        <v>194100</v>
+        <v>191600</v>
       </c>
       <c r="G27" s="3">
-        <v>239800</v>
+        <v>236700</v>
       </c>
       <c r="H27" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="I27" s="3">
-        <v>227100</v>
+        <v>224100</v>
       </c>
       <c r="J27" s="3">
-        <v>136600</v>
+        <v>134800</v>
       </c>
       <c r="K27" s="3">
         <v>124300</v>
@@ -2130,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44000</v>
+        <v>-43500</v>
       </c>
       <c r="E32" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="F32" s="3">
-        <v>-31600</v>
+        <v>-31200</v>
       </c>
       <c r="G32" s="3">
-        <v>-99400</v>
+        <v>-98200</v>
       </c>
       <c r="H32" s="3">
-        <v>-26900</v>
+        <v>-26600</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
       </c>
       <c r="J32" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="K32" s="3">
         <v>-13400</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>241100</v>
+        <v>238000</v>
       </c>
       <c r="E33" s="3">
-        <v>380800</v>
+        <v>375800</v>
       </c>
       <c r="F33" s="3">
-        <v>194100</v>
+        <v>191600</v>
       </c>
       <c r="G33" s="3">
-        <v>239800</v>
+        <v>236700</v>
       </c>
       <c r="H33" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="I33" s="3">
-        <v>227100</v>
+        <v>224100</v>
       </c>
       <c r="J33" s="3">
-        <v>136600</v>
+        <v>134800</v>
       </c>
       <c r="K33" s="3">
         <v>124300</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>241100</v>
+        <v>238000</v>
       </c>
       <c r="E35" s="3">
-        <v>380800</v>
+        <v>375800</v>
       </c>
       <c r="F35" s="3">
-        <v>194100</v>
+        <v>191600</v>
       </c>
       <c r="G35" s="3">
-        <v>239800</v>
+        <v>236700</v>
       </c>
       <c r="H35" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="I35" s="3">
-        <v>227100</v>
+        <v>224100</v>
       </c>
       <c r="J35" s="3">
-        <v>136600</v>
+        <v>134800</v>
       </c>
       <c r="K35" s="3">
         <v>124300</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2252000</v>
+        <v>2222700</v>
       </c>
       <c r="E41" s="3">
-        <v>1871400</v>
+        <v>1847100</v>
       </c>
       <c r="F41" s="3">
-        <v>1386000</v>
+        <v>1367900</v>
       </c>
       <c r="G41" s="3">
-        <v>1153700</v>
+        <v>1138700</v>
       </c>
       <c r="H41" s="3">
-        <v>767200</v>
+        <v>757300</v>
       </c>
       <c r="I41" s="3">
-        <v>1025600</v>
+        <v>1012200</v>
       </c>
       <c r="J41" s="3">
-        <v>893600</v>
+        <v>882000</v>
       </c>
       <c r="K41" s="3">
         <v>1044600</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>580800</v>
+        <v>573200</v>
       </c>
       <c r="E42" s="3">
-        <v>1143400</v>
+        <v>1128500</v>
       </c>
       <c r="F42" s="3">
-        <v>771800</v>
+        <v>761800</v>
       </c>
       <c r="G42" s="3">
-        <v>926700</v>
+        <v>914600</v>
       </c>
       <c r="H42" s="3">
-        <v>534200</v>
+        <v>527200</v>
       </c>
       <c r="I42" s="3">
-        <v>476300</v>
+        <v>470100</v>
       </c>
       <c r="J42" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="K42" s="3">
         <v>36400</v>
@@ -2617,25 +2617,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>459200</v>
+        <v>453300</v>
       </c>
       <c r="E43" s="3">
-        <v>465200</v>
+        <v>459100</v>
       </c>
       <c r="F43" s="3">
-        <v>488200</v>
+        <v>481900</v>
       </c>
       <c r="G43" s="3">
-        <v>541000</v>
+        <v>534000</v>
       </c>
       <c r="H43" s="3">
-        <v>637900</v>
+        <v>629600</v>
       </c>
       <c r="I43" s="3">
-        <v>709500</v>
+        <v>700300</v>
       </c>
       <c r="J43" s="3">
-        <v>1679500</v>
+        <v>1657700</v>
       </c>
       <c r="K43" s="3">
         <v>1134500</v>
@@ -2679,25 +2679,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>907800</v>
+        <v>896000</v>
       </c>
       <c r="E44" s="3">
-        <v>1192300</v>
+        <v>1176800</v>
       </c>
       <c r="F44" s="3">
-        <v>1001600</v>
+        <v>988600</v>
       </c>
       <c r="G44" s="3">
-        <v>899400</v>
+        <v>887700</v>
       </c>
       <c r="H44" s="3">
-        <v>797500</v>
+        <v>787200</v>
       </c>
       <c r="I44" s="3">
-        <v>1202600</v>
+        <v>1186900</v>
       </c>
       <c r="J44" s="3">
-        <v>83800</v>
+        <v>82700</v>
       </c>
       <c r="K44" s="3">
         <v>685900</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104800</v>
+        <v>103400</v>
       </c>
       <c r="E45" s="3">
-        <v>191100</v>
+        <v>188600</v>
       </c>
       <c r="F45" s="3">
-        <v>110900</v>
+        <v>109400</v>
       </c>
       <c r="G45" s="3">
-        <v>109900</v>
+        <v>108500</v>
       </c>
       <c r="H45" s="3">
-        <v>137600</v>
+        <v>135800</v>
       </c>
       <c r="I45" s="3">
-        <v>178700</v>
+        <v>176400</v>
       </c>
       <c r="J45" s="3">
-        <v>141200</v>
+        <v>139300</v>
       </c>
       <c r="K45" s="3">
         <v>152100</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4304600</v>
+        <v>4248600</v>
       </c>
       <c r="E46" s="3">
-        <v>4863300</v>
+        <v>4800000</v>
       </c>
       <c r="F46" s="3">
-        <v>3758500</v>
+        <v>3709600</v>
       </c>
       <c r="G46" s="3">
-        <v>3630700</v>
+        <v>3583500</v>
       </c>
       <c r="H46" s="3">
-        <v>2874500</v>
+        <v>2837100</v>
       </c>
       <c r="I46" s="3">
-        <v>3592600</v>
+        <v>3545900</v>
       </c>
       <c r="J46" s="3">
-        <v>2807100</v>
+        <v>2770600</v>
       </c>
       <c r="K46" s="3">
         <v>3053400</v>
@@ -2865,25 +2865,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>779900</v>
+        <v>769800</v>
       </c>
       <c r="E47" s="3">
-        <v>750500</v>
+        <v>740800</v>
       </c>
       <c r="F47" s="3">
-        <v>759600</v>
+        <v>749700</v>
       </c>
       <c r="G47" s="3">
-        <v>730500</v>
+        <v>721000</v>
       </c>
       <c r="H47" s="3">
-        <v>833600</v>
+        <v>822700</v>
       </c>
       <c r="I47" s="3">
-        <v>814000</v>
+        <v>803400</v>
       </c>
       <c r="J47" s="3">
-        <v>810600</v>
+        <v>800000</v>
       </c>
       <c r="K47" s="3">
         <v>383100</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2345000</v>
+        <v>2314500</v>
       </c>
       <c r="E48" s="3">
-        <v>2365900</v>
+        <v>2335100</v>
       </c>
       <c r="F48" s="3">
-        <v>2373200</v>
+        <v>2342300</v>
       </c>
       <c r="G48" s="3">
-        <v>2243400</v>
+        <v>2214200</v>
       </c>
       <c r="H48" s="3">
-        <v>2024500</v>
+        <v>1998200</v>
       </c>
       <c r="I48" s="3">
-        <v>2023800</v>
+        <v>1997500</v>
       </c>
       <c r="J48" s="3">
-        <v>1869600</v>
+        <v>1845300</v>
       </c>
       <c r="K48" s="3">
         <v>1555700</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143600</v>
+        <v>141700</v>
       </c>
       <c r="E49" s="3">
-        <v>144600</v>
+        <v>142700</v>
       </c>
       <c r="F49" s="3">
-        <v>147900</v>
+        <v>145900</v>
       </c>
       <c r="G49" s="3">
-        <v>113900</v>
+        <v>112400</v>
       </c>
       <c r="H49" s="3">
-        <v>86300</v>
+        <v>85200</v>
       </c>
       <c r="I49" s="3">
-        <v>89600</v>
+        <v>88400</v>
       </c>
       <c r="J49" s="3">
-        <v>112600</v>
+        <v>111200</v>
       </c>
       <c r="K49" s="3">
         <v>108100</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1092800</v>
+        <v>1078500</v>
       </c>
       <c r="E52" s="3">
-        <v>1071000</v>
+        <v>1057100</v>
       </c>
       <c r="F52" s="3">
-        <v>1110900</v>
+        <v>1096500</v>
       </c>
       <c r="G52" s="3">
-        <v>1098000</v>
+        <v>1083800</v>
       </c>
       <c r="H52" s="3">
-        <v>1055200</v>
+        <v>1041500</v>
       </c>
       <c r="I52" s="3">
-        <v>1059400</v>
+        <v>1045600</v>
       </c>
       <c r="J52" s="3">
-        <v>1012200</v>
+        <v>999000</v>
       </c>
       <c r="K52" s="3">
         <v>893800</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8665900</v>
+        <v>8553100</v>
       </c>
       <c r="E54" s="3">
-        <v>9195400</v>
+        <v>9075700</v>
       </c>
       <c r="F54" s="3">
-        <v>8150100</v>
+        <v>8044100</v>
       </c>
       <c r="G54" s="3">
-        <v>7816500</v>
+        <v>7714800</v>
       </c>
       <c r="H54" s="3">
-        <v>6874200</v>
+        <v>6784800</v>
       </c>
       <c r="I54" s="3">
-        <v>7579400</v>
+        <v>7480800</v>
       </c>
       <c r="J54" s="3">
-        <v>6612200</v>
+        <v>6526100</v>
       </c>
       <c r="K54" s="3">
         <v>5994100</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1683200</v>
+        <v>1661300</v>
       </c>
       <c r="E57" s="3">
-        <v>2370000</v>
+        <v>2339200</v>
       </c>
       <c r="F57" s="3">
-        <v>1781900</v>
+        <v>1758700</v>
       </c>
       <c r="G57" s="3">
-        <v>1856800</v>
+        <v>1832700</v>
       </c>
       <c r="H57" s="3">
-        <v>1447700</v>
+        <v>1428900</v>
       </c>
       <c r="I57" s="3">
-        <v>2151700</v>
+        <v>2123700</v>
       </c>
       <c r="J57" s="3">
-        <v>1586900</v>
+        <v>1566300</v>
       </c>
       <c r="K57" s="3">
         <v>1644200</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="E58" s="3">
-        <v>162800</v>
+        <v>160700</v>
       </c>
       <c r="F58" s="3">
-        <v>317500</v>
+        <v>313400</v>
       </c>
       <c r="G58" s="3">
-        <v>288700</v>
+        <v>285000</v>
       </c>
       <c r="H58" s="3">
-        <v>290200</v>
+        <v>286400</v>
       </c>
       <c r="I58" s="3">
-        <v>170600</v>
+        <v>168400</v>
       </c>
       <c r="J58" s="3">
-        <v>239800</v>
+        <v>236700</v>
       </c>
       <c r="K58" s="3">
         <v>172900</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1575900</v>
+        <v>1555300</v>
       </c>
       <c r="E59" s="3">
-        <v>1612200</v>
+        <v>1591300</v>
       </c>
       <c r="F59" s="3">
-        <v>1391700</v>
+        <v>1373600</v>
       </c>
       <c r="G59" s="3">
-        <v>1229300</v>
+        <v>1213300</v>
       </c>
       <c r="H59" s="3">
-        <v>1103700</v>
+        <v>1089400</v>
       </c>
       <c r="I59" s="3">
-        <v>1410300</v>
+        <v>1391900</v>
       </c>
       <c r="J59" s="3">
-        <v>1211700</v>
+        <v>1196000</v>
       </c>
       <c r="K59" s="3">
         <v>1040800</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3278100</v>
+        <v>3235500</v>
       </c>
       <c r="E60" s="3">
-        <v>4145000</v>
+        <v>4091100</v>
       </c>
       <c r="F60" s="3">
-        <v>3491100</v>
+        <v>3445700</v>
       </c>
       <c r="G60" s="3">
-        <v>3374900</v>
+        <v>3330900</v>
       </c>
       <c r="H60" s="3">
-        <v>2841600</v>
+        <v>2804700</v>
       </c>
       <c r="I60" s="3">
-        <v>3732600</v>
+        <v>3684100</v>
       </c>
       <c r="J60" s="3">
-        <v>3038400</v>
+        <v>2998900</v>
       </c>
       <c r="K60" s="3">
         <v>2857900</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="G61" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="H61" s="3">
-        <v>40900</v>
+        <v>40400</v>
       </c>
       <c r="I61" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="J61" s="3">
-        <v>53000</v>
+        <v>52400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>450700</v>
+        <v>444800</v>
       </c>
       <c r="E62" s="3">
-        <v>465900</v>
+        <v>459800</v>
       </c>
       <c r="F62" s="3">
-        <v>470500</v>
+        <v>464400</v>
       </c>
       <c r="G62" s="3">
-        <v>482500</v>
+        <v>476200</v>
       </c>
       <c r="H62" s="3">
-        <v>379800</v>
+        <v>374800</v>
       </c>
       <c r="I62" s="3">
-        <v>365500</v>
+        <v>360700</v>
       </c>
       <c r="J62" s="3">
-        <v>290200</v>
+        <v>286500</v>
       </c>
       <c r="K62" s="3">
         <v>187500</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3878600</v>
+        <v>3828100</v>
       </c>
       <c r="E66" s="3">
-        <v>4749400</v>
+        <v>4687600</v>
       </c>
       <c r="F66" s="3">
-        <v>4106800</v>
+        <v>4053400</v>
       </c>
       <c r="G66" s="3">
-        <v>3999900</v>
+        <v>3947900</v>
       </c>
       <c r="H66" s="3">
-        <v>3336800</v>
+        <v>3293400</v>
       </c>
       <c r="I66" s="3">
-        <v>4174100</v>
+        <v>4119800</v>
       </c>
       <c r="J66" s="3">
-        <v>3422200</v>
+        <v>3377700</v>
       </c>
       <c r="K66" s="3">
         <v>3039400</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3008800</v>
+        <v>2969600</v>
       </c>
       <c r="E72" s="3">
-        <v>2767700</v>
+        <v>2731700</v>
       </c>
       <c r="F72" s="3">
-        <v>2386900</v>
+        <v>2355800</v>
       </c>
       <c r="G72" s="3">
-        <v>2192800</v>
+        <v>2164200</v>
       </c>
       <c r="H72" s="3">
-        <v>1953000</v>
+        <v>1927600</v>
       </c>
       <c r="I72" s="3">
-        <v>1860300</v>
+        <v>1836100</v>
       </c>
       <c r="J72" s="3">
-        <v>1633200</v>
+        <v>1612000</v>
       </c>
       <c r="K72" s="3">
         <v>1465600</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4787300</v>
+        <v>4725000</v>
       </c>
       <c r="E76" s="3">
-        <v>4445900</v>
+        <v>4388100</v>
       </c>
       <c r="F76" s="3">
-        <v>4043300</v>
+        <v>3990700</v>
       </c>
       <c r="G76" s="3">
-        <v>3816600</v>
+        <v>3767000</v>
       </c>
       <c r="H76" s="3">
-        <v>3537400</v>
+        <v>3491300</v>
       </c>
       <c r="I76" s="3">
-        <v>3405300</v>
+        <v>3360900</v>
       </c>
       <c r="J76" s="3">
-        <v>3189900</v>
+        <v>3148400</v>
       </c>
       <c r="K76" s="3">
         <v>2954700</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>241100</v>
+        <v>238000</v>
       </c>
       <c r="E81" s="3">
-        <v>380800</v>
+        <v>375800</v>
       </c>
       <c r="F81" s="3">
-        <v>194100</v>
+        <v>191600</v>
       </c>
       <c r="G81" s="3">
-        <v>239800</v>
+        <v>236700</v>
       </c>
       <c r="H81" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="I81" s="3">
-        <v>227100</v>
+        <v>224100</v>
       </c>
       <c r="J81" s="3">
-        <v>136600</v>
+        <v>134800</v>
       </c>
       <c r="K81" s="3">
         <v>124300</v>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4372800</v>
+        <v>3901800</v>
       </c>
       <c r="E8" s="3">
-        <v>5508600</v>
+        <v>4635400</v>
       </c>
       <c r="F8" s="3">
-        <v>3569300</v>
+        <v>4446100</v>
       </c>
       <c r="G8" s="3">
-        <v>3712600</v>
+        <v>5600900</v>
       </c>
       <c r="H8" s="3">
-        <v>2893700</v>
+        <v>3629100</v>
       </c>
       <c r="I8" s="3">
+        <v>3774800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2942200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4514600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3020000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3474800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3243000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3967800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2495700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2975500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2851000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3581100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2272600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2599600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2320000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2760300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3511300</v>
+        <v>3143800</v>
       </c>
       <c r="E9" s="3">
-        <v>4300300</v>
+        <v>3702800</v>
       </c>
       <c r="F9" s="3">
-        <v>2817700</v>
+        <v>3570100</v>
       </c>
       <c r="G9" s="3">
-        <v>2951900</v>
+        <v>4372300</v>
       </c>
       <c r="H9" s="3">
-        <v>2336800</v>
+        <v>2864900</v>
       </c>
       <c r="I9" s="3">
+        <v>3001400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2375900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3436600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2368100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2697300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2580300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3148700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1987500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2395300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2275800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2803400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1753300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2026800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1782700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2110600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>861500</v>
+        <v>758000</v>
       </c>
       <c r="E10" s="3">
-        <v>1208300</v>
+        <v>932600</v>
       </c>
       <c r="F10" s="3">
-        <v>751600</v>
+        <v>875900</v>
       </c>
       <c r="G10" s="3">
-        <v>760600</v>
+        <v>1228600</v>
       </c>
       <c r="H10" s="3">
-        <v>557000</v>
+        <v>764200</v>
       </c>
       <c r="I10" s="3">
+        <v>773400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>566300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1078000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>652000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>777500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>662700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>819100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>508300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>580200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>575300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>777700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>519400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>572800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>537300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>649700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1121,82 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E14" s="3">
-        <v>5900</v>
+        <v>25300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>49600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>12900</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>4400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>15300</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1172,47 +1218,53 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>6300</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>12500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>12500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>12700</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4140100</v>
+        <v>3786700</v>
       </c>
       <c r="E17" s="3">
-        <v>5115700</v>
+        <v>4430500</v>
       </c>
       <c r="F17" s="3">
-        <v>3377100</v>
+        <v>4209400</v>
       </c>
       <c r="G17" s="3">
-        <v>3521600</v>
+        <v>5201400</v>
       </c>
       <c r="H17" s="3">
-        <v>2774100</v>
+        <v>3433700</v>
       </c>
       <c r="I17" s="3">
+        <v>3580600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2820500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4247900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2852800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3327300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3111700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3818200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2446100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2918100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2756000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3465300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2221400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2550100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2237600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2643200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>232700</v>
+        <v>115000</v>
       </c>
       <c r="E18" s="3">
-        <v>392900</v>
+        <v>204900</v>
       </c>
       <c r="F18" s="3">
-        <v>192200</v>
+        <v>236600</v>
       </c>
       <c r="G18" s="3">
-        <v>190900</v>
+        <v>399500</v>
       </c>
       <c r="H18" s="3">
-        <v>119700</v>
+        <v>195400</v>
       </c>
       <c r="I18" s="3">
+        <v>194100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>121700</v>
+      </c>
+      <c r="K18" s="3">
         <v>266600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>167200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>147500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>131300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>149600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>49600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>57400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>95100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>115800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>51200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>49600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>82500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>117100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1446,78 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43500</v>
+        <v>23500</v>
       </c>
       <c r="E20" s="3">
-        <v>39700</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>31200</v>
+        <v>44200</v>
       </c>
       <c r="G20" s="3">
-        <v>98200</v>
+        <v>40300</v>
       </c>
       <c r="H20" s="3">
-        <v>26600</v>
+        <v>31700</v>
       </c>
       <c r="I20" s="3">
+        <v>99800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>13400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>37000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>64700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>12500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>34600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>26900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>30400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,194 +1578,218 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J22" s="3">
         <v>5500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2800</v>
       </c>
       <c r="S22" s="3">
         <v>2900</v>
       </c>
       <c r="T22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V22" s="3">
         <v>3700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>275600</v>
+        <v>137800</v>
       </c>
       <c r="E23" s="3">
-        <v>431600</v>
+        <v>210200</v>
       </c>
       <c r="F23" s="3">
-        <v>222600</v>
+        <v>280200</v>
       </c>
       <c r="G23" s="3">
-        <v>285800</v>
+        <v>438800</v>
       </c>
       <c r="H23" s="3">
-        <v>140800</v>
+        <v>226400</v>
       </c>
       <c r="I23" s="3">
+        <v>290600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K23" s="3">
         <v>265000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>170400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>159000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>163400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>150000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>116500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>90400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>125400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>62500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>81300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>105700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>144500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47300</v>
+        <v>33200</v>
       </c>
       <c r="E24" s="3">
-        <v>59200</v>
+        <v>49000</v>
       </c>
       <c r="F24" s="3">
-        <v>38100</v>
+        <v>48100</v>
       </c>
       <c r="G24" s="3">
-        <v>50000</v>
+        <v>60200</v>
       </c>
       <c r="H24" s="3">
-        <v>26600</v>
+        <v>38800</v>
       </c>
       <c r="I24" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K24" s="3">
         <v>48300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>32700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>32600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>37100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>35300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>14400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>15300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>28000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>15100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>25200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>24100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>30100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>228400</v>
+        <v>104600</v>
       </c>
       <c r="E26" s="3">
-        <v>372400</v>
+        <v>161200</v>
       </c>
       <c r="F26" s="3">
-        <v>184500</v>
+        <v>232200</v>
       </c>
       <c r="G26" s="3">
-        <v>235800</v>
+        <v>378600</v>
       </c>
       <c r="H26" s="3">
-        <v>114200</v>
+        <v>187600</v>
       </c>
       <c r="I26" s="3">
+        <v>239800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K26" s="3">
         <v>216700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>137700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>126400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>126300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>114700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>30200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>98500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>75200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>97400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>47400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>56100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>81600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>114400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>238000</v>
+        <v>98400</v>
       </c>
       <c r="E27" s="3">
-        <v>375800</v>
+        <v>171000</v>
       </c>
       <c r="F27" s="3">
-        <v>191600</v>
+        <v>242000</v>
       </c>
       <c r="G27" s="3">
-        <v>236700</v>
+        <v>382100</v>
       </c>
       <c r="H27" s="3">
-        <v>105400</v>
+        <v>194800</v>
       </c>
       <c r="I27" s="3">
+        <v>240600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K27" s="3">
         <v>224100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>134800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>124300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>132700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>104800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>32000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>97800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>99900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>50200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>57400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>80300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>111700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43500</v>
+        <v>-23500</v>
       </c>
       <c r="E32" s="3">
-        <v>-39700</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>-31200</v>
+        <v>-44200</v>
       </c>
       <c r="G32" s="3">
-        <v>-98200</v>
+        <v>-40300</v>
       </c>
       <c r="H32" s="3">
-        <v>-26600</v>
+        <v>-31700</v>
       </c>
       <c r="I32" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-13400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-37000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-64700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-12500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-34600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-26900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-30400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>238000</v>
+        <v>98400</v>
       </c>
       <c r="E33" s="3">
-        <v>375800</v>
+        <v>171000</v>
       </c>
       <c r="F33" s="3">
-        <v>191600</v>
+        <v>242000</v>
       </c>
       <c r="G33" s="3">
-        <v>236700</v>
+        <v>382100</v>
       </c>
       <c r="H33" s="3">
-        <v>105400</v>
+        <v>194800</v>
       </c>
       <c r="I33" s="3">
+        <v>240600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K33" s="3">
         <v>224100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>134800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>124300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>132700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>104800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>32000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>97800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>76000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>99900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>50200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>57400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>80300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>111700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>238000</v>
+        <v>98400</v>
       </c>
       <c r="E35" s="3">
-        <v>375800</v>
+        <v>171000</v>
       </c>
       <c r="F35" s="3">
-        <v>191600</v>
+        <v>242000</v>
       </c>
       <c r="G35" s="3">
-        <v>236700</v>
+        <v>382100</v>
       </c>
       <c r="H35" s="3">
-        <v>105400</v>
+        <v>194800</v>
       </c>
       <c r="I35" s="3">
+        <v>240600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K35" s="3">
         <v>224100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>134800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>124300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>132700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>104800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>32000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>97800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>76000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>99900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>50200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>57400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>80300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>111700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2659,622 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2222700</v>
+        <v>1961600</v>
       </c>
       <c r="E41" s="3">
-        <v>1847100</v>
+        <v>2452800</v>
       </c>
       <c r="F41" s="3">
-        <v>1367900</v>
+        <v>2259900</v>
       </c>
       <c r="G41" s="3">
-        <v>1138700</v>
+        <v>1878000</v>
       </c>
       <c r="H41" s="3">
-        <v>757300</v>
+        <v>1390800</v>
       </c>
       <c r="I41" s="3">
+        <v>1157800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>770000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1012200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>882000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1044600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>882300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1451300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>864900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>868200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1005500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1480200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>544000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>615700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>645000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>597700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>573200</v>
+        <v>574300</v>
       </c>
       <c r="E42" s="3">
-        <v>1128500</v>
+        <v>570300</v>
       </c>
       <c r="F42" s="3">
-        <v>761800</v>
+        <v>582800</v>
       </c>
       <c r="G42" s="3">
-        <v>914600</v>
+        <v>1147400</v>
       </c>
       <c r="H42" s="3">
-        <v>527200</v>
+        <v>774600</v>
       </c>
       <c r="I42" s="3">
+        <v>929900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>536100</v>
+      </c>
+      <c r="K42" s="3">
         <v>470100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>36400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>353100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>266200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>296900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>259300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>36500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>34200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>50900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>108500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>97700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>453300</v>
+        <v>470300</v>
       </c>
       <c r="E43" s="3">
-        <v>459100</v>
+        <v>455800</v>
       </c>
       <c r="F43" s="3">
-        <v>481900</v>
+        <v>460800</v>
       </c>
       <c r="G43" s="3">
-        <v>534000</v>
+        <v>466800</v>
       </c>
       <c r="H43" s="3">
-        <v>629600</v>
+        <v>490000</v>
       </c>
       <c r="I43" s="3">
+        <v>542900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>640200</v>
+      </c>
+      <c r="K43" s="3">
         <v>700300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1657700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1134500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1183100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1460000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1173000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1280600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1171200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1258200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>941600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>845400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>717900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>673000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>896000</v>
+        <v>957700</v>
       </c>
       <c r="E44" s="3">
-        <v>1176800</v>
+        <v>930200</v>
       </c>
       <c r="F44" s="3">
-        <v>988600</v>
+        <v>911000</v>
       </c>
       <c r="G44" s="3">
-        <v>887700</v>
+        <v>1196500</v>
       </c>
       <c r="H44" s="3">
-        <v>787200</v>
+        <v>1005100</v>
       </c>
       <c r="I44" s="3">
+        <v>902600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>800400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1186900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>82700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>685900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>610700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>816600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>599500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>658600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>729100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1033000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>644300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>551600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>525900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>719700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103400</v>
+        <v>99000</v>
       </c>
       <c r="E45" s="3">
-        <v>188600</v>
+        <v>128100</v>
       </c>
       <c r="F45" s="3">
-        <v>109400</v>
+        <v>105200</v>
       </c>
       <c r="G45" s="3">
-        <v>108500</v>
+        <v>191700</v>
       </c>
       <c r="H45" s="3">
-        <v>135800</v>
+        <v>111300</v>
       </c>
       <c r="I45" s="3">
+        <v>110300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>138100</v>
+      </c>
+      <c r="K45" s="3">
         <v>176400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>139300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>152100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>75600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>75700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>49600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>53900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>50000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>38300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>6400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>8900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>32500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4248600</v>
+        <v>4062800</v>
       </c>
       <c r="E46" s="3">
-        <v>4800000</v>
+        <v>4537100</v>
       </c>
       <c r="F46" s="3">
-        <v>3709600</v>
+        <v>4319800</v>
       </c>
       <c r="G46" s="3">
-        <v>3583500</v>
+        <v>4880400</v>
       </c>
       <c r="H46" s="3">
-        <v>2837100</v>
+        <v>3771700</v>
       </c>
       <c r="I46" s="3">
+        <v>3643500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2884700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3545900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2770600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3053400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2757900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4156800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2953200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3158200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3215200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3846200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2170400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2072600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1998100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2120500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>769800</v>
+        <v>780300</v>
       </c>
       <c r="E47" s="3">
-        <v>740800</v>
+        <v>789900</v>
       </c>
       <c r="F47" s="3">
-        <v>749700</v>
+        <v>782700</v>
       </c>
       <c r="G47" s="3">
-        <v>721000</v>
+        <v>753200</v>
       </c>
       <c r="H47" s="3">
-        <v>822700</v>
+        <v>762300</v>
       </c>
       <c r="I47" s="3">
+        <v>733000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>836500</v>
+      </c>
+      <c r="K47" s="3">
         <v>803400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>800000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>383100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>364700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>325200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>263700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>260300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>83900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>89100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>94200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>93500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>147400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>146000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2314500</v>
+        <v>2409200</v>
       </c>
       <c r="E48" s="3">
-        <v>2335100</v>
+        <v>2392300</v>
       </c>
       <c r="F48" s="3">
-        <v>2342300</v>
+        <v>2353200</v>
       </c>
       <c r="G48" s="3">
-        <v>2214200</v>
+        <v>2374300</v>
       </c>
       <c r="H48" s="3">
-        <v>1998200</v>
+        <v>2381600</v>
       </c>
       <c r="I48" s="3">
+        <v>2251300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2031700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1997500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1845300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1555700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1407900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1297800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1072900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1018600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>961500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>988500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>914400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>817800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>671000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>649700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141700</v>
+        <v>143200</v>
       </c>
       <c r="E49" s="3">
-        <v>142700</v>
+        <v>143200</v>
       </c>
       <c r="F49" s="3">
-        <v>145900</v>
+        <v>144100</v>
       </c>
       <c r="G49" s="3">
-        <v>112400</v>
+        <v>145100</v>
       </c>
       <c r="H49" s="3">
-        <v>85200</v>
+        <v>148400</v>
       </c>
       <c r="I49" s="3">
+        <v>114300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K49" s="3">
         <v>88400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>111200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>108100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>109400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>109600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>100900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>103600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>103700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>114000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>126400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>139000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>148500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>158800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1078500</v>
+        <v>1215200</v>
       </c>
       <c r="E52" s="3">
-        <v>1057100</v>
+        <v>1141700</v>
       </c>
       <c r="F52" s="3">
-        <v>1096500</v>
+        <v>1096600</v>
       </c>
       <c r="G52" s="3">
-        <v>1083800</v>
+        <v>1074800</v>
       </c>
       <c r="H52" s="3">
-        <v>1041500</v>
+        <v>1114900</v>
       </c>
       <c r="I52" s="3">
+        <v>1101900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1045600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>999000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>893800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>870200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>737400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>670300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>644100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>648800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>599200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>590200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>602000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>628200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>574400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8553100</v>
+        <v>8610800</v>
       </c>
       <c r="E54" s="3">
-        <v>9075700</v>
+        <v>9004300</v>
       </c>
       <c r="F54" s="3">
-        <v>8044100</v>
+        <v>8696400</v>
       </c>
       <c r="G54" s="3">
-        <v>7714800</v>
+        <v>9227800</v>
       </c>
       <c r="H54" s="3">
-        <v>6784800</v>
+        <v>8178800</v>
       </c>
       <c r="I54" s="3">
+        <v>7844100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6898400</v>
+      </c>
+      <c r="K54" s="3">
         <v>7480800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6526100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5994100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5510100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6626800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5060900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5184800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5013200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5637000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3895700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3724800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3593200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3649500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,256 +3663,282 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1661300</v>
+        <v>1537100</v>
       </c>
       <c r="E57" s="3">
-        <v>2339200</v>
+        <v>1924100</v>
       </c>
       <c r="F57" s="3">
-        <v>1758700</v>
+        <v>1689100</v>
       </c>
       <c r="G57" s="3">
-        <v>1832700</v>
+        <v>2378400</v>
       </c>
       <c r="H57" s="3">
-        <v>1428900</v>
+        <v>1788200</v>
       </c>
       <c r="I57" s="3">
+        <v>1863400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1452800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2123700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1566300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1644200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1451300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1769200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>969900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1206500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1373100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1698600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1252000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1209800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1139500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1212000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18900</v>
+        <v>282100</v>
       </c>
       <c r="E58" s="3">
-        <v>160700</v>
+        <v>306800</v>
       </c>
       <c r="F58" s="3">
-        <v>313400</v>
+        <v>19200</v>
       </c>
       <c r="G58" s="3">
-        <v>285000</v>
+        <v>163400</v>
       </c>
       <c r="H58" s="3">
-        <v>286400</v>
+        <v>318600</v>
       </c>
       <c r="I58" s="3">
+        <v>289800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>291200</v>
+      </c>
+      <c r="K58" s="3">
         <v>168400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>236700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>172900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>147400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1010000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>979100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>950500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>742300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>247400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>124500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>42700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>41400</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1555300</v>
+        <v>1367800</v>
       </c>
       <c r="E59" s="3">
-        <v>1591300</v>
+        <v>1469500</v>
       </c>
       <c r="F59" s="3">
-        <v>1373600</v>
+        <v>1581400</v>
       </c>
       <c r="G59" s="3">
-        <v>1213300</v>
+        <v>1617900</v>
       </c>
       <c r="H59" s="3">
-        <v>1089400</v>
+        <v>1396700</v>
       </c>
       <c r="I59" s="3">
+        <v>1233600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1391900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1196000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1040800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1004800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1167700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>688800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>678100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>678100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>912000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>699500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>724200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>778600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>908900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3235500</v>
+        <v>3187000</v>
       </c>
       <c r="E60" s="3">
-        <v>4091100</v>
+        <v>3700400</v>
       </c>
       <c r="F60" s="3">
-        <v>3445700</v>
+        <v>3289700</v>
       </c>
       <c r="G60" s="3">
-        <v>3330900</v>
+        <v>4159600</v>
       </c>
       <c r="H60" s="3">
-        <v>2804700</v>
+        <v>3503400</v>
       </c>
       <c r="I60" s="3">
+        <v>3386800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2851700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3684100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2998900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2857900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2603600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3946900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2637800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2835000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2793500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2858000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2076000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1976700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1959500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2120900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,120 +3949,132 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>40400</v>
+        <v>31000</v>
       </c>
       <c r="I61" s="3">
+        <v>31000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>52400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>69100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>607700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>621500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>633200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>631500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>637200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>444800</v>
+        <v>430000</v>
       </c>
       <c r="E62" s="3">
-        <v>459800</v>
+        <v>445300</v>
       </c>
       <c r="F62" s="3">
-        <v>464400</v>
+        <v>452300</v>
       </c>
       <c r="G62" s="3">
-        <v>476200</v>
+        <v>467500</v>
       </c>
       <c r="H62" s="3">
-        <v>374800</v>
+        <v>472200</v>
       </c>
       <c r="I62" s="3">
+        <v>484200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>381100</v>
+      </c>
+      <c r="K62" s="3">
         <v>360700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>286500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>187500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>125600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>61700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>53900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>55600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>52700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>56300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>52500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>55100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>48500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>50500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3828100</v>
+        <v>3774100</v>
       </c>
       <c r="E66" s="3">
-        <v>4687600</v>
+        <v>4301300</v>
       </c>
       <c r="F66" s="3">
-        <v>4053400</v>
+        <v>3892300</v>
       </c>
       <c r="G66" s="3">
-        <v>3947900</v>
+        <v>4766200</v>
       </c>
       <c r="H66" s="3">
-        <v>3293400</v>
+        <v>4121300</v>
       </c>
       <c r="I66" s="3">
+        <v>4014000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3348600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4119800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3377700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3039400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2722400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4000900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2753700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2883700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2839200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3515600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2745200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2663200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2645500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2815900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2969600</v>
+        <v>3288800</v>
       </c>
       <c r="E72" s="3">
-        <v>2731700</v>
+        <v>3190400</v>
       </c>
       <c r="F72" s="3">
-        <v>2355800</v>
+        <v>3019400</v>
       </c>
       <c r="G72" s="3">
-        <v>2164200</v>
+        <v>2777400</v>
       </c>
       <c r="H72" s="3">
-        <v>1927600</v>
+        <v>2395300</v>
       </c>
       <c r="I72" s="3">
+        <v>2200500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1959900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1836100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1612000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1465600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1335600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1202900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1010400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1003000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>905200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>831500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>731600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>681400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>611500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>531300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4725000</v>
+        <v>4836600</v>
       </c>
       <c r="E76" s="3">
-        <v>4388100</v>
+        <v>4702900</v>
       </c>
       <c r="F76" s="3">
-        <v>3990700</v>
+        <v>4804100</v>
       </c>
       <c r="G76" s="3">
-        <v>3767000</v>
+        <v>4461600</v>
       </c>
       <c r="H76" s="3">
-        <v>3491300</v>
+        <v>4057500</v>
       </c>
       <c r="I76" s="3">
+        <v>3830100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3549800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3360900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3148400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2954700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2787600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2625900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2307200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2301100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2174000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2121400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1150500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1061600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>947600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>833600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>238000</v>
+        <v>98400</v>
       </c>
       <c r="E81" s="3">
-        <v>375800</v>
+        <v>171000</v>
       </c>
       <c r="F81" s="3">
-        <v>191600</v>
+        <v>242000</v>
       </c>
       <c r="G81" s="3">
-        <v>236700</v>
+        <v>382100</v>
       </c>
       <c r="H81" s="3">
-        <v>105400</v>
+        <v>194800</v>
       </c>
       <c r="I81" s="3">
+        <v>240600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K81" s="3">
         <v>224100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>134800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>124300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>132700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>104800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>32000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>97800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>76000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>99900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>50200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>57400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>80300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>111700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3901800</v>
+        <v>5384600</v>
       </c>
       <c r="E8" s="3">
-        <v>4635400</v>
+        <v>3931700</v>
       </c>
       <c r="F8" s="3">
-        <v>4446100</v>
+        <v>4670900</v>
       </c>
       <c r="G8" s="3">
-        <v>5600900</v>
+        <v>4480100</v>
       </c>
       <c r="H8" s="3">
-        <v>3629100</v>
+        <v>5643800</v>
       </c>
       <c r="I8" s="3">
-        <v>3774800</v>
+        <v>3656900</v>
       </c>
       <c r="J8" s="3">
+        <v>3803700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2942200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4514600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3020000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3474800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3243000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3967800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2495700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2975500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2851000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3581100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2272600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2599600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2320000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2760300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3143800</v>
+        <v>4325500</v>
       </c>
       <c r="E9" s="3">
-        <v>3702800</v>
+        <v>3167900</v>
       </c>
       <c r="F9" s="3">
-        <v>3570100</v>
+        <v>3731200</v>
       </c>
       <c r="G9" s="3">
-        <v>4372300</v>
+        <v>3597500</v>
       </c>
       <c r="H9" s="3">
-        <v>2864900</v>
+        <v>4405800</v>
       </c>
       <c r="I9" s="3">
-        <v>3001400</v>
+        <v>2886900</v>
       </c>
       <c r="J9" s="3">
+        <v>3024400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2375900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3436600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2368100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2697300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2580300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3148700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1987500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2395300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2275800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2803400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1753300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2026800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1782700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2110600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>758000</v>
+        <v>1059100</v>
       </c>
       <c r="E10" s="3">
-        <v>932600</v>
+        <v>763800</v>
       </c>
       <c r="F10" s="3">
-        <v>875900</v>
+        <v>939700</v>
       </c>
       <c r="G10" s="3">
-        <v>1228600</v>
+        <v>882600</v>
       </c>
       <c r="H10" s="3">
-        <v>764200</v>
+        <v>1238000</v>
       </c>
       <c r="I10" s="3">
-        <v>773400</v>
+        <v>770000</v>
       </c>
       <c r="J10" s="3">
+        <v>779300</v>
+      </c>
+      <c r="K10" s="3">
         <v>566300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1078000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>652000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>777500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>662700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>819100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>508300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>580200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>575300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>777700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>519400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>572800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>537300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>649700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5600</v>
+        <v>34200</v>
       </c>
       <c r="E14" s="3">
-        <v>25300</v>
+        <v>5700</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>49600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4400</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>15300</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,47 +1246,50 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P15" s="3">
-        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>6300</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="T15" s="3">
-        <v>12500</v>
       </c>
       <c r="U15" s="3">
         <v>12500</v>
       </c>
       <c r="V15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="W15" s="3">
         <v>12700</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3786700</v>
+        <v>5130200</v>
       </c>
       <c r="E17" s="3">
-        <v>4430500</v>
+        <v>3815700</v>
       </c>
       <c r="F17" s="3">
-        <v>4209400</v>
+        <v>4464400</v>
       </c>
       <c r="G17" s="3">
-        <v>5201400</v>
+        <v>4241700</v>
       </c>
       <c r="H17" s="3">
-        <v>3433700</v>
+        <v>5241300</v>
       </c>
       <c r="I17" s="3">
-        <v>3580600</v>
+        <v>3460000</v>
       </c>
       <c r="J17" s="3">
+        <v>3608100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2820500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4247900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2852800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3327300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3111700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3818200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2446100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2918100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2756000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3465300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2221400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2550100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2237600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2643200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>115000</v>
+        <v>254400</v>
       </c>
       <c r="E18" s="3">
-        <v>204900</v>
+        <v>115900</v>
       </c>
       <c r="F18" s="3">
-        <v>236600</v>
+        <v>206500</v>
       </c>
       <c r="G18" s="3">
-        <v>399500</v>
+        <v>238400</v>
       </c>
       <c r="H18" s="3">
-        <v>195400</v>
+        <v>402500</v>
       </c>
       <c r="I18" s="3">
-        <v>194100</v>
+        <v>196900</v>
       </c>
       <c r="J18" s="3">
+        <v>195600</v>
+      </c>
+      <c r="K18" s="3">
         <v>121700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>266600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>167200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>147500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>149600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>49600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>57400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>115800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>49600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>82500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>117100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23500</v>
+        <v>39900</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>23600</v>
       </c>
       <c r="F20" s="3">
-        <v>44200</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>40300</v>
+        <v>44500</v>
       </c>
       <c r="H20" s="3">
-        <v>31700</v>
+        <v>40600</v>
       </c>
       <c r="I20" s="3">
-        <v>99800</v>
+        <v>31900</v>
       </c>
       <c r="J20" s="3">
+        <v>100600</v>
+      </c>
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>64700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>26900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,212 +1620,224 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>137800</v>
+        <v>293500</v>
       </c>
       <c r="E23" s="3">
-        <v>210200</v>
+        <v>138900</v>
       </c>
       <c r="F23" s="3">
-        <v>280200</v>
+        <v>211800</v>
       </c>
       <c r="G23" s="3">
-        <v>438800</v>
+        <v>282400</v>
       </c>
       <c r="H23" s="3">
-        <v>226400</v>
+        <v>442200</v>
       </c>
       <c r="I23" s="3">
-        <v>290600</v>
+        <v>228100</v>
       </c>
       <c r="J23" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K23" s="3">
         <v>143100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>265000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>170400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>159000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>163400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>150000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>116500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>125400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>62500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>81300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>105700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>144500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33200</v>
+        <v>61600</v>
       </c>
       <c r="E24" s="3">
-        <v>49000</v>
+        <v>33500</v>
       </c>
       <c r="F24" s="3">
-        <v>48100</v>
+        <v>49300</v>
       </c>
       <c r="G24" s="3">
-        <v>60200</v>
+        <v>48400</v>
       </c>
       <c r="H24" s="3">
-        <v>38800</v>
+        <v>60700</v>
       </c>
       <c r="I24" s="3">
-        <v>50900</v>
+        <v>39100</v>
       </c>
       <c r="J24" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>30100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104600</v>
+        <v>231900</v>
       </c>
       <c r="E26" s="3">
-        <v>161200</v>
+        <v>105400</v>
       </c>
       <c r="F26" s="3">
-        <v>232200</v>
+        <v>162400</v>
       </c>
       <c r="G26" s="3">
-        <v>378600</v>
+        <v>234000</v>
       </c>
       <c r="H26" s="3">
-        <v>187600</v>
+        <v>381500</v>
       </c>
       <c r="I26" s="3">
-        <v>239800</v>
+        <v>189000</v>
       </c>
       <c r="J26" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K26" s="3">
         <v>116100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>216700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>137700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>126400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>126300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>98500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>75200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>97400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>56100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>81600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>114400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>98400</v>
+        <v>223200</v>
       </c>
       <c r="E27" s="3">
-        <v>171000</v>
+        <v>99100</v>
       </c>
       <c r="F27" s="3">
-        <v>242000</v>
+        <v>172300</v>
       </c>
       <c r="G27" s="3">
-        <v>382100</v>
+        <v>243800</v>
       </c>
       <c r="H27" s="3">
-        <v>194800</v>
+        <v>385100</v>
       </c>
       <c r="I27" s="3">
-        <v>240600</v>
+        <v>196300</v>
       </c>
       <c r="J27" s="3">
+        <v>242500</v>
+      </c>
+      <c r="K27" s="3">
         <v>107200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>224100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>134800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>124300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>132700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>104800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>97800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>99900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>50200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>80300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>111700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23500</v>
+        <v>-39900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-23600</v>
       </c>
       <c r="F32" s="3">
-        <v>-44200</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>-40300</v>
+        <v>-44500</v>
       </c>
       <c r="H32" s="3">
-        <v>-31700</v>
+        <v>-40600</v>
       </c>
       <c r="I32" s="3">
-        <v>-99800</v>
+        <v>-31900</v>
       </c>
       <c r="J32" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-64700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-26900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>98400</v>
+        <v>223200</v>
       </c>
       <c r="E33" s="3">
-        <v>171000</v>
+        <v>99100</v>
       </c>
       <c r="F33" s="3">
-        <v>242000</v>
+        <v>172300</v>
       </c>
       <c r="G33" s="3">
-        <v>382100</v>
+        <v>243800</v>
       </c>
       <c r="H33" s="3">
-        <v>194800</v>
+        <v>385100</v>
       </c>
       <c r="I33" s="3">
-        <v>240600</v>
+        <v>196300</v>
       </c>
       <c r="J33" s="3">
+        <v>242500</v>
+      </c>
+      <c r="K33" s="3">
         <v>107200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>224100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>134800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>124300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>132700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>104800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>97800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>99900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>80300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>111700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>98400</v>
+        <v>223200</v>
       </c>
       <c r="E35" s="3">
-        <v>171000</v>
+        <v>99100</v>
       </c>
       <c r="F35" s="3">
-        <v>242000</v>
+        <v>172300</v>
       </c>
       <c r="G35" s="3">
-        <v>382100</v>
+        <v>243800</v>
       </c>
       <c r="H35" s="3">
-        <v>194800</v>
+        <v>385100</v>
       </c>
       <c r="I35" s="3">
-        <v>240600</v>
+        <v>196300</v>
       </c>
       <c r="J35" s="3">
+        <v>242500</v>
+      </c>
+      <c r="K35" s="3">
         <v>107200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>224100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>134800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>124300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>132700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>104800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>97800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>99900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>80300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>111700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1961600</v>
+        <v>2571100</v>
       </c>
       <c r="E41" s="3">
-        <v>2452800</v>
+        <v>1976600</v>
       </c>
       <c r="F41" s="3">
-        <v>2259900</v>
+        <v>2471600</v>
       </c>
       <c r="G41" s="3">
-        <v>1878000</v>
+        <v>2277300</v>
       </c>
       <c r="H41" s="3">
-        <v>1390800</v>
+        <v>1892400</v>
       </c>
       <c r="I41" s="3">
-        <v>1157800</v>
+        <v>1401500</v>
       </c>
       <c r="J41" s="3">
+        <v>1166600</v>
+      </c>
+      <c r="K41" s="3">
         <v>770000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1012200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>882000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1044600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>882300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1451300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>864900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>868200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1005500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1480200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>544000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>615700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>645000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>597700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>574300</v>
+        <v>849000</v>
       </c>
       <c r="E42" s="3">
-        <v>570300</v>
+        <v>578700</v>
       </c>
       <c r="F42" s="3">
-        <v>582800</v>
+        <v>574700</v>
       </c>
       <c r="G42" s="3">
-        <v>1147400</v>
+        <v>587300</v>
       </c>
       <c r="H42" s="3">
-        <v>774600</v>
+        <v>1156200</v>
       </c>
       <c r="I42" s="3">
-        <v>929900</v>
+        <v>780500</v>
       </c>
       <c r="J42" s="3">
+        <v>937100</v>
+      </c>
+      <c r="K42" s="3">
         <v>536100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>470100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>353100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>266200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>296900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>259300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>36500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>108500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>97700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>470300</v>
+        <v>540200</v>
       </c>
       <c r="E43" s="3">
-        <v>455800</v>
+        <v>473900</v>
       </c>
       <c r="F43" s="3">
-        <v>460800</v>
+        <v>459300</v>
       </c>
       <c r="G43" s="3">
-        <v>466800</v>
+        <v>464400</v>
       </c>
       <c r="H43" s="3">
-        <v>490000</v>
+        <v>470400</v>
       </c>
       <c r="I43" s="3">
-        <v>542900</v>
+        <v>493700</v>
       </c>
       <c r="J43" s="3">
+        <v>547100</v>
+      </c>
+      <c r="K43" s="3">
         <v>640200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1657700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1134500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1183100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1460000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1173000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1280600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1171200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1258200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>941600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>845400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>717900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>673000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>957700</v>
+        <v>1083000</v>
       </c>
       <c r="E44" s="3">
-        <v>930200</v>
+        <v>965000</v>
       </c>
       <c r="F44" s="3">
-        <v>911000</v>
+        <v>937300</v>
       </c>
       <c r="G44" s="3">
-        <v>1196500</v>
+        <v>918000</v>
       </c>
       <c r="H44" s="3">
-        <v>1005100</v>
+        <v>1205700</v>
       </c>
       <c r="I44" s="3">
-        <v>902600</v>
+        <v>1012800</v>
       </c>
       <c r="J44" s="3">
+        <v>909500</v>
+      </c>
+      <c r="K44" s="3">
         <v>800400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1186900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>82700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>685900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>610700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>816600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>599500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>658600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>729100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1033000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>644300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>551600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>525900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>719700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99000</v>
+        <v>137900</v>
       </c>
       <c r="E45" s="3">
-        <v>128100</v>
+        <v>99700</v>
       </c>
       <c r="F45" s="3">
-        <v>105200</v>
+        <v>129000</v>
       </c>
       <c r="G45" s="3">
-        <v>191700</v>
+        <v>106000</v>
       </c>
       <c r="H45" s="3">
-        <v>111300</v>
+        <v>193200</v>
       </c>
       <c r="I45" s="3">
-        <v>110300</v>
+        <v>112100</v>
       </c>
       <c r="J45" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K45" s="3">
         <v>138100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>176400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>139300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>152100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>75600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>75700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4062800</v>
+        <v>5181100</v>
       </c>
       <c r="E46" s="3">
-        <v>4537100</v>
+        <v>4093900</v>
       </c>
       <c r="F46" s="3">
-        <v>4319800</v>
+        <v>4571900</v>
       </c>
       <c r="G46" s="3">
-        <v>4880400</v>
+        <v>4352900</v>
       </c>
       <c r="H46" s="3">
-        <v>3771700</v>
+        <v>4917800</v>
       </c>
       <c r="I46" s="3">
-        <v>3643500</v>
+        <v>3800700</v>
       </c>
       <c r="J46" s="3">
+        <v>3671400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2884700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3545900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2770600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3053400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2757900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4156800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2953200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3158200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3215200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3846200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2170400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2072600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1998100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2120500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>780300</v>
+        <v>782500</v>
       </c>
       <c r="E47" s="3">
-        <v>789900</v>
+        <v>786300</v>
       </c>
       <c r="F47" s="3">
-        <v>782700</v>
+        <v>796000</v>
       </c>
       <c r="G47" s="3">
-        <v>753200</v>
+        <v>788700</v>
       </c>
       <c r="H47" s="3">
-        <v>762300</v>
+        <v>759000</v>
       </c>
       <c r="I47" s="3">
-        <v>733000</v>
+        <v>768100</v>
       </c>
       <c r="J47" s="3">
+        <v>738700</v>
+      </c>
+      <c r="K47" s="3">
         <v>836500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>803400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>800000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>383100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>364700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>325200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>263700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>260300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>83900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>89100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>94200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>93500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>147400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>146000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2409200</v>
+        <v>2449200</v>
       </c>
       <c r="E48" s="3">
-        <v>2392300</v>
+        <v>2427700</v>
       </c>
       <c r="F48" s="3">
-        <v>2353200</v>
+        <v>2410700</v>
       </c>
       <c r="G48" s="3">
-        <v>2374300</v>
+        <v>2371300</v>
       </c>
       <c r="H48" s="3">
-        <v>2381600</v>
+        <v>2392500</v>
       </c>
       <c r="I48" s="3">
-        <v>2251300</v>
+        <v>2399800</v>
       </c>
       <c r="J48" s="3">
+        <v>2268500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2031700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1997500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1845300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1555700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1407900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1297800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1072900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1018600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>961500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>988500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>914400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>817800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>671000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>649700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143200</v>
+        <v>143600</v>
       </c>
       <c r="E49" s="3">
-        <v>143200</v>
+        <v>144300</v>
       </c>
       <c r="F49" s="3">
-        <v>144100</v>
+        <v>144300</v>
       </c>
       <c r="G49" s="3">
-        <v>145100</v>
+        <v>145200</v>
       </c>
       <c r="H49" s="3">
-        <v>148400</v>
+        <v>146200</v>
       </c>
       <c r="I49" s="3">
-        <v>114300</v>
+        <v>149500</v>
       </c>
       <c r="J49" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K49" s="3">
         <v>86600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>88400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>111200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>108100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>109400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>109600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>100900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>103600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>103700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>114000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>126400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>139000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>148500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>158800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1215200</v>
+        <v>1270100</v>
       </c>
       <c r="E52" s="3">
-        <v>1141700</v>
+        <v>1224500</v>
       </c>
       <c r="F52" s="3">
-        <v>1096600</v>
+        <v>1150500</v>
       </c>
       <c r="G52" s="3">
-        <v>1074800</v>
+        <v>1105000</v>
       </c>
       <c r="H52" s="3">
-        <v>1114900</v>
+        <v>1083000</v>
       </c>
       <c r="I52" s="3">
-        <v>1101900</v>
+        <v>1123400</v>
       </c>
       <c r="J52" s="3">
+        <v>1110400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1059000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1045600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>999000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>893800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>870200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>737400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>670300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>644100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>648800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>599200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>590200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>602000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>628200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>574400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8610800</v>
+        <v>9826500</v>
       </c>
       <c r="E54" s="3">
-        <v>9004300</v>
+        <v>8676800</v>
       </c>
       <c r="F54" s="3">
-        <v>8696400</v>
+        <v>9073300</v>
       </c>
       <c r="G54" s="3">
-        <v>9227800</v>
+        <v>8763100</v>
       </c>
       <c r="H54" s="3">
-        <v>8178800</v>
+        <v>9298500</v>
       </c>
       <c r="I54" s="3">
-        <v>7844100</v>
+        <v>8241500</v>
       </c>
       <c r="J54" s="3">
+        <v>7904200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6898400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7480800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6526100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5994100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5510100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6626800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5060900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5184800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5013200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5637000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3895700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3724800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3593200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3649500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,280 +3794,293 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1537100</v>
+        <v>2073700</v>
       </c>
       <c r="E57" s="3">
-        <v>1924100</v>
+        <v>1548900</v>
       </c>
       <c r="F57" s="3">
-        <v>1689100</v>
+        <v>1938800</v>
       </c>
       <c r="G57" s="3">
-        <v>2378400</v>
+        <v>1702100</v>
       </c>
       <c r="H57" s="3">
-        <v>1788200</v>
+        <v>2396600</v>
       </c>
       <c r="I57" s="3">
-        <v>1863400</v>
+        <v>1801900</v>
       </c>
       <c r="J57" s="3">
+        <v>1877600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1452800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2123700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1566300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1644200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1451300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1769200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>969900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1206500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1373100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1698600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1252000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1209800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1139500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1212000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>282100</v>
+        <v>311600</v>
       </c>
       <c r="E58" s="3">
-        <v>306800</v>
+        <v>284200</v>
       </c>
       <c r="F58" s="3">
-        <v>19200</v>
+        <v>309100</v>
       </c>
       <c r="G58" s="3">
-        <v>163400</v>
+        <v>19300</v>
       </c>
       <c r="H58" s="3">
-        <v>318600</v>
+        <v>164600</v>
       </c>
       <c r="I58" s="3">
-        <v>289800</v>
+        <v>321100</v>
       </c>
       <c r="J58" s="3">
+        <v>292000</v>
+      </c>
+      <c r="K58" s="3">
         <v>291200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>168400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>236700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>172900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>147400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1010000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>979100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>950500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>742300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>247400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>124500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>41400</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1367800</v>
+        <v>1680300</v>
       </c>
       <c r="E59" s="3">
-        <v>1469500</v>
+        <v>1378300</v>
       </c>
       <c r="F59" s="3">
-        <v>1581400</v>
+        <v>1480800</v>
       </c>
       <c r="G59" s="3">
-        <v>1617900</v>
+        <v>1593500</v>
       </c>
       <c r="H59" s="3">
-        <v>1396700</v>
+        <v>1630300</v>
       </c>
       <c r="I59" s="3">
-        <v>1233600</v>
+        <v>1407400</v>
       </c>
       <c r="J59" s="3">
+        <v>1243100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1107600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1391900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1196000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1040800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1004800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1167700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>688800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>678100</v>
       </c>
       <c r="R59" s="3">
         <v>678100</v>
       </c>
       <c r="S59" s="3">
+        <v>678100</v>
+      </c>
+      <c r="T59" s="3">
         <v>912000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>699500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>724200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>778600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>908900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3187000</v>
+        <v>4065600</v>
       </c>
       <c r="E60" s="3">
-        <v>3700400</v>
+        <v>3211400</v>
       </c>
       <c r="F60" s="3">
-        <v>3289700</v>
+        <v>3728700</v>
       </c>
       <c r="G60" s="3">
-        <v>4159600</v>
+        <v>3314900</v>
       </c>
       <c r="H60" s="3">
-        <v>3503400</v>
+        <v>4191500</v>
       </c>
       <c r="I60" s="3">
-        <v>3386800</v>
+        <v>3530300</v>
       </c>
       <c r="J60" s="3">
+        <v>3412700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2851700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3684100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2998900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2857900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2603600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3946900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2637800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2835000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2793500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2858000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2076000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1976700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1959500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2120900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,23 +4097,23 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="J61" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K61" s="3">
         <v>41100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>52400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3979,102 +4121,108 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>69100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>607700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>621500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>633200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>631500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>637200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>430000</v>
+        <v>424100</v>
       </c>
       <c r="E62" s="3">
-        <v>445300</v>
+        <v>433300</v>
       </c>
       <c r="F62" s="3">
-        <v>452300</v>
+        <v>448700</v>
       </c>
       <c r="G62" s="3">
-        <v>467500</v>
+        <v>455800</v>
       </c>
       <c r="H62" s="3">
-        <v>472200</v>
+        <v>471100</v>
       </c>
       <c r="I62" s="3">
-        <v>484200</v>
+        <v>475800</v>
       </c>
       <c r="J62" s="3">
+        <v>487900</v>
+      </c>
+      <c r="K62" s="3">
         <v>381100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>360700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>286500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>187500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>125600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>61700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>53900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>52700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>52500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>48500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3774100</v>
+        <v>4678300</v>
       </c>
       <c r="E66" s="3">
-        <v>4301300</v>
+        <v>3803100</v>
       </c>
       <c r="F66" s="3">
-        <v>3892300</v>
+        <v>4334300</v>
       </c>
       <c r="G66" s="3">
-        <v>4766200</v>
+        <v>3922100</v>
       </c>
       <c r="H66" s="3">
-        <v>4121300</v>
+        <v>4802700</v>
       </c>
       <c r="I66" s="3">
-        <v>4014000</v>
+        <v>4152900</v>
       </c>
       <c r="J66" s="3">
+        <v>4044800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3348600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4119800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3377700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3039400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2722400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2753700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2883700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2839200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3515600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2745200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2663200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2645500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2815900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3288800</v>
+        <v>3537200</v>
       </c>
       <c r="E72" s="3">
-        <v>3190400</v>
+        <v>3314000</v>
       </c>
       <c r="F72" s="3">
-        <v>3019400</v>
+        <v>3214900</v>
       </c>
       <c r="G72" s="3">
-        <v>2777400</v>
+        <v>3042500</v>
       </c>
       <c r="H72" s="3">
-        <v>2395300</v>
+        <v>2798700</v>
       </c>
       <c r="I72" s="3">
-        <v>2200500</v>
+        <v>2413700</v>
       </c>
       <c r="J72" s="3">
+        <v>2217300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1959900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1836100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1612000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1465600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1335600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1202900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1010400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1003000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>905200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>831500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>731600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>681400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>611500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>531300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4836600</v>
+        <v>5148200</v>
       </c>
       <c r="E76" s="3">
-        <v>4702900</v>
+        <v>4873700</v>
       </c>
       <c r="F76" s="3">
-        <v>4804100</v>
+        <v>4739000</v>
       </c>
       <c r="G76" s="3">
-        <v>4461600</v>
+        <v>4841000</v>
       </c>
       <c r="H76" s="3">
-        <v>4057500</v>
+        <v>4495800</v>
       </c>
       <c r="I76" s="3">
-        <v>3830100</v>
+        <v>4088600</v>
       </c>
       <c r="J76" s="3">
+        <v>3859400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3549800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3360900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3148400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2954700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2787600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2625900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2307200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2301100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2174000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2121400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1150500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1061600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>947600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>833600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>98400</v>
+        <v>223200</v>
       </c>
       <c r="E81" s="3">
-        <v>171000</v>
+        <v>99100</v>
       </c>
       <c r="F81" s="3">
-        <v>242000</v>
+        <v>172300</v>
       </c>
       <c r="G81" s="3">
-        <v>382100</v>
+        <v>243800</v>
       </c>
       <c r="H81" s="3">
-        <v>194800</v>
+        <v>385100</v>
       </c>
       <c r="I81" s="3">
-        <v>240600</v>
+        <v>196300</v>
       </c>
       <c r="J81" s="3">
+        <v>242500</v>
+      </c>
+      <c r="K81" s="3">
         <v>107200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>224100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>134800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>124300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>132700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>104800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>97800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>99900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>80300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>111700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5384600</v>
+        <v>5029600</v>
       </c>
       <c r="E8" s="3">
-        <v>3931700</v>
+        <v>3672500</v>
       </c>
       <c r="F8" s="3">
-        <v>4670900</v>
+        <v>4363000</v>
       </c>
       <c r="G8" s="3">
-        <v>4480100</v>
+        <v>4184800</v>
       </c>
       <c r="H8" s="3">
-        <v>5643800</v>
+        <v>5271800</v>
       </c>
       <c r="I8" s="3">
-        <v>3656900</v>
+        <v>3415800</v>
       </c>
       <c r="J8" s="3">
-        <v>3803700</v>
+        <v>3553000</v>
       </c>
       <c r="K8" s="3">
         <v>2942200</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4325500</v>
+        <v>4040400</v>
       </c>
       <c r="E9" s="3">
-        <v>3167900</v>
+        <v>2959000</v>
       </c>
       <c r="F9" s="3">
-        <v>3731200</v>
+        <v>3485200</v>
       </c>
       <c r="G9" s="3">
-        <v>3597500</v>
+        <v>3360300</v>
       </c>
       <c r="H9" s="3">
-        <v>4405800</v>
+        <v>4115400</v>
       </c>
       <c r="I9" s="3">
-        <v>2886900</v>
+        <v>2696500</v>
       </c>
       <c r="J9" s="3">
-        <v>3024400</v>
+        <v>2825000</v>
       </c>
       <c r="K9" s="3">
         <v>2375900</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1059100</v>
+        <v>989300</v>
       </c>
       <c r="E10" s="3">
-        <v>763800</v>
+        <v>713400</v>
       </c>
       <c r="F10" s="3">
-        <v>939700</v>
+        <v>877800</v>
       </c>
       <c r="G10" s="3">
-        <v>882600</v>
+        <v>824500</v>
       </c>
       <c r="H10" s="3">
-        <v>1238000</v>
+        <v>1156400</v>
       </c>
       <c r="I10" s="3">
-        <v>770000</v>
+        <v>719300</v>
       </c>
       <c r="J10" s="3">
-        <v>779300</v>
+        <v>727900</v>
       </c>
       <c r="K10" s="3">
         <v>566300</v>
@@ -1152,19 +1152,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>34200</v>
+        <v>32000</v>
       </c>
       <c r="E14" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="F14" s="3">
-        <v>25500</v>
+        <v>23800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5130200</v>
+        <v>4792000</v>
       </c>
       <c r="E17" s="3">
-        <v>3815700</v>
+        <v>3564200</v>
       </c>
       <c r="F17" s="3">
-        <v>4464400</v>
+        <v>4170100</v>
       </c>
       <c r="G17" s="3">
-        <v>4241700</v>
+        <v>3962100</v>
       </c>
       <c r="H17" s="3">
-        <v>5241300</v>
+        <v>4895800</v>
       </c>
       <c r="I17" s="3">
-        <v>3460000</v>
+        <v>3231900</v>
       </c>
       <c r="J17" s="3">
-        <v>3608100</v>
+        <v>3370200</v>
       </c>
       <c r="K17" s="3">
         <v>2820500</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>254400</v>
+        <v>237600</v>
       </c>
       <c r="E18" s="3">
-        <v>115900</v>
+        <v>108300</v>
       </c>
       <c r="F18" s="3">
-        <v>206500</v>
+        <v>192900</v>
       </c>
       <c r="G18" s="3">
-        <v>238400</v>
+        <v>222700</v>
       </c>
       <c r="H18" s="3">
-        <v>402500</v>
+        <v>376000</v>
       </c>
       <c r="I18" s="3">
-        <v>196900</v>
+        <v>183900</v>
       </c>
       <c r="J18" s="3">
-        <v>195600</v>
+        <v>182700</v>
       </c>
       <c r="K18" s="3">
         <v>121700</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39900</v>
+        <v>37200</v>
       </c>
       <c r="E20" s="3">
-        <v>23600</v>
+        <v>22100</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="G20" s="3">
-        <v>44500</v>
+        <v>41600</v>
       </c>
       <c r="H20" s="3">
-        <v>40600</v>
+        <v>38000</v>
       </c>
       <c r="I20" s="3">
-        <v>31900</v>
+        <v>29800</v>
       </c>
       <c r="J20" s="3">
-        <v>100600</v>
+        <v>93900</v>
       </c>
       <c r="K20" s="3">
         <v>27000</v>
@@ -1629,25 +1629,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K22" s="3">
         <v>5500</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>293500</v>
+        <v>274200</v>
       </c>
       <c r="E23" s="3">
-        <v>138900</v>
+        <v>129700</v>
       </c>
       <c r="F23" s="3">
-        <v>211800</v>
+        <v>197800</v>
       </c>
       <c r="G23" s="3">
-        <v>282400</v>
+        <v>263800</v>
       </c>
       <c r="H23" s="3">
-        <v>442200</v>
+        <v>413000</v>
       </c>
       <c r="I23" s="3">
-        <v>228100</v>
+        <v>213100</v>
       </c>
       <c r="J23" s="3">
-        <v>292900</v>
+        <v>273600</v>
       </c>
       <c r="K23" s="3">
         <v>143100</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61600</v>
+        <v>57600</v>
       </c>
       <c r="E24" s="3">
-        <v>33500</v>
+        <v>31300</v>
       </c>
       <c r="F24" s="3">
-        <v>49300</v>
+        <v>46100</v>
       </c>
       <c r="G24" s="3">
-        <v>48400</v>
+        <v>45200</v>
       </c>
       <c r="H24" s="3">
-        <v>60700</v>
+        <v>56700</v>
       </c>
       <c r="I24" s="3">
-        <v>39100</v>
+        <v>36500</v>
       </c>
       <c r="J24" s="3">
-        <v>51300</v>
+        <v>47900</v>
       </c>
       <c r="K24" s="3">
         <v>27000</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>231900</v>
+        <v>216600</v>
       </c>
       <c r="E26" s="3">
-        <v>105400</v>
+        <v>98500</v>
       </c>
       <c r="F26" s="3">
-        <v>162400</v>
+        <v>151700</v>
       </c>
       <c r="G26" s="3">
-        <v>234000</v>
+        <v>218500</v>
       </c>
       <c r="H26" s="3">
-        <v>381500</v>
+        <v>356400</v>
       </c>
       <c r="I26" s="3">
-        <v>189000</v>
+        <v>176500</v>
       </c>
       <c r="J26" s="3">
-        <v>241600</v>
+        <v>225700</v>
       </c>
       <c r="K26" s="3">
         <v>116100</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>223200</v>
+        <v>208500</v>
       </c>
       <c r="E27" s="3">
-        <v>99100</v>
+        <v>92600</v>
       </c>
       <c r="F27" s="3">
-        <v>172300</v>
+        <v>161000</v>
       </c>
       <c r="G27" s="3">
-        <v>243800</v>
+        <v>227700</v>
       </c>
       <c r="H27" s="3">
-        <v>385100</v>
+        <v>359700</v>
       </c>
       <c r="I27" s="3">
-        <v>196300</v>
+        <v>183400</v>
       </c>
       <c r="J27" s="3">
-        <v>242500</v>
+        <v>226500</v>
       </c>
       <c r="K27" s="3">
         <v>107200</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39900</v>
+        <v>-37200</v>
       </c>
       <c r="E32" s="3">
-        <v>-23600</v>
+        <v>-22100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>-5200</v>
       </c>
       <c r="G32" s="3">
-        <v>-44500</v>
+        <v>-41600</v>
       </c>
       <c r="H32" s="3">
-        <v>-40600</v>
+        <v>-38000</v>
       </c>
       <c r="I32" s="3">
-        <v>-31900</v>
+        <v>-29800</v>
       </c>
       <c r="J32" s="3">
-        <v>-100600</v>
+        <v>-93900</v>
       </c>
       <c r="K32" s="3">
         <v>-27000</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>223200</v>
+        <v>208500</v>
       </c>
       <c r="E33" s="3">
-        <v>99100</v>
+        <v>92600</v>
       </c>
       <c r="F33" s="3">
-        <v>172300</v>
+        <v>161000</v>
       </c>
       <c r="G33" s="3">
-        <v>243800</v>
+        <v>227700</v>
       </c>
       <c r="H33" s="3">
-        <v>385100</v>
+        <v>359700</v>
       </c>
       <c r="I33" s="3">
-        <v>196300</v>
+        <v>183400</v>
       </c>
       <c r="J33" s="3">
-        <v>242500</v>
+        <v>226500</v>
       </c>
       <c r="K33" s="3">
         <v>107200</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>223200</v>
+        <v>208500</v>
       </c>
       <c r="E35" s="3">
-        <v>99100</v>
+        <v>92600</v>
       </c>
       <c r="F35" s="3">
-        <v>172300</v>
+        <v>161000</v>
       </c>
       <c r="G35" s="3">
-        <v>243800</v>
+        <v>227700</v>
       </c>
       <c r="H35" s="3">
-        <v>385100</v>
+        <v>359700</v>
       </c>
       <c r="I35" s="3">
-        <v>196300</v>
+        <v>183400</v>
       </c>
       <c r="J35" s="3">
-        <v>242500</v>
+        <v>226500</v>
       </c>
       <c r="K35" s="3">
         <v>107200</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2571100</v>
+        <v>2401600</v>
       </c>
       <c r="E41" s="3">
-        <v>1976600</v>
+        <v>1846300</v>
       </c>
       <c r="F41" s="3">
-        <v>2471600</v>
+        <v>2308700</v>
       </c>
       <c r="G41" s="3">
-        <v>2277300</v>
+        <v>2127100</v>
       </c>
       <c r="H41" s="3">
-        <v>1892400</v>
+        <v>1767600</v>
       </c>
       <c r="I41" s="3">
-        <v>1401500</v>
+        <v>1309100</v>
       </c>
       <c r="J41" s="3">
-        <v>1166600</v>
+        <v>1089700</v>
       </c>
       <c r="K41" s="3">
         <v>770000</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>849000</v>
+        <v>793000</v>
       </c>
       <c r="E42" s="3">
-        <v>578700</v>
+        <v>540600</v>
       </c>
       <c r="F42" s="3">
-        <v>574700</v>
+        <v>536800</v>
       </c>
       <c r="G42" s="3">
-        <v>587300</v>
+        <v>548600</v>
       </c>
       <c r="H42" s="3">
-        <v>1156200</v>
+        <v>1080000</v>
       </c>
       <c r="I42" s="3">
-        <v>780500</v>
+        <v>729000</v>
       </c>
       <c r="J42" s="3">
-        <v>937100</v>
+        <v>875300</v>
       </c>
       <c r="K42" s="3">
         <v>536100</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>540200</v>
+        <v>504600</v>
       </c>
       <c r="E43" s="3">
-        <v>473900</v>
+        <v>442600</v>
       </c>
       <c r="F43" s="3">
-        <v>459300</v>
+        <v>429000</v>
       </c>
       <c r="G43" s="3">
-        <v>464400</v>
+        <v>433800</v>
       </c>
       <c r="H43" s="3">
-        <v>470400</v>
+        <v>439400</v>
       </c>
       <c r="I43" s="3">
-        <v>493700</v>
+        <v>461200</v>
       </c>
       <c r="J43" s="3">
-        <v>547100</v>
+        <v>511000</v>
       </c>
       <c r="K43" s="3">
         <v>640200</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1083000</v>
+        <v>1011600</v>
       </c>
       <c r="E44" s="3">
-        <v>965000</v>
+        <v>901400</v>
       </c>
       <c r="F44" s="3">
-        <v>937300</v>
+        <v>875500</v>
       </c>
       <c r="G44" s="3">
-        <v>918000</v>
+        <v>857500</v>
       </c>
       <c r="H44" s="3">
-        <v>1205700</v>
+        <v>1126200</v>
       </c>
       <c r="I44" s="3">
-        <v>1012800</v>
+        <v>946100</v>
       </c>
       <c r="J44" s="3">
-        <v>909500</v>
+        <v>849500</v>
       </c>
       <c r="K44" s="3">
         <v>800400</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>137900</v>
+        <v>128800</v>
       </c>
       <c r="E45" s="3">
-        <v>99700</v>
+        <v>93200</v>
       </c>
       <c r="F45" s="3">
-        <v>129000</v>
+        <v>120500</v>
       </c>
       <c r="G45" s="3">
-        <v>106000</v>
+        <v>99000</v>
       </c>
       <c r="H45" s="3">
-        <v>193200</v>
+        <v>180500</v>
       </c>
       <c r="I45" s="3">
-        <v>112100</v>
+        <v>104700</v>
       </c>
       <c r="J45" s="3">
-        <v>111200</v>
+        <v>103800</v>
       </c>
       <c r="K45" s="3">
         <v>138100</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5181100</v>
+        <v>4839600</v>
       </c>
       <c r="E46" s="3">
-        <v>4093900</v>
+        <v>3824000</v>
       </c>
       <c r="F46" s="3">
-        <v>4571900</v>
+        <v>4270500</v>
       </c>
       <c r="G46" s="3">
-        <v>4352900</v>
+        <v>4065900</v>
       </c>
       <c r="H46" s="3">
-        <v>4917800</v>
+        <v>4593700</v>
       </c>
       <c r="I46" s="3">
-        <v>3800700</v>
+        <v>3550100</v>
       </c>
       <c r="J46" s="3">
-        <v>3671400</v>
+        <v>3429400</v>
       </c>
       <c r="K46" s="3">
         <v>2884700</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>782500</v>
+        <v>730900</v>
       </c>
       <c r="E47" s="3">
-        <v>786300</v>
+        <v>734500</v>
       </c>
       <c r="F47" s="3">
-        <v>796000</v>
+        <v>743500</v>
       </c>
       <c r="G47" s="3">
-        <v>788700</v>
+        <v>736700</v>
       </c>
       <c r="H47" s="3">
-        <v>759000</v>
+        <v>708900</v>
       </c>
       <c r="I47" s="3">
-        <v>768100</v>
+        <v>717500</v>
       </c>
       <c r="J47" s="3">
-        <v>738700</v>
+        <v>690000</v>
       </c>
       <c r="K47" s="3">
         <v>836500</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2449200</v>
+        <v>2287800</v>
       </c>
       <c r="E48" s="3">
-        <v>2427700</v>
+        <v>2267700</v>
       </c>
       <c r="F48" s="3">
-        <v>2410700</v>
+        <v>2251800</v>
       </c>
       <c r="G48" s="3">
-        <v>2371300</v>
+        <v>2215000</v>
       </c>
       <c r="H48" s="3">
-        <v>2392500</v>
+        <v>2234700</v>
       </c>
       <c r="I48" s="3">
-        <v>2399800</v>
+        <v>2241600</v>
       </c>
       <c r="J48" s="3">
-        <v>2268500</v>
+        <v>2119000</v>
       </c>
       <c r="K48" s="3">
         <v>2031700</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143600</v>
+        <v>134100</v>
       </c>
       <c r="E49" s="3">
-        <v>144300</v>
+        <v>134800</v>
       </c>
       <c r="F49" s="3">
-        <v>144300</v>
+        <v>134800</v>
       </c>
       <c r="G49" s="3">
-        <v>145200</v>
+        <v>135700</v>
       </c>
       <c r="H49" s="3">
-        <v>146200</v>
+        <v>136600</v>
       </c>
       <c r="I49" s="3">
-        <v>149500</v>
+        <v>139700</v>
       </c>
       <c r="J49" s="3">
-        <v>115200</v>
+        <v>107600</v>
       </c>
       <c r="K49" s="3">
         <v>86600</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1270100</v>
+        <v>1186300</v>
       </c>
       <c r="E52" s="3">
-        <v>1224500</v>
+        <v>1143800</v>
       </c>
       <c r="F52" s="3">
-        <v>1150500</v>
+        <v>1074600</v>
       </c>
       <c r="G52" s="3">
-        <v>1105000</v>
+        <v>1032200</v>
       </c>
       <c r="H52" s="3">
-        <v>1083000</v>
+        <v>1011600</v>
       </c>
       <c r="I52" s="3">
-        <v>1123400</v>
+        <v>1049300</v>
       </c>
       <c r="J52" s="3">
-        <v>1110400</v>
+        <v>1037200</v>
       </c>
       <c r="K52" s="3">
         <v>1059000</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9826500</v>
+        <v>9178700</v>
       </c>
       <c r="E54" s="3">
-        <v>8676800</v>
+        <v>8104800</v>
       </c>
       <c r="F54" s="3">
-        <v>9073300</v>
+        <v>8475100</v>
       </c>
       <c r="G54" s="3">
-        <v>8763100</v>
+        <v>8185400</v>
       </c>
       <c r="H54" s="3">
-        <v>9298500</v>
+        <v>8685500</v>
       </c>
       <c r="I54" s="3">
-        <v>8241500</v>
+        <v>7698200</v>
       </c>
       <c r="J54" s="3">
-        <v>7904200</v>
+        <v>7383200</v>
       </c>
       <c r="K54" s="3">
         <v>6898400</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2073700</v>
+        <v>1937000</v>
       </c>
       <c r="E57" s="3">
-        <v>1548900</v>
+        <v>1446800</v>
       </c>
       <c r="F57" s="3">
-        <v>1938800</v>
+        <v>1811000</v>
       </c>
       <c r="G57" s="3">
-        <v>1702100</v>
+        <v>1589800</v>
       </c>
       <c r="H57" s="3">
-        <v>2396600</v>
+        <v>2238600</v>
       </c>
       <c r="I57" s="3">
-        <v>1801900</v>
+        <v>1683100</v>
       </c>
       <c r="J57" s="3">
-        <v>1877600</v>
+        <v>1753900</v>
       </c>
       <c r="K57" s="3">
         <v>1452800</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>311600</v>
+        <v>291100</v>
       </c>
       <c r="E58" s="3">
-        <v>284200</v>
+        <v>265500</v>
       </c>
       <c r="F58" s="3">
-        <v>309100</v>
+        <v>288800</v>
       </c>
       <c r="G58" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="H58" s="3">
-        <v>164600</v>
+        <v>153800</v>
       </c>
       <c r="I58" s="3">
-        <v>321100</v>
+        <v>299900</v>
       </c>
       <c r="J58" s="3">
-        <v>292000</v>
+        <v>272700</v>
       </c>
       <c r="K58" s="3">
         <v>291200</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1680300</v>
+        <v>1569500</v>
       </c>
       <c r="E59" s="3">
-        <v>1378300</v>
+        <v>1287500</v>
       </c>
       <c r="F59" s="3">
-        <v>1480800</v>
+        <v>1383100</v>
       </c>
       <c r="G59" s="3">
-        <v>1593500</v>
+        <v>1488500</v>
       </c>
       <c r="H59" s="3">
-        <v>1630300</v>
+        <v>1522800</v>
       </c>
       <c r="I59" s="3">
-        <v>1407400</v>
+        <v>1314600</v>
       </c>
       <c r="J59" s="3">
-        <v>1243100</v>
+        <v>1161100</v>
       </c>
       <c r="K59" s="3">
         <v>1107600</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4065600</v>
+        <v>3797600</v>
       </c>
       <c r="E60" s="3">
-        <v>3211400</v>
+        <v>2999700</v>
       </c>
       <c r="F60" s="3">
-        <v>3728700</v>
+        <v>3482900</v>
       </c>
       <c r="G60" s="3">
-        <v>3314900</v>
+        <v>3096400</v>
       </c>
       <c r="H60" s="3">
-        <v>4191500</v>
+        <v>3915200</v>
       </c>
       <c r="I60" s="3">
-        <v>3530300</v>
+        <v>3297600</v>
       </c>
       <c r="J60" s="3">
-        <v>3412700</v>
+        <v>3187700</v>
       </c>
       <c r="K60" s="3">
         <v>2851700</v>
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="J61" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="K61" s="3">
         <v>41100</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>424100</v>
+        <v>396100</v>
       </c>
       <c r="E62" s="3">
-        <v>433300</v>
+        <v>404700</v>
       </c>
       <c r="F62" s="3">
-        <v>448700</v>
+        <v>419100</v>
       </c>
       <c r="G62" s="3">
+        <v>425700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>440000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>444400</v>
+      </c>
+      <c r="J62" s="3">
         <v>455800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>471100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>475800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>487900</v>
       </c>
       <c r="K62" s="3">
         <v>381100</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4678300</v>
+        <v>4369900</v>
       </c>
       <c r="E66" s="3">
-        <v>3803100</v>
+        <v>3552400</v>
       </c>
       <c r="F66" s="3">
-        <v>4334300</v>
+        <v>4048600</v>
       </c>
       <c r="G66" s="3">
-        <v>3922100</v>
+        <v>3663500</v>
       </c>
       <c r="H66" s="3">
-        <v>4802700</v>
+        <v>4486100</v>
       </c>
       <c r="I66" s="3">
-        <v>4152900</v>
+        <v>3879100</v>
       </c>
       <c r="J66" s="3">
-        <v>4044800</v>
+        <v>3778100</v>
       </c>
       <c r="K66" s="3">
         <v>3348600</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3537200</v>
+        <v>3304000</v>
       </c>
       <c r="E72" s="3">
-        <v>3314000</v>
+        <v>3095500</v>
       </c>
       <c r="F72" s="3">
-        <v>3214900</v>
+        <v>3003000</v>
       </c>
       <c r="G72" s="3">
-        <v>3042500</v>
+        <v>2842000</v>
       </c>
       <c r="H72" s="3">
-        <v>2798700</v>
+        <v>2614200</v>
       </c>
       <c r="I72" s="3">
-        <v>2413700</v>
+        <v>2254500</v>
       </c>
       <c r="J72" s="3">
-        <v>2217300</v>
+        <v>2071200</v>
       </c>
       <c r="K72" s="3">
         <v>1959900</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5148200</v>
+        <v>4808800</v>
       </c>
       <c r="E76" s="3">
-        <v>4873700</v>
+        <v>4552400</v>
       </c>
       <c r="F76" s="3">
-        <v>4739000</v>
+        <v>4426600</v>
       </c>
       <c r="G76" s="3">
-        <v>4841000</v>
+        <v>4521800</v>
       </c>
       <c r="H76" s="3">
-        <v>4495800</v>
+        <v>4199400</v>
       </c>
       <c r="I76" s="3">
-        <v>4088600</v>
+        <v>3819100</v>
       </c>
       <c r="J76" s="3">
-        <v>3859400</v>
+        <v>3605000</v>
       </c>
       <c r="K76" s="3">
         <v>3549800</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>223200</v>
+        <v>208500</v>
       </c>
       <c r="E81" s="3">
-        <v>99100</v>
+        <v>92600</v>
       </c>
       <c r="F81" s="3">
-        <v>172300</v>
+        <v>161000</v>
       </c>
       <c r="G81" s="3">
-        <v>243800</v>
+        <v>227700</v>
       </c>
       <c r="H81" s="3">
-        <v>385100</v>
+        <v>359700</v>
       </c>
       <c r="I81" s="3">
-        <v>196300</v>
+        <v>183400</v>
       </c>
       <c r="J81" s="3">
-        <v>242500</v>
+        <v>226500</v>
       </c>
       <c r="K81" s="3">
         <v>107200</v>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5029600</v>
+        <v>3582900</v>
       </c>
       <c r="E8" s="3">
-        <v>3672500</v>
+        <v>3686500</v>
       </c>
       <c r="F8" s="3">
-        <v>4363000</v>
+        <v>4984300</v>
       </c>
       <c r="G8" s="3">
-        <v>4184800</v>
+        <v>3639300</v>
       </c>
       <c r="H8" s="3">
-        <v>5271800</v>
+        <v>4323600</v>
       </c>
       <c r="I8" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5224200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3415800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3553000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2942200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4514600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3020000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3474800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3243000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3967800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2495700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2975500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2851000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3581100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2272600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2599600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2320000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2760300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4040400</v>
+        <v>2849200</v>
       </c>
       <c r="E9" s="3">
-        <v>2959000</v>
+        <v>2955100</v>
       </c>
       <c r="F9" s="3">
-        <v>3485200</v>
+        <v>4003900</v>
       </c>
       <c r="G9" s="3">
-        <v>3360300</v>
+        <v>2932300</v>
       </c>
       <c r="H9" s="3">
-        <v>4115400</v>
+        <v>3453700</v>
       </c>
       <c r="I9" s="3">
+        <v>3330000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4078300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2696500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2825000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2375900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3436600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2368100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2697300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2580300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3148700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1987500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2395300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2275800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2803400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1753300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2026800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1782700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2110600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>989300</v>
+        <v>733700</v>
       </c>
       <c r="E10" s="3">
-        <v>713400</v>
+        <v>731400</v>
       </c>
       <c r="F10" s="3">
-        <v>877800</v>
+        <v>980400</v>
       </c>
       <c r="G10" s="3">
-        <v>824500</v>
+        <v>707000</v>
       </c>
       <c r="H10" s="3">
-        <v>1156400</v>
+        <v>869900</v>
       </c>
       <c r="I10" s="3">
+        <v>817000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1146000</v>
+      </c>
+      <c r="K10" s="3">
         <v>719300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>727900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>566300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1078000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>652000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>777500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>662700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>819100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>508300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>580200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>575300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>777700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>519400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>572800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>537300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>649700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1180,91 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32000</v>
-      </c>
-      <c r="E14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>31700</v>
+      </c>
+      <c r="G14" s="3">
         <v>5300</v>
       </c>
-      <c r="F14" s="3">
-        <v>23800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>49600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>12900</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>4400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>15300</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,47 +1295,53 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
         <v>6300</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>12500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>12500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>12700</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4792000</v>
+        <v>3405000</v>
       </c>
       <c r="E17" s="3">
-        <v>3564200</v>
+        <v>3499200</v>
       </c>
       <c r="F17" s="3">
-        <v>4170100</v>
+        <v>4748800</v>
       </c>
       <c r="G17" s="3">
-        <v>3962100</v>
+        <v>3532000</v>
       </c>
       <c r="H17" s="3">
-        <v>4895800</v>
+        <v>4132500</v>
       </c>
       <c r="I17" s="3">
+        <v>3926300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4851600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3231900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3370200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2820500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4247900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2852800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3327300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3111700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3818200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2446100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2918100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2756000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3465300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2221400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2550100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2237600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2643200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>237600</v>
+        <v>177900</v>
       </c>
       <c r="E18" s="3">
-        <v>108300</v>
+        <v>187300</v>
       </c>
       <c r="F18" s="3">
-        <v>192900</v>
+        <v>235500</v>
       </c>
       <c r="G18" s="3">
-        <v>222700</v>
+        <v>107300</v>
       </c>
       <c r="H18" s="3">
-        <v>376000</v>
+        <v>191100</v>
       </c>
       <c r="I18" s="3">
+        <v>220700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>372600</v>
+      </c>
+      <c r="K18" s="3">
         <v>183900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>182700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>121700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>266600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>167200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>147500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>131300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>149600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>49600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>57400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>95100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>115800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>51200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>49600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>82500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>117100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,79 +1547,87 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37200</v>
+        <v>58400</v>
       </c>
       <c r="E20" s="3">
-        <v>22100</v>
+        <v>22400</v>
       </c>
       <c r="F20" s="3">
-        <v>5200</v>
+        <v>36900</v>
       </c>
       <c r="G20" s="3">
-        <v>41600</v>
+        <v>21900</v>
       </c>
       <c r="H20" s="3">
-        <v>38000</v>
+        <v>5100</v>
       </c>
       <c r="I20" s="3">
+        <v>41200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K20" s="3">
         <v>29800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>93900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>13400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>37000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>64700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>12500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>34600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>26900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>30400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,221 +1697,245 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2800</v>
       </c>
       <c r="V22" s="3">
         <v>2900</v>
       </c>
       <c r="W22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y22" s="3">
         <v>3700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>3000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>274200</v>
+        <v>235400</v>
       </c>
       <c r="E23" s="3">
-        <v>129700</v>
+        <v>209000</v>
       </c>
       <c r="F23" s="3">
-        <v>197800</v>
+        <v>271700</v>
       </c>
       <c r="G23" s="3">
-        <v>263800</v>
+        <v>128600</v>
       </c>
       <c r="H23" s="3">
-        <v>413000</v>
+        <v>196000</v>
       </c>
       <c r="I23" s="3">
+        <v>261400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>409300</v>
+      </c>
+      <c r="K23" s="3">
         <v>213100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>273600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>143100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>265000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>170400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>159000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>163400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>150000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>44600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>116500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>90400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>125400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>62500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>81300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>105700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>144500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57600</v>
+        <v>43300</v>
       </c>
       <c r="E24" s="3">
-        <v>31300</v>
+        <v>42600</v>
       </c>
       <c r="F24" s="3">
-        <v>46100</v>
+        <v>57100</v>
       </c>
       <c r="G24" s="3">
-        <v>45200</v>
+        <v>31000</v>
       </c>
       <c r="H24" s="3">
-        <v>56700</v>
+        <v>45700</v>
       </c>
       <c r="I24" s="3">
+        <v>44800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K24" s="3">
         <v>36500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>47900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>48300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>32700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>32600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>37100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>35300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>18000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>15300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>28000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>15100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>25200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>24100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>30100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>166300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>214600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>97600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>150400</v>
+      </c>
+      <c r="I26" s="3">
         <v>216600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="J26" s="3">
+        <v>353100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>176500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>225700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>116100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>216700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>137700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>126400</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>126300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>114700</v>
+      </c>
+      <c r="S26" s="3">
+        <v>30200</v>
+      </c>
+      <c r="T26" s="3">
         <v>98500</v>
       </c>
-      <c r="F26" s="3">
-        <v>151700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>218500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>356400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>176500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>225700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>116100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>216700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>137700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>126400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>126300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>114700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>30200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>98500</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>75200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>97400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>47400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>56100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>81600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>114400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>208500</v>
+        <v>187300</v>
       </c>
       <c r="E27" s="3">
-        <v>92600</v>
+        <v>160000</v>
       </c>
       <c r="F27" s="3">
-        <v>161000</v>
+        <v>206600</v>
       </c>
       <c r="G27" s="3">
-        <v>227700</v>
+        <v>91800</v>
       </c>
       <c r="H27" s="3">
-        <v>359700</v>
+        <v>159500</v>
       </c>
       <c r="I27" s="3">
+        <v>225700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K27" s="3">
         <v>183400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>226500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>107200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>224100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>134800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>124300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>132700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>104800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>32000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>97800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>76000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>99900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>50200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>57400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>80300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>111700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37200</v>
+        <v>-58400</v>
       </c>
       <c r="E32" s="3">
-        <v>-22100</v>
+        <v>-22400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5200</v>
+        <v>-36900</v>
       </c>
       <c r="G32" s="3">
-        <v>-41600</v>
+        <v>-21900</v>
       </c>
       <c r="H32" s="3">
-        <v>-38000</v>
+        <v>-5100</v>
       </c>
       <c r="I32" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-29800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-93900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-13400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-37000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-64700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-12500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-34600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-26900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-30400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>208500</v>
+        <v>187300</v>
       </c>
       <c r="E33" s="3">
-        <v>92600</v>
+        <v>160000</v>
       </c>
       <c r="F33" s="3">
-        <v>161000</v>
+        <v>206600</v>
       </c>
       <c r="G33" s="3">
-        <v>227700</v>
+        <v>91800</v>
       </c>
       <c r="H33" s="3">
-        <v>359700</v>
+        <v>159500</v>
       </c>
       <c r="I33" s="3">
+        <v>225700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K33" s="3">
         <v>183400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>226500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>107200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>224100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>134800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>124300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>132700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>104800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>32000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>97800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>76000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>99900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>50200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>57400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>80300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>111700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>208500</v>
+        <v>187300</v>
       </c>
       <c r="E35" s="3">
-        <v>92600</v>
+        <v>160000</v>
       </c>
       <c r="F35" s="3">
-        <v>161000</v>
+        <v>206600</v>
       </c>
       <c r="G35" s="3">
-        <v>227700</v>
+        <v>91800</v>
       </c>
       <c r="H35" s="3">
-        <v>359700</v>
+        <v>159500</v>
       </c>
       <c r="I35" s="3">
+        <v>225700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K35" s="3">
         <v>183400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>226500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>107200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>224100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>134800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>124300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>132700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>104800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>32000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>97800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>76000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>99900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>50200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>57400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>80300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>111700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2401600</v>
+        <v>2378700</v>
       </c>
       <c r="E41" s="3">
-        <v>1846300</v>
+        <v>1993000</v>
       </c>
       <c r="F41" s="3">
-        <v>2308700</v>
+        <v>2379900</v>
       </c>
       <c r="G41" s="3">
-        <v>2127100</v>
+        <v>1829600</v>
       </c>
       <c r="H41" s="3">
-        <v>1767600</v>
+        <v>2287800</v>
       </c>
       <c r="I41" s="3">
+        <v>2107900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1751700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1309100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1089700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>770000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1012200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>882000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1044600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>882300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1451300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>864900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>868200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1005500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1480200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>544000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>615700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>645000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>597700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>793000</v>
+        <v>601900</v>
       </c>
       <c r="E42" s="3">
-        <v>540600</v>
+        <v>733000</v>
       </c>
       <c r="F42" s="3">
-        <v>536800</v>
+        <v>785900</v>
       </c>
       <c r="G42" s="3">
-        <v>548600</v>
+        <v>535700</v>
       </c>
       <c r="H42" s="3">
-        <v>1080000</v>
+        <v>532000</v>
       </c>
       <c r="I42" s="3">
+        <v>543600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1070200</v>
+      </c>
+      <c r="K42" s="3">
         <v>729000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>875300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>536100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>470100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>8900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>36400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>6100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>353100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>266200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>296900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>259300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>36500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>34200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>50900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>108500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>97700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>504600</v>
+        <v>503300</v>
       </c>
       <c r="E43" s="3">
-        <v>442600</v>
+        <v>522900</v>
       </c>
       <c r="F43" s="3">
-        <v>429000</v>
+        <v>500000</v>
       </c>
       <c r="G43" s="3">
-        <v>433800</v>
+        <v>438600</v>
       </c>
       <c r="H43" s="3">
-        <v>439400</v>
+        <v>425100</v>
       </c>
       <c r="I43" s="3">
+        <v>429800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K43" s="3">
         <v>461200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>511000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>640200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1657700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1134500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1183100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1460000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1173000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1280600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1171200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1258200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>941600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>845400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>717900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>673000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1011600</v>
+        <v>759000</v>
       </c>
       <c r="E44" s="3">
-        <v>901400</v>
+        <v>764600</v>
       </c>
       <c r="F44" s="3">
-        <v>875500</v>
+        <v>1002500</v>
       </c>
       <c r="G44" s="3">
-        <v>857500</v>
+        <v>893300</v>
       </c>
       <c r="H44" s="3">
-        <v>1126200</v>
+        <v>867600</v>
       </c>
       <c r="I44" s="3">
+        <v>849700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="K44" s="3">
         <v>946100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>849500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>800400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1186900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>82700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>685900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>610700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>816600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>599500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>658600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>729100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1033000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>644300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>551600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>525900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>719700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128800</v>
+        <v>154500</v>
       </c>
       <c r="E45" s="3">
-        <v>93200</v>
+        <v>96000</v>
       </c>
       <c r="F45" s="3">
-        <v>120500</v>
+        <v>127600</v>
       </c>
       <c r="G45" s="3">
-        <v>99000</v>
+        <v>92300</v>
       </c>
       <c r="H45" s="3">
-        <v>180500</v>
+        <v>119400</v>
       </c>
       <c r="I45" s="3">
+        <v>98100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>178800</v>
+      </c>
+      <c r="K45" s="3">
         <v>104700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>103800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>138100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>176400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>139300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>152100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>75600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>75700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>49600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>53900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>50000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>38300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>6400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>8900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>32500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4839600</v>
+        <v>4397400</v>
       </c>
       <c r="E46" s="3">
-        <v>3824000</v>
+        <v>4109500</v>
       </c>
       <c r="F46" s="3">
-        <v>4270500</v>
+        <v>4795900</v>
       </c>
       <c r="G46" s="3">
-        <v>4065900</v>
+        <v>3789500</v>
       </c>
       <c r="H46" s="3">
-        <v>4593700</v>
+        <v>4232000</v>
       </c>
       <c r="I46" s="3">
+        <v>4029200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4552200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3550100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3429400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2884700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3545900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2770600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3053400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2757900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4156800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2953200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3158200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3215200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3846200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2170400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2072600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1998100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2120500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>730900</v>
+        <v>729600</v>
       </c>
       <c r="E47" s="3">
-        <v>734500</v>
+        <v>708900</v>
       </c>
       <c r="F47" s="3">
-        <v>743500</v>
+        <v>724300</v>
       </c>
       <c r="G47" s="3">
-        <v>736700</v>
+        <v>727800</v>
       </c>
       <c r="H47" s="3">
-        <v>708900</v>
+        <v>736800</v>
       </c>
       <c r="I47" s="3">
+        <v>730000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>702500</v>
+      </c>
+      <c r="K47" s="3">
         <v>717500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>690000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>836500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>803400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>800000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>383100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>364700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>325200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>263700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>260300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>83900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>89100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>94200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>93500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>147400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>146000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2287800</v>
+        <v>2276300</v>
       </c>
       <c r="E48" s="3">
-        <v>2267700</v>
+        <v>2278100</v>
       </c>
       <c r="F48" s="3">
-        <v>2251800</v>
+        <v>2267100</v>
       </c>
       <c r="G48" s="3">
-        <v>2215000</v>
+        <v>2247200</v>
       </c>
       <c r="H48" s="3">
-        <v>2234700</v>
+        <v>2231400</v>
       </c>
       <c r="I48" s="3">
+        <v>2195000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2214600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2241600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2119000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2031700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1997500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1845300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1555700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1407900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1297800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1072900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1018600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>961500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>988500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>914400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>817800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>671000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>649700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>134100</v>
+        <v>135500</v>
       </c>
       <c r="E49" s="3">
-        <v>134800</v>
+        <v>135600</v>
       </c>
       <c r="F49" s="3">
-        <v>134800</v>
+        <v>132900</v>
       </c>
       <c r="G49" s="3">
-        <v>135700</v>
+        <v>133600</v>
       </c>
       <c r="H49" s="3">
-        <v>136600</v>
+        <v>133600</v>
       </c>
       <c r="I49" s="3">
+        <v>134400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K49" s="3">
         <v>139700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>107600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>86600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>88400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>111200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>108100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>109400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>109600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>100900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>103600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>103700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>114000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>126400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>139000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>148500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>158800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1186300</v>
+        <v>1218500</v>
       </c>
       <c r="E52" s="3">
-        <v>1143800</v>
+        <v>1102600</v>
       </c>
       <c r="F52" s="3">
-        <v>1074600</v>
+        <v>1175600</v>
       </c>
       <c r="G52" s="3">
-        <v>1032200</v>
+        <v>1133500</v>
       </c>
       <c r="H52" s="3">
-        <v>1011600</v>
+        <v>1064900</v>
       </c>
       <c r="I52" s="3">
+        <v>1022900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1002500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1049300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1037200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1059000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1045600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>999000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>893800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>870200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>737400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>670300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>644100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>648800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>599200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>590200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>602000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>628200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>574400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9178700</v>
+        <v>8757300</v>
       </c>
       <c r="E54" s="3">
-        <v>8104800</v>
+        <v>8334700</v>
       </c>
       <c r="F54" s="3">
-        <v>8475100</v>
+        <v>9095800</v>
       </c>
       <c r="G54" s="3">
-        <v>8185400</v>
+        <v>8031600</v>
       </c>
       <c r="H54" s="3">
-        <v>8685500</v>
+        <v>8398600</v>
       </c>
       <c r="I54" s="3">
+        <v>8111500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8607100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7698200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7383200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6898400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7480800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6526100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5994100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5510100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6626800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5060900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5184800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5013200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5637000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3895700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3724800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3593200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3649500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,292 +4055,318 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1937000</v>
+        <v>1795200</v>
       </c>
       <c r="E57" s="3">
-        <v>1446800</v>
+        <v>1504600</v>
       </c>
       <c r="F57" s="3">
-        <v>1811000</v>
+        <v>1919600</v>
       </c>
       <c r="G57" s="3">
-        <v>1589800</v>
+        <v>1433700</v>
       </c>
       <c r="H57" s="3">
-        <v>2238600</v>
+        <v>1794700</v>
       </c>
       <c r="I57" s="3">
+        <v>1575500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2218400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1683100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1753900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1452800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2123700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1566300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1644200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1451300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1769200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>969900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1206500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1373100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1698600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1252000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1209800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1139500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1212000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>291100</v>
+        <v>259700</v>
       </c>
       <c r="E58" s="3">
-        <v>265500</v>
+        <v>281700</v>
       </c>
       <c r="F58" s="3">
-        <v>288800</v>
+        <v>288400</v>
       </c>
       <c r="G58" s="3">
-        <v>18000</v>
+        <v>263100</v>
       </c>
       <c r="H58" s="3">
-        <v>153800</v>
+        <v>286100</v>
       </c>
       <c r="I58" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K58" s="3">
         <v>299900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>272700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>291200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>168400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>236700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>172900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>147400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1010000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>979100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>950500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>742300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>247400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>124500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>42700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>41400</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1569500</v>
+        <v>1348100</v>
       </c>
       <c r="E59" s="3">
-        <v>1287500</v>
+        <v>1292100</v>
       </c>
       <c r="F59" s="3">
-        <v>1383100</v>
+        <v>1555400</v>
       </c>
       <c r="G59" s="3">
-        <v>1488500</v>
+        <v>1275800</v>
       </c>
       <c r="H59" s="3">
-        <v>1522800</v>
+        <v>1370700</v>
       </c>
       <c r="I59" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1509100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1314600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1161100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1107600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1391900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1196000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1040800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1004800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1167700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>688800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>678100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>678100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>912000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>699500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>724200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>778600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>908900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3797600</v>
+        <v>3403100</v>
       </c>
       <c r="E60" s="3">
-        <v>2999700</v>
+        <v>3078400</v>
       </c>
       <c r="F60" s="3">
-        <v>3482900</v>
+        <v>3763300</v>
       </c>
       <c r="G60" s="3">
-        <v>3096400</v>
+        <v>2972700</v>
       </c>
       <c r="H60" s="3">
-        <v>3915200</v>
+        <v>3451500</v>
       </c>
       <c r="I60" s="3">
+        <v>3068400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3879900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3297600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3187700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2851700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3684100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2998900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2857900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2603600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3946900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2637800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2835000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2793500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2858000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2076000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1976700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1959500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2120900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4100,129 +4386,141 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>29200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>29200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>41100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>52400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>69100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>607700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>621500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>633200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>631500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>637200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>396100</v>
+        <v>365300</v>
       </c>
       <c r="E62" s="3">
-        <v>404700</v>
+        <v>315700</v>
       </c>
       <c r="F62" s="3">
-        <v>419100</v>
+        <v>392600</v>
       </c>
       <c r="G62" s="3">
-        <v>425700</v>
+        <v>401100</v>
       </c>
       <c r="H62" s="3">
-        <v>440000</v>
+        <v>415300</v>
       </c>
       <c r="I62" s="3">
+        <v>421900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>436100</v>
+      </c>
+      <c r="K62" s="3">
         <v>444400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>455800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>381100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>360700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>286500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>187500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>125600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>61700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>53900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>55600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>52700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>56300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>52500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>55100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>48500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>50500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4369900</v>
+        <v>3959800</v>
       </c>
       <c r="E66" s="3">
-        <v>3552400</v>
+        <v>3565800</v>
       </c>
       <c r="F66" s="3">
-        <v>4048600</v>
+        <v>4330500</v>
       </c>
       <c r="G66" s="3">
-        <v>3663500</v>
+        <v>3520300</v>
       </c>
       <c r="H66" s="3">
-        <v>4486100</v>
+        <v>4012000</v>
       </c>
       <c r="I66" s="3">
+        <v>3630500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4445600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3879100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3778100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3348600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4119800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3377700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3039400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2722400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4000900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2753700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2883700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2839200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3515600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2745200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2663200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2645500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2815900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3304000</v>
+        <v>3621500</v>
       </c>
       <c r="E72" s="3">
-        <v>3095500</v>
+        <v>3434200</v>
       </c>
       <c r="F72" s="3">
-        <v>3003000</v>
+        <v>3274200</v>
       </c>
       <c r="G72" s="3">
-        <v>2842000</v>
+        <v>3067600</v>
       </c>
       <c r="H72" s="3">
-        <v>2614200</v>
+        <v>2975900</v>
       </c>
       <c r="I72" s="3">
+        <v>2816300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2590600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2254500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2071200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1959900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1836100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1612000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1465600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1335600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1202900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1010400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1003000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>905200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>831500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>731600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>681400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>611500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>531300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4808800</v>
+        <v>4797500</v>
       </c>
       <c r="E76" s="3">
-        <v>4552400</v>
+        <v>4768800</v>
       </c>
       <c r="F76" s="3">
-        <v>4426600</v>
+        <v>4765400</v>
       </c>
       <c r="G76" s="3">
-        <v>4521800</v>
+        <v>4511300</v>
       </c>
       <c r="H76" s="3">
-        <v>4199400</v>
+        <v>4386600</v>
       </c>
       <c r="I76" s="3">
+        <v>4481000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4161500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3819100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3605000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3549800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3360900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3148400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2954700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2787600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2625900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2307200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2301100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2174000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2121400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1150500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1061600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>947600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>833600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>208500</v>
+        <v>187300</v>
       </c>
       <c r="E81" s="3">
-        <v>92600</v>
+        <v>160000</v>
       </c>
       <c r="F81" s="3">
-        <v>161000</v>
+        <v>206600</v>
       </c>
       <c r="G81" s="3">
-        <v>227700</v>
+        <v>91800</v>
       </c>
       <c r="H81" s="3">
-        <v>359700</v>
+        <v>159500</v>
       </c>
       <c r="I81" s="3">
+        <v>225700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K81" s="3">
         <v>183400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>226500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>107200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>224100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>134800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>124300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>132700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>104800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>32000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>97800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>76000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>99900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>50200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>57400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>80300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>111700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3582900</v>
+        <v>3415300</v>
       </c>
       <c r="E8" s="3">
-        <v>3686500</v>
+        <v>3514000</v>
       </c>
       <c r="F8" s="3">
-        <v>4984300</v>
+        <v>4751100</v>
       </c>
       <c r="G8" s="3">
-        <v>3639300</v>
+        <v>3469100</v>
       </c>
       <c r="H8" s="3">
-        <v>4323600</v>
+        <v>4121400</v>
       </c>
       <c r="I8" s="3">
-        <v>4147000</v>
+        <v>3953100</v>
       </c>
       <c r="J8" s="3">
-        <v>5224200</v>
+        <v>4979900</v>
       </c>
       <c r="K8" s="3">
         <v>3415800</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2849200</v>
+        <v>2715900</v>
       </c>
       <c r="E9" s="3">
-        <v>2955100</v>
+        <v>2816900</v>
       </c>
       <c r="F9" s="3">
-        <v>4003900</v>
+        <v>3816600</v>
       </c>
       <c r="G9" s="3">
-        <v>2932300</v>
+        <v>2795200</v>
       </c>
       <c r="H9" s="3">
-        <v>3453700</v>
+        <v>3292200</v>
       </c>
       <c r="I9" s="3">
-        <v>3330000</v>
+        <v>3174300</v>
       </c>
       <c r="J9" s="3">
-        <v>4078300</v>
+        <v>3887500</v>
       </c>
       <c r="K9" s="3">
         <v>2696500</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>733700</v>
+        <v>699400</v>
       </c>
       <c r="E10" s="3">
-        <v>731400</v>
+        <v>697200</v>
       </c>
       <c r="F10" s="3">
-        <v>980400</v>
+        <v>934500</v>
       </c>
       <c r="G10" s="3">
-        <v>707000</v>
+        <v>673900</v>
       </c>
       <c r="H10" s="3">
-        <v>869900</v>
+        <v>829200</v>
       </c>
       <c r="I10" s="3">
-        <v>817000</v>
+        <v>778800</v>
       </c>
       <c r="J10" s="3">
-        <v>1146000</v>
+        <v>1092400</v>
       </c>
       <c r="K10" s="3">
         <v>719300</v>
@@ -1192,25 +1192,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>31700</v>
+        <v>30200</v>
       </c>
       <c r="G14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>23600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3405000</v>
+        <v>3245700</v>
       </c>
       <c r="E17" s="3">
-        <v>3499200</v>
+        <v>3335500</v>
       </c>
       <c r="F17" s="3">
-        <v>4748800</v>
+        <v>4526600</v>
       </c>
       <c r="G17" s="3">
-        <v>3532000</v>
+        <v>3366800</v>
       </c>
       <c r="H17" s="3">
-        <v>4132500</v>
+        <v>3939200</v>
       </c>
       <c r="I17" s="3">
-        <v>3926300</v>
+        <v>3742700</v>
       </c>
       <c r="J17" s="3">
-        <v>4851600</v>
+        <v>4624700</v>
       </c>
       <c r="K17" s="3">
         <v>3231900</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>177900</v>
+        <v>169600</v>
       </c>
       <c r="E18" s="3">
-        <v>187300</v>
+        <v>178500</v>
       </c>
       <c r="F18" s="3">
-        <v>235500</v>
+        <v>224500</v>
       </c>
       <c r="G18" s="3">
-        <v>107300</v>
+        <v>102300</v>
       </c>
       <c r="H18" s="3">
-        <v>191100</v>
+        <v>182200</v>
       </c>
       <c r="I18" s="3">
-        <v>220700</v>
+        <v>210400</v>
       </c>
       <c r="J18" s="3">
-        <v>372600</v>
+        <v>355200</v>
       </c>
       <c r="K18" s="3">
         <v>183900</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="E20" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="F20" s="3">
-        <v>36900</v>
+        <v>35200</v>
       </c>
       <c r="G20" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="H20" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>41200</v>
+        <v>39300</v>
       </c>
       <c r="J20" s="3">
-        <v>37600</v>
+        <v>35900</v>
       </c>
       <c r="K20" s="3">
         <v>29800</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>235400</v>
+        <v>224400</v>
       </c>
       <c r="E23" s="3">
-        <v>209000</v>
+        <v>199200</v>
       </c>
       <c r="F23" s="3">
-        <v>271700</v>
+        <v>259000</v>
       </c>
       <c r="G23" s="3">
-        <v>128600</v>
+        <v>122600</v>
       </c>
       <c r="H23" s="3">
-        <v>196000</v>
+        <v>186900</v>
       </c>
       <c r="I23" s="3">
-        <v>261400</v>
+        <v>249200</v>
       </c>
       <c r="J23" s="3">
-        <v>409300</v>
+        <v>390200</v>
       </c>
       <c r="K23" s="3">
         <v>213100</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43300</v>
+        <v>41300</v>
       </c>
       <c r="E24" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="F24" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="G24" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="H24" s="3">
-        <v>45700</v>
+        <v>43500</v>
       </c>
       <c r="I24" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="J24" s="3">
-        <v>56200</v>
+        <v>53500</v>
       </c>
       <c r="K24" s="3">
         <v>36500</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>192000</v>
+        <v>183000</v>
       </c>
       <c r="E26" s="3">
-        <v>166300</v>
+        <v>158600</v>
       </c>
       <c r="F26" s="3">
-        <v>214600</v>
+        <v>204600</v>
       </c>
       <c r="G26" s="3">
-        <v>97600</v>
+        <v>93000</v>
       </c>
       <c r="H26" s="3">
-        <v>150400</v>
+        <v>143300</v>
       </c>
       <c r="I26" s="3">
-        <v>216600</v>
+        <v>206400</v>
       </c>
       <c r="J26" s="3">
-        <v>353100</v>
+        <v>336600</v>
       </c>
       <c r="K26" s="3">
         <v>176500</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>187300</v>
+        <v>178600</v>
       </c>
       <c r="E27" s="3">
-        <v>160000</v>
+        <v>152500</v>
       </c>
       <c r="F27" s="3">
-        <v>206600</v>
+        <v>196900</v>
       </c>
       <c r="G27" s="3">
-        <v>91800</v>
+        <v>87500</v>
       </c>
       <c r="H27" s="3">
-        <v>159500</v>
+        <v>152100</v>
       </c>
       <c r="I27" s="3">
-        <v>225700</v>
+        <v>215100</v>
       </c>
       <c r="J27" s="3">
-        <v>356400</v>
+        <v>339800</v>
       </c>
       <c r="K27" s="3">
         <v>183400</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58400</v>
+        <v>-55700</v>
       </c>
       <c r="E32" s="3">
-        <v>-22400</v>
+        <v>-21300</v>
       </c>
       <c r="F32" s="3">
-        <v>-36900</v>
+        <v>-35200</v>
       </c>
       <c r="G32" s="3">
-        <v>-21900</v>
+        <v>-20900</v>
       </c>
       <c r="H32" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>-41200</v>
+        <v>-39300</v>
       </c>
       <c r="J32" s="3">
-        <v>-37600</v>
+        <v>-35900</v>
       </c>
       <c r="K32" s="3">
         <v>-29800</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>187300</v>
+        <v>178600</v>
       </c>
       <c r="E33" s="3">
-        <v>160000</v>
+        <v>152500</v>
       </c>
       <c r="F33" s="3">
-        <v>206600</v>
+        <v>196900</v>
       </c>
       <c r="G33" s="3">
-        <v>91800</v>
+        <v>87500</v>
       </c>
       <c r="H33" s="3">
-        <v>159500</v>
+        <v>152100</v>
       </c>
       <c r="I33" s="3">
-        <v>225700</v>
+        <v>215100</v>
       </c>
       <c r="J33" s="3">
-        <v>356400</v>
+        <v>339800</v>
       </c>
       <c r="K33" s="3">
         <v>183400</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>187300</v>
+        <v>178600</v>
       </c>
       <c r="E35" s="3">
-        <v>160000</v>
+        <v>152500</v>
       </c>
       <c r="F35" s="3">
-        <v>206600</v>
+        <v>196900</v>
       </c>
       <c r="G35" s="3">
-        <v>91800</v>
+        <v>87500</v>
       </c>
       <c r="H35" s="3">
-        <v>159500</v>
+        <v>152100</v>
       </c>
       <c r="I35" s="3">
-        <v>225700</v>
+        <v>215100</v>
       </c>
       <c r="J35" s="3">
-        <v>356400</v>
+        <v>339800</v>
       </c>
       <c r="K35" s="3">
         <v>183400</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2378700</v>
+        <v>2267400</v>
       </c>
       <c r="E41" s="3">
-        <v>1993000</v>
+        <v>1899800</v>
       </c>
       <c r="F41" s="3">
-        <v>2379900</v>
+        <v>2268600</v>
       </c>
       <c r="G41" s="3">
-        <v>1829600</v>
+        <v>1744100</v>
       </c>
       <c r="H41" s="3">
-        <v>2287800</v>
+        <v>2180800</v>
       </c>
       <c r="I41" s="3">
-        <v>2107900</v>
+        <v>2009400</v>
       </c>
       <c r="J41" s="3">
-        <v>1751700</v>
+        <v>1669800</v>
       </c>
       <c r="K41" s="3">
         <v>1309100</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>601900</v>
+        <v>573800</v>
       </c>
       <c r="E42" s="3">
-        <v>733000</v>
+        <v>698700</v>
       </c>
       <c r="F42" s="3">
-        <v>785900</v>
+        <v>749100</v>
       </c>
       <c r="G42" s="3">
-        <v>535700</v>
+        <v>510600</v>
       </c>
       <c r="H42" s="3">
-        <v>532000</v>
+        <v>507100</v>
       </c>
       <c r="I42" s="3">
-        <v>543600</v>
+        <v>518200</v>
       </c>
       <c r="J42" s="3">
-        <v>1070200</v>
+        <v>1020200</v>
       </c>
       <c r="K42" s="3">
         <v>729000</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>503300</v>
+        <v>479700</v>
       </c>
       <c r="E43" s="3">
-        <v>522900</v>
+        <v>498500</v>
       </c>
       <c r="F43" s="3">
-        <v>500000</v>
+        <v>476600</v>
       </c>
       <c r="G43" s="3">
-        <v>438600</v>
+        <v>418100</v>
       </c>
       <c r="H43" s="3">
-        <v>425100</v>
+        <v>405200</v>
       </c>
       <c r="I43" s="3">
-        <v>429800</v>
+        <v>409700</v>
       </c>
       <c r="J43" s="3">
-        <v>435400</v>
+        <v>415100</v>
       </c>
       <c r="K43" s="3">
         <v>461200</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>759000</v>
+        <v>723500</v>
       </c>
       <c r="E44" s="3">
-        <v>764600</v>
+        <v>728900</v>
       </c>
       <c r="F44" s="3">
-        <v>1002500</v>
+        <v>955600</v>
       </c>
       <c r="G44" s="3">
-        <v>893300</v>
+        <v>851500</v>
       </c>
       <c r="H44" s="3">
-        <v>867600</v>
+        <v>827000</v>
       </c>
       <c r="I44" s="3">
-        <v>849700</v>
+        <v>810000</v>
       </c>
       <c r="J44" s="3">
-        <v>1116000</v>
+        <v>1063800</v>
       </c>
       <c r="K44" s="3">
         <v>946100</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>154500</v>
+        <v>147300</v>
       </c>
       <c r="E45" s="3">
-        <v>96000</v>
+        <v>91500</v>
       </c>
       <c r="F45" s="3">
-        <v>127600</v>
+        <v>121600</v>
       </c>
       <c r="G45" s="3">
-        <v>92300</v>
+        <v>88000</v>
       </c>
       <c r="H45" s="3">
-        <v>119400</v>
+        <v>113900</v>
       </c>
       <c r="I45" s="3">
-        <v>98100</v>
+        <v>93500</v>
       </c>
       <c r="J45" s="3">
-        <v>178800</v>
+        <v>170500</v>
       </c>
       <c r="K45" s="3">
         <v>104700</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4397400</v>
+        <v>4191700</v>
       </c>
       <c r="E46" s="3">
-        <v>4109500</v>
+        <v>3917300</v>
       </c>
       <c r="F46" s="3">
-        <v>4795900</v>
+        <v>4571600</v>
       </c>
       <c r="G46" s="3">
-        <v>3789500</v>
+        <v>3612300</v>
       </c>
       <c r="H46" s="3">
-        <v>4232000</v>
+        <v>4034000</v>
       </c>
       <c r="I46" s="3">
-        <v>4029200</v>
+        <v>3840800</v>
       </c>
       <c r="J46" s="3">
-        <v>4552200</v>
+        <v>4339300</v>
       </c>
       <c r="K46" s="3">
         <v>3550100</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>729600</v>
+        <v>695500</v>
       </c>
       <c r="E47" s="3">
-        <v>708900</v>
+        <v>675800</v>
       </c>
       <c r="F47" s="3">
-        <v>724300</v>
+        <v>690400</v>
       </c>
       <c r="G47" s="3">
-        <v>727800</v>
+        <v>693800</v>
       </c>
       <c r="H47" s="3">
-        <v>736800</v>
+        <v>702300</v>
       </c>
       <c r="I47" s="3">
-        <v>730000</v>
+        <v>695900</v>
       </c>
       <c r="J47" s="3">
-        <v>702500</v>
+        <v>669700</v>
       </c>
       <c r="K47" s="3">
         <v>717500</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2276300</v>
+        <v>2169900</v>
       </c>
       <c r="E48" s="3">
-        <v>2278100</v>
+        <v>2171500</v>
       </c>
       <c r="F48" s="3">
-        <v>2267100</v>
+        <v>2161100</v>
       </c>
       <c r="G48" s="3">
-        <v>2247200</v>
+        <v>2142100</v>
       </c>
       <c r="H48" s="3">
-        <v>2231400</v>
+        <v>2127100</v>
       </c>
       <c r="I48" s="3">
-        <v>2195000</v>
+        <v>2092300</v>
       </c>
       <c r="J48" s="3">
-        <v>2214600</v>
+        <v>2111000</v>
       </c>
       <c r="K48" s="3">
         <v>2241600</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135500</v>
+        <v>129100</v>
       </c>
       <c r="E49" s="3">
-        <v>135600</v>
+        <v>129300</v>
       </c>
       <c r="F49" s="3">
-        <v>132900</v>
+        <v>126700</v>
       </c>
       <c r="G49" s="3">
-        <v>133600</v>
+        <v>127300</v>
       </c>
       <c r="H49" s="3">
-        <v>133600</v>
+        <v>127300</v>
       </c>
       <c r="I49" s="3">
-        <v>134400</v>
+        <v>128100</v>
       </c>
       <c r="J49" s="3">
-        <v>135300</v>
+        <v>129000</v>
       </c>
       <c r="K49" s="3">
         <v>139700</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1218500</v>
+        <v>1161500</v>
       </c>
       <c r="E52" s="3">
-        <v>1102600</v>
+        <v>1051000</v>
       </c>
       <c r="F52" s="3">
-        <v>1175600</v>
+        <v>1120700</v>
       </c>
       <c r="G52" s="3">
-        <v>1133500</v>
+        <v>1080500</v>
       </c>
       <c r="H52" s="3">
-        <v>1064900</v>
+        <v>1015100</v>
       </c>
       <c r="I52" s="3">
-        <v>1022900</v>
+        <v>975000</v>
       </c>
       <c r="J52" s="3">
-        <v>1002500</v>
+        <v>955600</v>
       </c>
       <c r="K52" s="3">
         <v>1049300</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8757300</v>
+        <v>8347700</v>
       </c>
       <c r="E54" s="3">
-        <v>8334700</v>
+        <v>7944900</v>
       </c>
       <c r="F54" s="3">
-        <v>9095800</v>
+        <v>8670400</v>
       </c>
       <c r="G54" s="3">
-        <v>8031600</v>
+        <v>7656000</v>
       </c>
       <c r="H54" s="3">
-        <v>8398600</v>
+        <v>8005800</v>
       </c>
       <c r="I54" s="3">
-        <v>8111500</v>
+        <v>7732100</v>
       </c>
       <c r="J54" s="3">
-        <v>8607100</v>
+        <v>8204600</v>
       </c>
       <c r="K54" s="3">
         <v>7698200</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1795200</v>
+        <v>1711300</v>
       </c>
       <c r="E57" s="3">
-        <v>1504600</v>
+        <v>1434300</v>
       </c>
       <c r="F57" s="3">
-        <v>1919600</v>
+        <v>1829800</v>
       </c>
       <c r="G57" s="3">
-        <v>1433700</v>
+        <v>1366600</v>
       </c>
       <c r="H57" s="3">
-        <v>1794700</v>
+        <v>1710700</v>
       </c>
       <c r="I57" s="3">
-        <v>1575500</v>
+        <v>1501800</v>
       </c>
       <c r="J57" s="3">
-        <v>2218400</v>
+        <v>2114600</v>
       </c>
       <c r="K57" s="3">
         <v>1683100</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>259700</v>
+        <v>247600</v>
       </c>
       <c r="E58" s="3">
-        <v>281700</v>
+        <v>268500</v>
       </c>
       <c r="F58" s="3">
-        <v>288400</v>
+        <v>274900</v>
       </c>
       <c r="G58" s="3">
-        <v>263100</v>
+        <v>250800</v>
       </c>
       <c r="H58" s="3">
-        <v>286100</v>
+        <v>272800</v>
       </c>
       <c r="I58" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="J58" s="3">
-        <v>152400</v>
+        <v>145200</v>
       </c>
       <c r="K58" s="3">
         <v>299900</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1348100</v>
+        <v>1285000</v>
       </c>
       <c r="E59" s="3">
-        <v>1292100</v>
+        <v>1231600</v>
       </c>
       <c r="F59" s="3">
-        <v>1555400</v>
+        <v>1482600</v>
       </c>
       <c r="G59" s="3">
-        <v>1275800</v>
+        <v>1216200</v>
       </c>
       <c r="H59" s="3">
-        <v>1370700</v>
+        <v>1306500</v>
       </c>
       <c r="I59" s="3">
-        <v>1475000</v>
+        <v>1406100</v>
       </c>
       <c r="J59" s="3">
-        <v>1509100</v>
+        <v>1438500</v>
       </c>
       <c r="K59" s="3">
         <v>1314600</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3403100</v>
+        <v>3243900</v>
       </c>
       <c r="E60" s="3">
-        <v>3078400</v>
+        <v>2934400</v>
       </c>
       <c r="F60" s="3">
-        <v>3763300</v>
+        <v>3587300</v>
       </c>
       <c r="G60" s="3">
-        <v>2972700</v>
+        <v>2833600</v>
       </c>
       <c r="H60" s="3">
-        <v>3451500</v>
+        <v>3290100</v>
       </c>
       <c r="I60" s="3">
-        <v>3068400</v>
+        <v>2924900</v>
       </c>
       <c r="J60" s="3">
-        <v>3879900</v>
+        <v>3698400</v>
       </c>
       <c r="K60" s="3">
         <v>3297600</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>365300</v>
+        <v>348200</v>
       </c>
       <c r="E62" s="3">
-        <v>315700</v>
+        <v>301000</v>
       </c>
       <c r="F62" s="3">
-        <v>392600</v>
+        <v>374200</v>
       </c>
       <c r="G62" s="3">
-        <v>401100</v>
+        <v>382300</v>
       </c>
       <c r="H62" s="3">
-        <v>415300</v>
+        <v>395900</v>
       </c>
       <c r="I62" s="3">
-        <v>421900</v>
+        <v>402100</v>
       </c>
       <c r="J62" s="3">
-        <v>436100</v>
+        <v>415700</v>
       </c>
       <c r="K62" s="3">
         <v>444400</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3959800</v>
+        <v>3774600</v>
       </c>
       <c r="E66" s="3">
-        <v>3565800</v>
+        <v>3399100</v>
       </c>
       <c r="F66" s="3">
-        <v>4330500</v>
+        <v>4127900</v>
       </c>
       <c r="G66" s="3">
-        <v>3520300</v>
+        <v>3355600</v>
       </c>
       <c r="H66" s="3">
-        <v>4012000</v>
+        <v>3824400</v>
       </c>
       <c r="I66" s="3">
-        <v>3630500</v>
+        <v>3460700</v>
       </c>
       <c r="J66" s="3">
-        <v>4445600</v>
+        <v>4237700</v>
       </c>
       <c r="K66" s="3">
         <v>3879100</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3621500</v>
+        <v>3452200</v>
       </c>
       <c r="E72" s="3">
-        <v>3434200</v>
+        <v>3273600</v>
       </c>
       <c r="F72" s="3">
-        <v>3274200</v>
+        <v>3121100</v>
       </c>
       <c r="G72" s="3">
-        <v>3067600</v>
+        <v>2924100</v>
       </c>
       <c r="H72" s="3">
-        <v>2975900</v>
+        <v>2836700</v>
       </c>
       <c r="I72" s="3">
-        <v>2816300</v>
+        <v>2684600</v>
       </c>
       <c r="J72" s="3">
-        <v>2590600</v>
+        <v>2469500</v>
       </c>
       <c r="K72" s="3">
         <v>2254500</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4797500</v>
+        <v>4573100</v>
       </c>
       <c r="E76" s="3">
-        <v>4768800</v>
+        <v>4545800</v>
       </c>
       <c r="F76" s="3">
-        <v>4765400</v>
+        <v>4542500</v>
       </c>
       <c r="G76" s="3">
-        <v>4511300</v>
+        <v>4300300</v>
       </c>
       <c r="H76" s="3">
-        <v>4386600</v>
+        <v>4181400</v>
       </c>
       <c r="I76" s="3">
-        <v>4481000</v>
+        <v>4271400</v>
       </c>
       <c r="J76" s="3">
-        <v>4161500</v>
+        <v>3966900</v>
       </c>
       <c r="K76" s="3">
         <v>3819100</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>187300</v>
+        <v>178600</v>
       </c>
       <c r="E81" s="3">
-        <v>160000</v>
+        <v>152500</v>
       </c>
       <c r="F81" s="3">
-        <v>206600</v>
+        <v>196900</v>
       </c>
       <c r="G81" s="3">
-        <v>91800</v>
+        <v>87500</v>
       </c>
       <c r="H81" s="3">
-        <v>159500</v>
+        <v>152100</v>
       </c>
       <c r="I81" s="3">
-        <v>225700</v>
+        <v>215100</v>
       </c>
       <c r="J81" s="3">
-        <v>356400</v>
+        <v>339800</v>
       </c>
       <c r="K81" s="3">
         <v>183400</v>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3415300</v>
+        <v>4561100</v>
       </c>
       <c r="E8" s="3">
-        <v>3514000</v>
+        <v>3104300</v>
       </c>
       <c r="F8" s="3">
-        <v>4751100</v>
+        <v>3523800</v>
       </c>
       <c r="G8" s="3">
-        <v>3469100</v>
+        <v>3625600</v>
       </c>
       <c r="H8" s="3">
-        <v>4121400</v>
+        <v>4902000</v>
       </c>
       <c r="I8" s="3">
+        <v>3579300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4252300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3953100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4979900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3415800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3553000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2942200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4514600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3020000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3474800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3243000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3967800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2495700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2975500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2851000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3581100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2272600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2599600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2320000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2760300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2715900</v>
+        <v>3570000</v>
       </c>
       <c r="E9" s="3">
-        <v>2816900</v>
+        <v>2431800</v>
       </c>
       <c r="F9" s="3">
-        <v>3816600</v>
+        <v>2802200</v>
       </c>
       <c r="G9" s="3">
-        <v>2795200</v>
+        <v>2906300</v>
       </c>
       <c r="H9" s="3">
-        <v>3292200</v>
+        <v>3937800</v>
       </c>
       <c r="I9" s="3">
+        <v>2883900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3396700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3174300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3887500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2696500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2825000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2375900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3436600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2368100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2697300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2580300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3148700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1987500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2395300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2275800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2803400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1753300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2026800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1782700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2110600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>699400</v>
+        <v>991000</v>
       </c>
       <c r="E10" s="3">
-        <v>697200</v>
+        <v>672600</v>
       </c>
       <c r="F10" s="3">
-        <v>934500</v>
+        <v>721600</v>
       </c>
       <c r="G10" s="3">
-        <v>673900</v>
+        <v>719300</v>
       </c>
       <c r="H10" s="3">
-        <v>829200</v>
+        <v>964200</v>
       </c>
       <c r="I10" s="3">
+        <v>695300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>855500</v>
+      </c>
+      <c r="K10" s="3">
         <v>778800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1092400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>719300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>727900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>566300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1078000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>652000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>777500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>662700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>819100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>508300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>580200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>575300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>777700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>519400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>572800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>537300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>649700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,108 +1219,120 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>4900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>30200</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5000</v>
-      </c>
       <c r="H14" s="3">
-        <v>22500</v>
+        <v>31200</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="J14" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>49600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>12900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>3100</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>4400</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>15300</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1301,47 +1346,53 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>100</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
         <v>6300</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>12500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>12500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>12700</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3245700</v>
+        <v>4205600</v>
       </c>
       <c r="E17" s="3">
-        <v>3335500</v>
+        <v>2942400</v>
       </c>
       <c r="F17" s="3">
-        <v>4526600</v>
+        <v>3348800</v>
       </c>
       <c r="G17" s="3">
-        <v>3366800</v>
+        <v>3441400</v>
       </c>
       <c r="H17" s="3">
-        <v>3939200</v>
+        <v>4670400</v>
       </c>
       <c r="I17" s="3">
+        <v>3473700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4064300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3742700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4624700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3231900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3370200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2820500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4247900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2852800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3327300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3111700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3818200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2446100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2918100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2756000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3465300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2221400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2550100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2237600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2643200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>169600</v>
+        <v>355400</v>
       </c>
       <c r="E18" s="3">
-        <v>178500</v>
+        <v>162000</v>
       </c>
       <c r="F18" s="3">
-        <v>224500</v>
+        <v>175000</v>
       </c>
       <c r="G18" s="3">
-        <v>102300</v>
+        <v>184200</v>
       </c>
       <c r="H18" s="3">
-        <v>182200</v>
+        <v>231600</v>
       </c>
       <c r="I18" s="3">
+        <v>105500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K18" s="3">
         <v>210400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>355200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>183900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>182700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>121700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>266600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>167200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>147500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>131300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>149600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>49600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>57400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>95100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>115800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>51200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>49600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>82500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>117100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1614,93 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55700</v>
+        <v>88400</v>
       </c>
       <c r="E20" s="3">
-        <v>21300</v>
+        <v>119100</v>
       </c>
       <c r="F20" s="3">
-        <v>35200</v>
+        <v>57400</v>
       </c>
       <c r="G20" s="3">
-        <v>20900</v>
+        <v>22000</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>36300</v>
       </c>
       <c r="I20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K20" s="3">
         <v>39300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>35900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>29800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>93900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>13400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>37000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>6200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>64700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>12500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>34600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>26900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>30400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,239 +1776,263 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>2800</v>
       </c>
       <c r="X22" s="3">
         <v>2900</v>
       </c>
       <c r="Y22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA22" s="3">
         <v>3700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>3000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>224400</v>
+        <v>443300</v>
       </c>
       <c r="E23" s="3">
-        <v>199200</v>
+        <v>279800</v>
       </c>
       <c r="F23" s="3">
-        <v>259000</v>
+        <v>231500</v>
       </c>
       <c r="G23" s="3">
-        <v>122600</v>
+        <v>205500</v>
       </c>
       <c r="H23" s="3">
-        <v>186900</v>
+        <v>267200</v>
       </c>
       <c r="I23" s="3">
+        <v>126400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>192800</v>
+      </c>
+      <c r="K23" s="3">
         <v>249200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>390200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>213100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>273600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>143100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>265000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>170400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>159000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>163400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>150000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>44600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>116500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>90400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>125400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>62500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>81300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>105700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>144500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41300</v>
+        <v>129800</v>
       </c>
       <c r="E24" s="3">
-        <v>40600</v>
+        <v>38300</v>
       </c>
       <c r="F24" s="3">
-        <v>54400</v>
+        <v>42600</v>
       </c>
       <c r="G24" s="3">
-        <v>29600</v>
+        <v>41900</v>
       </c>
       <c r="H24" s="3">
-        <v>43500</v>
+        <v>56100</v>
       </c>
       <c r="I24" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K24" s="3">
         <v>42700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>53500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>36500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>47900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>27000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>48300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>32700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>32600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>37100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>35300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>14400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>15300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>28000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>15100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>25200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>24100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>30100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>183000</v>
+        <v>313500</v>
       </c>
       <c r="E26" s="3">
-        <v>158600</v>
+        <v>241500</v>
       </c>
       <c r="F26" s="3">
-        <v>204600</v>
+        <v>188900</v>
       </c>
       <c r="G26" s="3">
-        <v>93000</v>
+        <v>163600</v>
       </c>
       <c r="H26" s="3">
-        <v>143300</v>
+        <v>211100</v>
       </c>
       <c r="I26" s="3">
+        <v>96000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>147900</v>
+      </c>
+      <c r="K26" s="3">
         <v>206400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>336600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>176500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>225700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>116100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>216700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>137700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>126400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>126300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>114700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>30200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>98500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>75200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>97400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>47400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>56100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>81600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>114400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>178600</v>
+        <v>320800</v>
       </c>
       <c r="E27" s="3">
-        <v>152500</v>
+        <v>242200</v>
       </c>
       <c r="F27" s="3">
-        <v>196900</v>
+        <v>184200</v>
       </c>
       <c r="G27" s="3">
-        <v>87500</v>
+        <v>157400</v>
       </c>
       <c r="H27" s="3">
-        <v>152100</v>
+        <v>203200</v>
       </c>
       <c r="I27" s="3">
+        <v>90200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K27" s="3">
         <v>215100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>339800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>183400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>226500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>107200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>224100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>134800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>124300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>132700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>104800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>32000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>97800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>76000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>99900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>50200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>57400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>80300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>111700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55700</v>
+        <v>-88400</v>
       </c>
       <c r="E32" s="3">
-        <v>-21300</v>
+        <v>-119100</v>
       </c>
       <c r="F32" s="3">
-        <v>-35200</v>
+        <v>-57400</v>
       </c>
       <c r="G32" s="3">
-        <v>-20900</v>
+        <v>-22000</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-36300</v>
       </c>
       <c r="I32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-39300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-35900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-29800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-93900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-37000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-6200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-64700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-12500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-26900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-30400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>178600</v>
+        <v>320800</v>
       </c>
       <c r="E33" s="3">
-        <v>152500</v>
+        <v>242200</v>
       </c>
       <c r="F33" s="3">
-        <v>196900</v>
+        <v>184200</v>
       </c>
       <c r="G33" s="3">
-        <v>87500</v>
+        <v>157400</v>
       </c>
       <c r="H33" s="3">
-        <v>152100</v>
+        <v>203200</v>
       </c>
       <c r="I33" s="3">
+        <v>90200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K33" s="3">
         <v>215100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>339800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>183400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>226500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>107200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>224100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>134800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>124300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>132700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>104800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>32000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>97800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>76000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>99900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>50200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>57400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>80300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>111700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>178600</v>
+        <v>320800</v>
       </c>
       <c r="E35" s="3">
-        <v>152500</v>
+        <v>242200</v>
       </c>
       <c r="F35" s="3">
-        <v>196900</v>
+        <v>184200</v>
       </c>
       <c r="G35" s="3">
-        <v>87500</v>
+        <v>157400</v>
       </c>
       <c r="H35" s="3">
-        <v>152100</v>
+        <v>203200</v>
       </c>
       <c r="I35" s="3">
+        <v>90200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K35" s="3">
         <v>215100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>339800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>183400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>226500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>107200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>224100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>134800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>124300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>132700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>104800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>32000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>97800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>76000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>99900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>50200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>57400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>80300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>111700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2267400</v>
+        <v>3150800</v>
       </c>
       <c r="E41" s="3">
-        <v>1899800</v>
+        <v>2139900</v>
       </c>
       <c r="F41" s="3">
-        <v>2268600</v>
+        <v>2339400</v>
       </c>
       <c r="G41" s="3">
-        <v>1744100</v>
+        <v>1960100</v>
       </c>
       <c r="H41" s="3">
-        <v>2180800</v>
+        <v>2340600</v>
       </c>
       <c r="I41" s="3">
+        <v>1799400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2250100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2009400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1669800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1309100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1089700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>770000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1012200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>882000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1044600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>882300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1451300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>864900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>868200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1005500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1480200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>544000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>615700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>645000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>597700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>573800</v>
+        <v>229200</v>
       </c>
       <c r="E42" s="3">
-        <v>698700</v>
+        <v>488300</v>
       </c>
       <c r="F42" s="3">
-        <v>749100</v>
+        <v>592000</v>
       </c>
       <c r="G42" s="3">
-        <v>510600</v>
+        <v>720900</v>
       </c>
       <c r="H42" s="3">
-        <v>507100</v>
+        <v>772900</v>
       </c>
       <c r="I42" s="3">
+        <v>526800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K42" s="3">
         <v>518200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1020200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>729000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>875300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>536100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>470100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>8900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>36400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>6100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>353100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>266200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>296900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>259300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>36500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>34200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>50900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>108500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>97700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>479700</v>
+        <v>505400</v>
       </c>
       <c r="E43" s="3">
-        <v>498500</v>
+        <v>451800</v>
       </c>
       <c r="F43" s="3">
-        <v>476600</v>
+        <v>495000</v>
       </c>
       <c r="G43" s="3">
+        <v>514300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>491700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>431400</v>
+      </c>
+      <c r="J43" s="3">
         <v>418100</v>
       </c>
-      <c r="H43" s="3">
-        <v>405200</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>409700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>415100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>461200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>511000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>640200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1657700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1134500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1183100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1460000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1173000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1280600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1171200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1258200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>941600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>845400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>717900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>673000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>723500</v>
+        <v>792200</v>
       </c>
       <c r="E44" s="3">
-        <v>728900</v>
+        <v>669500</v>
       </c>
       <c r="F44" s="3">
-        <v>955600</v>
+        <v>746500</v>
       </c>
       <c r="G44" s="3">
-        <v>851500</v>
+        <v>752000</v>
       </c>
       <c r="H44" s="3">
-        <v>827000</v>
+        <v>986000</v>
       </c>
       <c r="I44" s="3">
+        <v>878500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>853300</v>
+      </c>
+      <c r="K44" s="3">
         <v>810000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1063800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>946100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>849500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>800400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1186900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>82700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>685900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>610700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>816600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>599500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>658600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>729100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1033000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>644300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>551600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>525900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>719700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>147300</v>
+        <v>167300</v>
       </c>
       <c r="E45" s="3">
-        <v>91500</v>
+        <v>185600</v>
       </c>
       <c r="F45" s="3">
-        <v>121600</v>
+        <v>152000</v>
       </c>
       <c r="G45" s="3">
-        <v>88000</v>
+        <v>94400</v>
       </c>
       <c r="H45" s="3">
-        <v>113900</v>
+        <v>125500</v>
       </c>
       <c r="I45" s="3">
+        <v>90800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K45" s="3">
         <v>93500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>170500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>104700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>103800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>138100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>176400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>139300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>152100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>75600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>75700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>49600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>53900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>50000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>38300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>6400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>8900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>32500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4191700</v>
+        <v>4844900</v>
       </c>
       <c r="E46" s="3">
-        <v>3917300</v>
+        <v>3935100</v>
       </c>
       <c r="F46" s="3">
-        <v>4571600</v>
+        <v>4324800</v>
       </c>
       <c r="G46" s="3">
-        <v>3612300</v>
+        <v>4041700</v>
       </c>
       <c r="H46" s="3">
-        <v>4034000</v>
+        <v>4716800</v>
       </c>
       <c r="I46" s="3">
+        <v>3727000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4162100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3840800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4339300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3550100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3429400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2884700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3545900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2770600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3053400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2757900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4156800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2953200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3158200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3215200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3846200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2170400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2072600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1998100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2120500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>695500</v>
+        <v>692700</v>
       </c>
       <c r="E47" s="3">
-        <v>675800</v>
+        <v>796400</v>
       </c>
       <c r="F47" s="3">
-        <v>690400</v>
+        <v>717500</v>
       </c>
       <c r="G47" s="3">
-        <v>693800</v>
+        <v>697200</v>
       </c>
       <c r="H47" s="3">
-        <v>702300</v>
+        <v>712300</v>
       </c>
       <c r="I47" s="3">
+        <v>715800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>724600</v>
+      </c>
+      <c r="K47" s="3">
         <v>695900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>669700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>717500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>690000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>836500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>803400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>800000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>383100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>364700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>325200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>263700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>260300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>83900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>89100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>94200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>93500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>147400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>146000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2169900</v>
+        <v>2458400</v>
       </c>
       <c r="E48" s="3">
-        <v>2171500</v>
+        <v>2299600</v>
       </c>
       <c r="F48" s="3">
-        <v>2161100</v>
+        <v>2238700</v>
       </c>
       <c r="G48" s="3">
-        <v>2142100</v>
+        <v>2240500</v>
       </c>
       <c r="H48" s="3">
-        <v>2127100</v>
+        <v>2229700</v>
       </c>
       <c r="I48" s="3">
+        <v>2210100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2194600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2092300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2111000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2241600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2119000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2031700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1997500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1845300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1555700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1407900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1297800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1072900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1018600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>961500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>988500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>914400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>817800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>671000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>649700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>129100</v>
+        <v>156800</v>
       </c>
       <c r="E49" s="3">
-        <v>129300</v>
+        <v>133100</v>
       </c>
       <c r="F49" s="3">
-        <v>126700</v>
+        <v>133200</v>
       </c>
       <c r="G49" s="3">
-        <v>127300</v>
+        <v>133400</v>
       </c>
       <c r="H49" s="3">
-        <v>127300</v>
+        <v>130700</v>
       </c>
       <c r="I49" s="3">
+        <v>131400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K49" s="3">
         <v>128100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>129000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>139700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>107600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>86600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>88400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>111200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>108100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>109400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>109600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>100900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>103600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>103700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>114000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>126400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>139000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>148500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>158800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1161500</v>
+        <v>1250800</v>
       </c>
       <c r="E52" s="3">
-        <v>1051000</v>
+        <v>1181700</v>
       </c>
       <c r="F52" s="3">
-        <v>1120700</v>
+        <v>1198400</v>
       </c>
       <c r="G52" s="3">
-        <v>1080500</v>
+        <v>1084400</v>
       </c>
       <c r="H52" s="3">
-        <v>1015100</v>
+        <v>1156200</v>
       </c>
       <c r="I52" s="3">
+        <v>1114800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1047300</v>
+      </c>
+      <c r="K52" s="3">
         <v>975000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>955600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1049300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1037200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1059000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1045600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>999000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>893800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>870200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>737400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>670300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>644100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>648800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>599200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>590200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>602000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>628200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>574400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8347700</v>
+        <v>9403600</v>
       </c>
       <c r="E54" s="3">
-        <v>7944900</v>
+        <v>8346000</v>
       </c>
       <c r="F54" s="3">
-        <v>8670400</v>
+        <v>8612800</v>
       </c>
       <c r="G54" s="3">
-        <v>7656000</v>
+        <v>8197100</v>
       </c>
       <c r="H54" s="3">
-        <v>8005800</v>
+        <v>8945700</v>
       </c>
       <c r="I54" s="3">
+        <v>7899100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8260000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7732100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8204600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7698200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7383200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6898400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7480800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6526100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5994100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5510100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6626800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5060900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5184800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5013200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5637000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3895700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3724800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3593200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3649500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,316 +4316,342 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1711300</v>
+        <v>2156900</v>
       </c>
       <c r="E57" s="3">
-        <v>1434300</v>
+        <v>1560100</v>
       </c>
       <c r="F57" s="3">
-        <v>1829800</v>
+        <v>1765600</v>
       </c>
       <c r="G57" s="3">
-        <v>1366600</v>
+        <v>1479800</v>
       </c>
       <c r="H57" s="3">
-        <v>1710700</v>
+        <v>1887900</v>
       </c>
       <c r="I57" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1765100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1501800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2114600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1683100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1753900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1452800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2123700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1566300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1644200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1451300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1769200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>969900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1206500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1373100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1698600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1252000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1209800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1139500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1212000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>247600</v>
+        <v>386000</v>
       </c>
       <c r="E58" s="3">
-        <v>268500</v>
+        <v>194500</v>
       </c>
       <c r="F58" s="3">
-        <v>274900</v>
+        <v>255400</v>
       </c>
       <c r="G58" s="3">
-        <v>250800</v>
+        <v>277000</v>
       </c>
       <c r="H58" s="3">
-        <v>272800</v>
+        <v>283700</v>
       </c>
       <c r="I58" s="3">
+        <v>258800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>281400</v>
+      </c>
+      <c r="K58" s="3">
         <v>17000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>145200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>299900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>272700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>291200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>168400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>236700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>172900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>147400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1010000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>979100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>950500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>742300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>247400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>124500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>42700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>41400</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1285000</v>
+        <v>1554000</v>
       </c>
       <c r="E59" s="3">
-        <v>1231600</v>
+        <v>1277700</v>
       </c>
       <c r="F59" s="3">
-        <v>1482600</v>
+        <v>1325800</v>
       </c>
       <c r="G59" s="3">
-        <v>1216200</v>
+        <v>1270700</v>
       </c>
       <c r="H59" s="3">
-        <v>1306500</v>
+        <v>1529700</v>
       </c>
       <c r="I59" s="3">
+        <v>1254800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1406100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1438500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1314600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1161100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1107600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1391900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1196000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1040800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1004800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1167700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>688800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>678100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>678100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>912000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>699500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>724200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>778600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>908900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3243900</v>
+        <v>4096900</v>
       </c>
       <c r="E60" s="3">
-        <v>2934400</v>
+        <v>3032300</v>
       </c>
       <c r="F60" s="3">
-        <v>3587300</v>
+        <v>3346900</v>
       </c>
       <c r="G60" s="3">
-        <v>2833600</v>
+        <v>3027600</v>
       </c>
       <c r="H60" s="3">
-        <v>3290100</v>
+        <v>3701200</v>
       </c>
       <c r="I60" s="3">
+        <v>2923600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3394500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2924900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3698400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3297600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3187700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2851700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3684100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2998900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2857900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2603600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3946900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2637800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2835000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2793500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2858000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2076000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1976700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1959500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2120900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4392,135 +4677,147 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>29200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>29200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>41100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>52400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>69100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>607700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>621500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>633200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>631500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>637200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>348200</v>
+        <v>413100</v>
       </c>
       <c r="E62" s="3">
-        <v>301000</v>
+        <v>422900</v>
       </c>
       <c r="F62" s="3">
-        <v>374200</v>
+        <v>359200</v>
       </c>
       <c r="G62" s="3">
-        <v>382300</v>
+        <v>310500</v>
       </c>
       <c r="H62" s="3">
-        <v>395900</v>
+        <v>386100</v>
       </c>
       <c r="I62" s="3">
+        <v>394400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>408500</v>
+      </c>
+      <c r="K62" s="3">
         <v>402100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>415700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>444400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>455800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>381100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>360700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>286500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>187500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>125600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>61700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>53900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>55600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>52700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>56300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>52500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>55100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>48500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>50500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3774600</v>
+        <v>4699700</v>
       </c>
       <c r="E66" s="3">
-        <v>3399100</v>
+        <v>3644600</v>
       </c>
       <c r="F66" s="3">
-        <v>4127900</v>
+        <v>3894400</v>
       </c>
       <c r="G66" s="3">
-        <v>3355600</v>
+        <v>3507000</v>
       </c>
       <c r="H66" s="3">
-        <v>3824400</v>
+        <v>4259000</v>
       </c>
       <c r="I66" s="3">
+        <v>3462200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3945800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3460700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4237700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3879100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3778100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3348600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4119800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3377700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3039400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2722400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4000900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2753700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2883700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2839200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3515600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2745200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2663200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2645500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2815900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3452200</v>
+        <v>4124800</v>
       </c>
       <c r="E72" s="3">
-        <v>3273600</v>
+        <v>3804000</v>
       </c>
       <c r="F72" s="3">
-        <v>3121100</v>
+        <v>3561800</v>
       </c>
       <c r="G72" s="3">
-        <v>2924100</v>
+        <v>3377500</v>
       </c>
       <c r="H72" s="3">
-        <v>2836700</v>
+        <v>3220200</v>
       </c>
       <c r="I72" s="3">
+        <v>3017000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2926700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2684600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2469500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2254500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2071200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1959900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1836100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1612000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1465600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1335600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1202900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1010400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1003000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>905200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>831500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>731600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>681400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>611500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>531300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4573100</v>
+        <v>4703800</v>
       </c>
       <c r="E76" s="3">
-        <v>4545800</v>
+        <v>4701400</v>
       </c>
       <c r="F76" s="3">
-        <v>4542500</v>
+        <v>4718300</v>
       </c>
       <c r="G76" s="3">
-        <v>4300300</v>
+        <v>4690100</v>
       </c>
       <c r="H76" s="3">
-        <v>4181400</v>
+        <v>4686700</v>
       </c>
       <c r="I76" s="3">
+        <v>4436900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4314200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4271400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3966900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3819100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3605000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3549800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3360900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3148400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2954700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2787600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2625900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2307200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2301100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2174000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2121400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1150500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1061600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>947600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>833600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>178600</v>
+        <v>320800</v>
       </c>
       <c r="E81" s="3">
-        <v>152500</v>
+        <v>242200</v>
       </c>
       <c r="F81" s="3">
-        <v>196900</v>
+        <v>184200</v>
       </c>
       <c r="G81" s="3">
-        <v>87500</v>
+        <v>157400</v>
       </c>
       <c r="H81" s="3">
-        <v>152100</v>
+        <v>203200</v>
       </c>
       <c r="I81" s="3">
+        <v>90200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K81" s="3">
         <v>215100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>339800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>183400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>226500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>107200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>224100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>134800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>124300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>132700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>104800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>32000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>97800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>76000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>99900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>50200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>57400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>80300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>111700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6786,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7595,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7678,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7759,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4561100</v>
+        <v>4514400</v>
       </c>
       <c r="E8" s="3">
-        <v>3104300</v>
+        <v>3072600</v>
       </c>
       <c r="F8" s="3">
-        <v>3523800</v>
+        <v>3487700</v>
       </c>
       <c r="G8" s="3">
-        <v>3625600</v>
+        <v>3588500</v>
       </c>
       <c r="H8" s="3">
-        <v>4902000</v>
+        <v>4851800</v>
       </c>
       <c r="I8" s="3">
-        <v>3579300</v>
+        <v>3542600</v>
       </c>
       <c r="J8" s="3">
-        <v>4252300</v>
+        <v>4208700</v>
       </c>
       <c r="K8" s="3">
         <v>3953100</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3570000</v>
+        <v>3533500</v>
       </c>
       <c r="E9" s="3">
-        <v>2431800</v>
+        <v>2406900</v>
       </c>
       <c r="F9" s="3">
-        <v>2802200</v>
+        <v>2773500</v>
       </c>
       <c r="G9" s="3">
-        <v>2906300</v>
+        <v>2876600</v>
       </c>
       <c r="H9" s="3">
-        <v>3937800</v>
+        <v>3897500</v>
       </c>
       <c r="I9" s="3">
-        <v>2883900</v>
+        <v>2854400</v>
       </c>
       <c r="J9" s="3">
-        <v>3396700</v>
+        <v>3362000</v>
       </c>
       <c r="K9" s="3">
         <v>3174300</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>991000</v>
+        <v>980900</v>
       </c>
       <c r="E10" s="3">
-        <v>672600</v>
+        <v>665700</v>
       </c>
       <c r="F10" s="3">
-        <v>721600</v>
+        <v>714200</v>
       </c>
       <c r="G10" s="3">
-        <v>719300</v>
+        <v>712000</v>
       </c>
       <c r="H10" s="3">
-        <v>964200</v>
+        <v>954300</v>
       </c>
       <c r="I10" s="3">
-        <v>695300</v>
+        <v>688200</v>
       </c>
       <c r="J10" s="3">
-        <v>855500</v>
+        <v>846800</v>
       </c>
       <c r="K10" s="3">
         <v>778800</v>
@@ -1237,19 +1237,19 @@
         <v>1400</v>
       </c>
       <c r="F14" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="I14" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1425,25 +1425,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4205600</v>
+        <v>4162600</v>
       </c>
       <c r="E17" s="3">
-        <v>2942400</v>
+        <v>2912300</v>
       </c>
       <c r="F17" s="3">
-        <v>3348800</v>
+        <v>3314500</v>
       </c>
       <c r="G17" s="3">
-        <v>3441400</v>
+        <v>3406200</v>
       </c>
       <c r="H17" s="3">
-        <v>4670400</v>
+        <v>4622600</v>
       </c>
       <c r="I17" s="3">
-        <v>3473700</v>
+        <v>3438200</v>
       </c>
       <c r="J17" s="3">
-        <v>4064300</v>
+        <v>4022700</v>
       </c>
       <c r="K17" s="3">
         <v>3742700</v>
@@ -1508,25 +1508,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>355400</v>
+        <v>351800</v>
       </c>
       <c r="E18" s="3">
-        <v>162000</v>
+        <v>160300</v>
       </c>
       <c r="F18" s="3">
-        <v>175000</v>
+        <v>173200</v>
       </c>
       <c r="G18" s="3">
-        <v>184200</v>
+        <v>182300</v>
       </c>
       <c r="H18" s="3">
-        <v>231600</v>
+        <v>229200</v>
       </c>
       <c r="I18" s="3">
-        <v>105500</v>
+        <v>104400</v>
       </c>
       <c r="J18" s="3">
-        <v>188000</v>
+        <v>186000</v>
       </c>
       <c r="K18" s="3">
         <v>210400</v>
@@ -1622,25 +1622,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>88400</v>
+        <v>87500</v>
       </c>
       <c r="E20" s="3">
-        <v>119100</v>
+        <v>117800</v>
       </c>
       <c r="F20" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="G20" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="H20" s="3">
-        <v>36300</v>
+        <v>35900</v>
       </c>
       <c r="I20" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="J20" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K20" s="3">
         <v>39300</v>
@@ -1791,7 +1791,7 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>443300</v>
+        <v>438700</v>
       </c>
       <c r="E23" s="3">
-        <v>279800</v>
+        <v>276900</v>
       </c>
       <c r="F23" s="3">
-        <v>231500</v>
+        <v>229100</v>
       </c>
       <c r="G23" s="3">
-        <v>205500</v>
+        <v>203400</v>
       </c>
       <c r="H23" s="3">
-        <v>267200</v>
+        <v>264500</v>
       </c>
       <c r="I23" s="3">
-        <v>126400</v>
+        <v>125200</v>
       </c>
       <c r="J23" s="3">
-        <v>192800</v>
+        <v>190800</v>
       </c>
       <c r="K23" s="3">
         <v>249200</v>
@@ -1954,25 +1954,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>129800</v>
+        <v>128500</v>
       </c>
       <c r="E24" s="3">
-        <v>38300</v>
+        <v>37900</v>
       </c>
       <c r="F24" s="3">
-        <v>42600</v>
+        <v>42200</v>
       </c>
       <c r="G24" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="H24" s="3">
-        <v>56100</v>
+        <v>55500</v>
       </c>
       <c r="I24" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="J24" s="3">
-        <v>44900</v>
+        <v>44500</v>
       </c>
       <c r="K24" s="3">
         <v>42700</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>313500</v>
+        <v>310300</v>
       </c>
       <c r="E26" s="3">
-        <v>241500</v>
+        <v>239100</v>
       </c>
       <c r="F26" s="3">
-        <v>188900</v>
+        <v>186900</v>
       </c>
       <c r="G26" s="3">
-        <v>163600</v>
+        <v>161900</v>
       </c>
       <c r="H26" s="3">
-        <v>211100</v>
+        <v>208900</v>
       </c>
       <c r="I26" s="3">
-        <v>96000</v>
+        <v>95000</v>
       </c>
       <c r="J26" s="3">
-        <v>147900</v>
+        <v>146400</v>
       </c>
       <c r="K26" s="3">
         <v>206400</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>320800</v>
+        <v>317500</v>
       </c>
       <c r="E27" s="3">
-        <v>242200</v>
+        <v>239700</v>
       </c>
       <c r="F27" s="3">
-        <v>184200</v>
+        <v>182400</v>
       </c>
       <c r="G27" s="3">
-        <v>157400</v>
+        <v>155700</v>
       </c>
       <c r="H27" s="3">
-        <v>203200</v>
+        <v>201100</v>
       </c>
       <c r="I27" s="3">
-        <v>90200</v>
+        <v>89300</v>
       </c>
       <c r="J27" s="3">
-        <v>156900</v>
+        <v>155300</v>
       </c>
       <c r="K27" s="3">
         <v>215100</v>
@@ -2618,25 +2618,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-88400</v>
+        <v>-87500</v>
       </c>
       <c r="E32" s="3">
-        <v>-119100</v>
+        <v>-117800</v>
       </c>
       <c r="F32" s="3">
-        <v>-57400</v>
+        <v>-56800</v>
       </c>
       <c r="G32" s="3">
-        <v>-22000</v>
+        <v>-21800</v>
       </c>
       <c r="H32" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="I32" s="3">
-        <v>-21500</v>
+        <v>-21300</v>
       </c>
       <c r="J32" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="K32" s="3">
         <v>-39300</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>320800</v>
+        <v>317500</v>
       </c>
       <c r="E33" s="3">
-        <v>242200</v>
+        <v>239700</v>
       </c>
       <c r="F33" s="3">
-        <v>184200</v>
+        <v>182400</v>
       </c>
       <c r="G33" s="3">
-        <v>157400</v>
+        <v>155700</v>
       </c>
       <c r="H33" s="3">
-        <v>203200</v>
+        <v>201100</v>
       </c>
       <c r="I33" s="3">
-        <v>90200</v>
+        <v>89300</v>
       </c>
       <c r="J33" s="3">
-        <v>156900</v>
+        <v>155300</v>
       </c>
       <c r="K33" s="3">
         <v>215100</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>320800</v>
+        <v>317500</v>
       </c>
       <c r="E35" s="3">
-        <v>242200</v>
+        <v>239700</v>
       </c>
       <c r="F35" s="3">
-        <v>184200</v>
+        <v>182400</v>
       </c>
       <c r="G35" s="3">
-        <v>157400</v>
+        <v>155700</v>
       </c>
       <c r="H35" s="3">
-        <v>203200</v>
+        <v>201100</v>
       </c>
       <c r="I35" s="3">
-        <v>90200</v>
+        <v>89300</v>
       </c>
       <c r="J35" s="3">
-        <v>156900</v>
+        <v>155300</v>
       </c>
       <c r="K35" s="3">
         <v>215100</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3150800</v>
+        <v>3118600</v>
       </c>
       <c r="E41" s="3">
-        <v>2139900</v>
+        <v>2118000</v>
       </c>
       <c r="F41" s="3">
-        <v>2339400</v>
+        <v>2315500</v>
       </c>
       <c r="G41" s="3">
-        <v>1960100</v>
+        <v>1940100</v>
       </c>
       <c r="H41" s="3">
-        <v>2340600</v>
+        <v>2316700</v>
       </c>
       <c r="I41" s="3">
-        <v>1799400</v>
+        <v>1781000</v>
       </c>
       <c r="J41" s="3">
-        <v>2250100</v>
+        <v>2227000</v>
       </c>
       <c r="K41" s="3">
         <v>2009400</v>
@@ -3183,25 +3183,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>229200</v>
+        <v>226900</v>
       </c>
       <c r="E42" s="3">
-        <v>488300</v>
+        <v>483300</v>
       </c>
       <c r="F42" s="3">
-        <v>592000</v>
+        <v>585900</v>
       </c>
       <c r="G42" s="3">
-        <v>720900</v>
+        <v>713500</v>
       </c>
       <c r="H42" s="3">
-        <v>772900</v>
+        <v>765000</v>
       </c>
       <c r="I42" s="3">
-        <v>526800</v>
+        <v>521500</v>
       </c>
       <c r="J42" s="3">
-        <v>523200</v>
+        <v>517800</v>
       </c>
       <c r="K42" s="3">
         <v>518200</v>
@@ -3266,25 +3266,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>505400</v>
+        <v>500300</v>
       </c>
       <c r="E43" s="3">
-        <v>451800</v>
+        <v>447200</v>
       </c>
       <c r="F43" s="3">
-        <v>495000</v>
+        <v>489900</v>
       </c>
       <c r="G43" s="3">
-        <v>514300</v>
+        <v>509000</v>
       </c>
       <c r="H43" s="3">
-        <v>491700</v>
+        <v>486700</v>
       </c>
       <c r="I43" s="3">
-        <v>431400</v>
+        <v>427000</v>
       </c>
       <c r="J43" s="3">
-        <v>418100</v>
+        <v>413800</v>
       </c>
       <c r="K43" s="3">
         <v>409700</v>
@@ -3349,25 +3349,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>792200</v>
+        <v>784100</v>
       </c>
       <c r="E44" s="3">
-        <v>669500</v>
+        <v>662600</v>
       </c>
       <c r="F44" s="3">
-        <v>746500</v>
+        <v>738800</v>
       </c>
       <c r="G44" s="3">
-        <v>752000</v>
+        <v>744300</v>
       </c>
       <c r="H44" s="3">
-        <v>986000</v>
+        <v>975900</v>
       </c>
       <c r="I44" s="3">
-        <v>878500</v>
+        <v>869500</v>
       </c>
       <c r="J44" s="3">
-        <v>853300</v>
+        <v>844500</v>
       </c>
       <c r="K44" s="3">
         <v>810000</v>
@@ -3432,25 +3432,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>167300</v>
+        <v>165600</v>
       </c>
       <c r="E45" s="3">
-        <v>185600</v>
+        <v>183700</v>
       </c>
       <c r="F45" s="3">
-        <v>152000</v>
+        <v>150400</v>
       </c>
       <c r="G45" s="3">
-        <v>94400</v>
+        <v>93400</v>
       </c>
       <c r="H45" s="3">
-        <v>125500</v>
+        <v>124200</v>
       </c>
       <c r="I45" s="3">
-        <v>90800</v>
+        <v>89900</v>
       </c>
       <c r="J45" s="3">
-        <v>117500</v>
+        <v>116300</v>
       </c>
       <c r="K45" s="3">
         <v>93500</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4844900</v>
+        <v>4795300</v>
       </c>
       <c r="E46" s="3">
-        <v>3935100</v>
+        <v>3894800</v>
       </c>
       <c r="F46" s="3">
-        <v>4324800</v>
+        <v>4280600</v>
       </c>
       <c r="G46" s="3">
-        <v>4041700</v>
+        <v>4000300</v>
       </c>
       <c r="H46" s="3">
-        <v>4716800</v>
+        <v>4668500</v>
       </c>
       <c r="I46" s="3">
-        <v>3727000</v>
+        <v>3688800</v>
       </c>
       <c r="J46" s="3">
-        <v>4162100</v>
+        <v>4119500</v>
       </c>
       <c r="K46" s="3">
         <v>3840800</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>692700</v>
+        <v>685600</v>
       </c>
       <c r="E47" s="3">
-        <v>796400</v>
+        <v>788300</v>
       </c>
       <c r="F47" s="3">
-        <v>717500</v>
+        <v>710200</v>
       </c>
       <c r="G47" s="3">
-        <v>697200</v>
+        <v>690100</v>
       </c>
       <c r="H47" s="3">
-        <v>712300</v>
+        <v>705000</v>
       </c>
       <c r="I47" s="3">
-        <v>715800</v>
+        <v>708500</v>
       </c>
       <c r="J47" s="3">
-        <v>724600</v>
+        <v>717200</v>
       </c>
       <c r="K47" s="3">
         <v>695900</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2458400</v>
+        <v>2433200</v>
       </c>
       <c r="E48" s="3">
-        <v>2299600</v>
+        <v>2276100</v>
       </c>
       <c r="F48" s="3">
-        <v>2238700</v>
+        <v>2215800</v>
       </c>
       <c r="G48" s="3">
-        <v>2240500</v>
+        <v>2217500</v>
       </c>
       <c r="H48" s="3">
-        <v>2229700</v>
+        <v>2206900</v>
       </c>
       <c r="I48" s="3">
-        <v>2210100</v>
+        <v>2187500</v>
       </c>
       <c r="J48" s="3">
-        <v>2194600</v>
+        <v>2172100</v>
       </c>
       <c r="K48" s="3">
         <v>2092300</v>
@@ -3764,25 +3764,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>156800</v>
+        <v>155200</v>
       </c>
       <c r="E49" s="3">
-        <v>133100</v>
+        <v>131700</v>
       </c>
       <c r="F49" s="3">
-        <v>133200</v>
+        <v>131900</v>
       </c>
       <c r="G49" s="3">
-        <v>133400</v>
+        <v>132000</v>
       </c>
       <c r="H49" s="3">
-        <v>130700</v>
+        <v>129400</v>
       </c>
       <c r="I49" s="3">
-        <v>131400</v>
+        <v>130000</v>
       </c>
       <c r="J49" s="3">
-        <v>131400</v>
+        <v>130000</v>
       </c>
       <c r="K49" s="3">
         <v>128100</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1250800</v>
+        <v>1237900</v>
       </c>
       <c r="E52" s="3">
-        <v>1181700</v>
+        <v>1169600</v>
       </c>
       <c r="F52" s="3">
-        <v>1198400</v>
+        <v>1186200</v>
       </c>
       <c r="G52" s="3">
-        <v>1084400</v>
+        <v>1073300</v>
       </c>
       <c r="H52" s="3">
-        <v>1156200</v>
+        <v>1144400</v>
       </c>
       <c r="I52" s="3">
-        <v>1114800</v>
+        <v>1103400</v>
       </c>
       <c r="J52" s="3">
-        <v>1047300</v>
+        <v>1036600</v>
       </c>
       <c r="K52" s="3">
         <v>975000</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9403600</v>
+        <v>9307300</v>
       </c>
       <c r="E54" s="3">
-        <v>8346000</v>
+        <v>8260500</v>
       </c>
       <c r="F54" s="3">
-        <v>8612800</v>
+        <v>8524600</v>
       </c>
       <c r="G54" s="3">
-        <v>8197100</v>
+        <v>8113200</v>
       </c>
       <c r="H54" s="3">
-        <v>8945700</v>
+        <v>8854200</v>
       </c>
       <c r="I54" s="3">
-        <v>7899100</v>
+        <v>7818200</v>
       </c>
       <c r="J54" s="3">
-        <v>8260000</v>
+        <v>8175500</v>
       </c>
       <c r="K54" s="3">
         <v>7732100</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2156900</v>
+        <v>2134800</v>
       </c>
       <c r="E57" s="3">
-        <v>1560100</v>
+        <v>1544100</v>
       </c>
       <c r="F57" s="3">
-        <v>1765600</v>
+        <v>1747500</v>
       </c>
       <c r="G57" s="3">
-        <v>1479800</v>
+        <v>1464600</v>
       </c>
       <c r="H57" s="3">
-        <v>1887900</v>
+        <v>1868600</v>
       </c>
       <c r="I57" s="3">
-        <v>1410000</v>
+        <v>1395600</v>
       </c>
       <c r="J57" s="3">
-        <v>1765100</v>
+        <v>1747000</v>
       </c>
       <c r="K57" s="3">
         <v>1501800</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>386000</v>
+        <v>382000</v>
       </c>
       <c r="E58" s="3">
-        <v>194500</v>
+        <v>192500</v>
       </c>
       <c r="F58" s="3">
-        <v>255400</v>
+        <v>252800</v>
       </c>
       <c r="G58" s="3">
-        <v>277000</v>
+        <v>274200</v>
       </c>
       <c r="H58" s="3">
-        <v>283700</v>
+        <v>280800</v>
       </c>
       <c r="I58" s="3">
-        <v>258800</v>
+        <v>256100</v>
       </c>
       <c r="J58" s="3">
-        <v>281400</v>
+        <v>278500</v>
       </c>
       <c r="K58" s="3">
         <v>17000</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1554000</v>
+        <v>1538100</v>
       </c>
       <c r="E59" s="3">
-        <v>1277700</v>
+        <v>1264600</v>
       </c>
       <c r="F59" s="3">
-        <v>1325800</v>
+        <v>1312300</v>
       </c>
       <c r="G59" s="3">
-        <v>1270700</v>
+        <v>1257700</v>
       </c>
       <c r="H59" s="3">
-        <v>1529700</v>
+        <v>1514000</v>
       </c>
       <c r="I59" s="3">
-        <v>1254800</v>
+        <v>1241900</v>
       </c>
       <c r="J59" s="3">
-        <v>1348000</v>
+        <v>1334200</v>
       </c>
       <c r="K59" s="3">
         <v>1406100</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4096900</v>
+        <v>4055000</v>
       </c>
       <c r="E60" s="3">
-        <v>3032300</v>
+        <v>3001300</v>
       </c>
       <c r="F60" s="3">
-        <v>3346900</v>
+        <v>3312600</v>
       </c>
       <c r="G60" s="3">
-        <v>3027600</v>
+        <v>2996600</v>
       </c>
       <c r="H60" s="3">
-        <v>3701200</v>
+        <v>3663400</v>
       </c>
       <c r="I60" s="3">
-        <v>2923600</v>
+        <v>2893700</v>
       </c>
       <c r="J60" s="3">
-        <v>3394500</v>
+        <v>3359800</v>
       </c>
       <c r="K60" s="3">
         <v>2924900</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>413100</v>
+        <v>408900</v>
       </c>
       <c r="E62" s="3">
-        <v>422900</v>
+        <v>418500</v>
       </c>
       <c r="F62" s="3">
-        <v>359200</v>
+        <v>355600</v>
       </c>
       <c r="G62" s="3">
-        <v>310500</v>
+        <v>307300</v>
       </c>
       <c r="H62" s="3">
-        <v>386100</v>
+        <v>382100</v>
       </c>
       <c r="I62" s="3">
-        <v>394400</v>
+        <v>390400</v>
       </c>
       <c r="J62" s="3">
-        <v>408500</v>
+        <v>404300</v>
       </c>
       <c r="K62" s="3">
         <v>402100</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4699700</v>
+        <v>4651600</v>
       </c>
       <c r="E66" s="3">
-        <v>3644600</v>
+        <v>3607300</v>
       </c>
       <c r="F66" s="3">
-        <v>3894400</v>
+        <v>3854600</v>
       </c>
       <c r="G66" s="3">
-        <v>3507000</v>
+        <v>3471100</v>
       </c>
       <c r="H66" s="3">
-        <v>4259000</v>
+        <v>4215400</v>
       </c>
       <c r="I66" s="3">
-        <v>3462200</v>
+        <v>3426800</v>
       </c>
       <c r="J66" s="3">
-        <v>3945800</v>
+        <v>3905400</v>
       </c>
       <c r="K66" s="3">
         <v>3460700</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4124800</v>
+        <v>4082600</v>
       </c>
       <c r="E72" s="3">
-        <v>3804000</v>
+        <v>3765100</v>
       </c>
       <c r="F72" s="3">
-        <v>3561800</v>
+        <v>3525300</v>
       </c>
       <c r="G72" s="3">
-        <v>3377500</v>
+        <v>3343000</v>
       </c>
       <c r="H72" s="3">
-        <v>3220200</v>
+        <v>3187200</v>
       </c>
       <c r="I72" s="3">
-        <v>3017000</v>
+        <v>2986100</v>
       </c>
       <c r="J72" s="3">
-        <v>2926700</v>
+        <v>2896800</v>
       </c>
       <c r="K72" s="3">
         <v>2684600</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4703800</v>
+        <v>4655700</v>
       </c>
       <c r="E76" s="3">
-        <v>4701400</v>
+        <v>4653300</v>
       </c>
       <c r="F76" s="3">
-        <v>4718300</v>
+        <v>4670100</v>
       </c>
       <c r="G76" s="3">
-        <v>4690100</v>
+        <v>4642100</v>
       </c>
       <c r="H76" s="3">
-        <v>4686700</v>
+        <v>4638800</v>
       </c>
       <c r="I76" s="3">
-        <v>4436900</v>
+        <v>4391400</v>
       </c>
       <c r="J76" s="3">
-        <v>4314200</v>
+        <v>4270100</v>
       </c>
       <c r="K76" s="3">
         <v>4271400</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>320800</v>
+        <v>317500</v>
       </c>
       <c r="E81" s="3">
-        <v>242200</v>
+        <v>239700</v>
       </c>
       <c r="F81" s="3">
-        <v>184200</v>
+        <v>182400</v>
       </c>
       <c r="G81" s="3">
-        <v>157400</v>
+        <v>155700</v>
       </c>
       <c r="H81" s="3">
-        <v>203200</v>
+        <v>201100</v>
       </c>
       <c r="I81" s="3">
-        <v>90200</v>
+        <v>89300</v>
       </c>
       <c r="J81" s="3">
-        <v>156900</v>
+        <v>155300</v>
       </c>
       <c r="K81" s="3">
         <v>215100</v>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4514400</v>
+        <v>3841200</v>
       </c>
       <c r="E8" s="3">
-        <v>3072600</v>
+        <v>3794000</v>
       </c>
       <c r="F8" s="3">
-        <v>3487700</v>
+        <v>4375600</v>
       </c>
       <c r="G8" s="3">
-        <v>3588500</v>
+        <v>2978100</v>
       </c>
       <c r="H8" s="3">
-        <v>4851800</v>
+        <v>3380500</v>
       </c>
       <c r="I8" s="3">
+        <v>3478200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4702700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3542600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4208700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3953100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4979900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3415800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3553000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2942200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4514600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3020000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3474800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3243000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3967800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2495700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2975500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2851000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3581100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2272600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2599600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2320000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2760300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3533500</v>
+        <v>2986700</v>
       </c>
       <c r="E9" s="3">
-        <v>2406900</v>
+        <v>2980400</v>
       </c>
       <c r="F9" s="3">
-        <v>2773500</v>
+        <v>3424900</v>
       </c>
       <c r="G9" s="3">
-        <v>2876600</v>
+        <v>2332900</v>
       </c>
       <c r="H9" s="3">
-        <v>3897500</v>
+        <v>2688200</v>
       </c>
       <c r="I9" s="3">
+        <v>2788100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3777700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2854400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3362000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3174300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3887500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2696500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2825000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2375900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3436600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2368100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2697300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2580300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3148700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1987500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2395300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2275800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2803400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1753300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2026800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1782700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>2110600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>980900</v>
+        <v>854500</v>
       </c>
       <c r="E10" s="3">
-        <v>665700</v>
+        <v>813500</v>
       </c>
       <c r="F10" s="3">
-        <v>714200</v>
+        <v>950700</v>
       </c>
       <c r="G10" s="3">
-        <v>712000</v>
+        <v>645200</v>
       </c>
       <c r="H10" s="3">
-        <v>954300</v>
+        <v>692300</v>
       </c>
       <c r="I10" s="3">
+        <v>690100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>925000</v>
+      </c>
+      <c r="K10" s="3">
         <v>688200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>846800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>778800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1092400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>719300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>727900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>566300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>652000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>777500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>662700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>819100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>508300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>580200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>575300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>777700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>519400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>572800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>537300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>649700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,91 +1259,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4900</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1400</v>
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>4700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>30900</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>5300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>49600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>12900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3">
-        <v>3100</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>4400</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>15300</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,11 +1380,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1352,47 +1398,53 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>100</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
         <v>6300</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>12500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>12500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>12700</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4162600</v>
+        <v>3579800</v>
       </c>
       <c r="E17" s="3">
-        <v>2912300</v>
+        <v>3520400</v>
       </c>
       <c r="F17" s="3">
-        <v>3314500</v>
+        <v>4034600</v>
       </c>
       <c r="G17" s="3">
-        <v>3406200</v>
+        <v>2822700</v>
       </c>
       <c r="H17" s="3">
-        <v>4622600</v>
+        <v>3212600</v>
       </c>
       <c r="I17" s="3">
+        <v>3301500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4480500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3438200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4022700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3742700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4624700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3231900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3370200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2820500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4247900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2852800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3327300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3111700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3818200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2446100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2918100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2756000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3465300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2221400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2550100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2237600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2643200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>351800</v>
+        <v>261400</v>
       </c>
       <c r="E18" s="3">
-        <v>160300</v>
+        <v>273600</v>
       </c>
       <c r="F18" s="3">
-        <v>173200</v>
+        <v>341000</v>
       </c>
       <c r="G18" s="3">
-        <v>182300</v>
+        <v>155400</v>
       </c>
       <c r="H18" s="3">
-        <v>229200</v>
+        <v>167900</v>
       </c>
       <c r="I18" s="3">
+        <v>176700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K18" s="3">
         <v>104400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>186000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>210400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>355200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>183900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>182700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>121700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>266600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>167200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>147500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>131300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>149600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>49600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>57400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>95100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>115800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>51200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>49600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>82500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>117100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>87500</v>
+        <v>69600</v>
       </c>
       <c r="E20" s="3">
-        <v>117800</v>
+        <v>35200</v>
       </c>
       <c r="F20" s="3">
-        <v>56800</v>
+        <v>84800</v>
       </c>
       <c r="G20" s="3">
-        <v>21800</v>
+        <v>114200</v>
       </c>
       <c r="H20" s="3">
+        <v>55100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>21300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>39300</v>
+      </c>
+      <c r="N20" s="3">
         <v>35900</v>
       </c>
-      <c r="I20" s="3">
-        <v>21300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>39300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>35900</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>29800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>93900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>13400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>37000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>64700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>12500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>14000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>34600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>26900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>30400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,257 +1856,281 @@
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>5800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>7500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>5600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>4200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>2800</v>
       </c>
       <c r="Z22" s="3">
         <v>2900</v>
       </c>
       <c r="AA22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC22" s="3">
         <v>3700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>3000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>438700</v>
+        <v>330700</v>
       </c>
       <c r="E23" s="3">
-        <v>276900</v>
+        <v>308000</v>
       </c>
       <c r="F23" s="3">
-        <v>229100</v>
+        <v>425200</v>
       </c>
       <c r="G23" s="3">
-        <v>203400</v>
+        <v>268400</v>
       </c>
       <c r="H23" s="3">
-        <v>264500</v>
+        <v>222100</v>
       </c>
       <c r="I23" s="3">
+        <v>197200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>256300</v>
+      </c>
+      <c r="K23" s="3">
         <v>125200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>190800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>249200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>390200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>213100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>273600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>143100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>265000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>170400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>159000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>163400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>150000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>44600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>116500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>90400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>125400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>62500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>81300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>105700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>144500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>128500</v>
+        <v>46700</v>
       </c>
       <c r="E24" s="3">
-        <v>37900</v>
+        <v>53800</v>
       </c>
       <c r="F24" s="3">
-        <v>42200</v>
+        <v>124500</v>
       </c>
       <c r="G24" s="3">
-        <v>41500</v>
+        <v>36700</v>
       </c>
       <c r="H24" s="3">
-        <v>55500</v>
+        <v>40900</v>
       </c>
       <c r="I24" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K24" s="3">
         <v>30200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>44500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>42700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>53500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>36500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>47900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>27000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>48300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>32700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>32600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>37100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>35300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>14400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>15300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>28000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>15100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>25200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>24100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>30100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>310300</v>
+        <v>284000</v>
       </c>
       <c r="E26" s="3">
-        <v>239100</v>
+        <v>254300</v>
       </c>
       <c r="F26" s="3">
-        <v>186900</v>
+        <v>300700</v>
       </c>
       <c r="G26" s="3">
-        <v>161900</v>
+        <v>231700</v>
       </c>
       <c r="H26" s="3">
-        <v>208900</v>
+        <v>181200</v>
       </c>
       <c r="I26" s="3">
+        <v>156900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>202500</v>
+      </c>
+      <c r="K26" s="3">
         <v>95000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>146400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>206400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>336600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>176500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>225700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>116100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>216700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>137700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>126400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>126300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>114700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>30200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>98500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>75200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>97400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>47400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>56100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>81600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>114400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>317500</v>
+        <v>289000</v>
       </c>
       <c r="E27" s="3">
-        <v>239700</v>
+        <v>256100</v>
       </c>
       <c r="F27" s="3">
-        <v>182400</v>
+        <v>307800</v>
       </c>
       <c r="G27" s="3">
-        <v>155700</v>
+        <v>232400</v>
       </c>
       <c r="H27" s="3">
-        <v>201100</v>
+        <v>176800</v>
       </c>
       <c r="I27" s="3">
+        <v>151000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K27" s="3">
         <v>89300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>155300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>215100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>339800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>183400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>226500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>107200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>224100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>134800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>124300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>132700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>104800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>32000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>97800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>76000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>99900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>50200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>57400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>80300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>111700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-87500</v>
+        <v>-69600</v>
       </c>
       <c r="E32" s="3">
-        <v>-117800</v>
+        <v>-35200</v>
       </c>
       <c r="F32" s="3">
-        <v>-56800</v>
+        <v>-84800</v>
       </c>
       <c r="G32" s="3">
-        <v>-21800</v>
+        <v>-114200</v>
       </c>
       <c r="H32" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-35900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-39300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-35900</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-29800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-93900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-13400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-37000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-64700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-34600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-26900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-30400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>317500</v>
+        <v>289000</v>
       </c>
       <c r="E33" s="3">
-        <v>239700</v>
+        <v>256100</v>
       </c>
       <c r="F33" s="3">
-        <v>182400</v>
+        <v>307800</v>
       </c>
       <c r="G33" s="3">
-        <v>155700</v>
+        <v>232400</v>
       </c>
       <c r="H33" s="3">
-        <v>201100</v>
+        <v>176800</v>
       </c>
       <c r="I33" s="3">
+        <v>151000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K33" s="3">
         <v>89300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>155300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>215100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>339800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>183400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>226500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>107200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>224100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>134800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>124300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>132700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>104800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>32000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>97800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>76000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>99900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>50200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>57400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>80300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>111700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>317500</v>
+        <v>289000</v>
       </c>
       <c r="E35" s="3">
-        <v>239700</v>
+        <v>256100</v>
       </c>
       <c r="F35" s="3">
-        <v>182400</v>
+        <v>307800</v>
       </c>
       <c r="G35" s="3">
-        <v>155700</v>
+        <v>232400</v>
       </c>
       <c r="H35" s="3">
-        <v>201100</v>
+        <v>176800</v>
       </c>
       <c r="I35" s="3">
+        <v>151000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K35" s="3">
         <v>89300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>155300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>215100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>339800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>183400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>226500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>107200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>224100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>134800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>124300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>132700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>104800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>32000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>97800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>76000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>99900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>50200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>57400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>80300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>111700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3266,811 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3118600</v>
+        <v>2380800</v>
       </c>
       <c r="E41" s="3">
-        <v>2118000</v>
+        <v>2477700</v>
       </c>
       <c r="F41" s="3">
-        <v>2315500</v>
+        <v>3022700</v>
       </c>
       <c r="G41" s="3">
-        <v>1940100</v>
+        <v>2052900</v>
       </c>
       <c r="H41" s="3">
-        <v>2316700</v>
+        <v>2244300</v>
       </c>
       <c r="I41" s="3">
+        <v>1880400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2245500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1781000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2227000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2009400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1669800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1309100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1089700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>770000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1012200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>882000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1044600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>882300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1451300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>864900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>868200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1005500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1480200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>544000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>615700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>645000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>597700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>226900</v>
+        <v>200000</v>
       </c>
       <c r="E42" s="3">
-        <v>483300</v>
+        <v>205300</v>
       </c>
       <c r="F42" s="3">
-        <v>585900</v>
+        <v>219900</v>
       </c>
       <c r="G42" s="3">
-        <v>713500</v>
+        <v>468500</v>
       </c>
       <c r="H42" s="3">
-        <v>765000</v>
+        <v>567900</v>
       </c>
       <c r="I42" s="3">
+        <v>691600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>741500</v>
+      </c>
+      <c r="K42" s="3">
         <v>521500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>517800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>518200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1020200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>729000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>875300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>536100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>470100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>8900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>36400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>6100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>353100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>266200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>296900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>259300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>36500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>34200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>50900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>108500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>97700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500300</v>
+        <v>472100</v>
       </c>
       <c r="E43" s="3">
-        <v>447200</v>
+        <v>411200</v>
       </c>
       <c r="F43" s="3">
-        <v>489900</v>
+        <v>484900</v>
       </c>
       <c r="G43" s="3">
-        <v>509000</v>
+        <v>433500</v>
       </c>
       <c r="H43" s="3">
-        <v>486700</v>
+        <v>474800</v>
       </c>
       <c r="I43" s="3">
+        <v>493400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>471800</v>
+      </c>
+      <c r="K43" s="3">
         <v>427000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>413800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>409700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>415100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>461200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>511000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>640200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>700300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1657700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1134500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1183100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1460000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1173000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1280600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1171200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1258200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>941600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>845400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>717900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>673000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>784100</v>
+        <v>562300</v>
       </c>
       <c r="E44" s="3">
-        <v>662600</v>
+        <v>558800</v>
       </c>
       <c r="F44" s="3">
-        <v>738800</v>
+        <v>760000</v>
       </c>
       <c r="G44" s="3">
-        <v>744300</v>
+        <v>642300</v>
       </c>
       <c r="H44" s="3">
-        <v>975900</v>
+        <v>716100</v>
       </c>
       <c r="I44" s="3">
+        <v>721400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>945900</v>
+      </c>
+      <c r="K44" s="3">
         <v>869500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>844500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>810000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1063800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>946100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>849500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>800400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1186900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>82700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>685900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>610700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>816600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>599500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>658600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>729100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1033000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>644300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>551600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>525900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>719700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>165600</v>
+        <v>138700</v>
       </c>
       <c r="E45" s="3">
-        <v>183700</v>
+        <v>129200</v>
       </c>
       <c r="F45" s="3">
-        <v>150400</v>
+        <v>160500</v>
       </c>
       <c r="G45" s="3">
-        <v>93400</v>
+        <v>178000</v>
       </c>
       <c r="H45" s="3">
-        <v>124200</v>
+        <v>145800</v>
       </c>
       <c r="I45" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K45" s="3">
         <v>89900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>116300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>93500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>170500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>104700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>103800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>138100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>176400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>139300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>152100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>75600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>75700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>49600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>53900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>50000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>38300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>6400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>8900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>32500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4795300</v>
+        <v>3754000</v>
       </c>
       <c r="E46" s="3">
-        <v>3894800</v>
+        <v>3782200</v>
       </c>
       <c r="F46" s="3">
-        <v>4280600</v>
+        <v>4647900</v>
       </c>
       <c r="G46" s="3">
-        <v>4000300</v>
+        <v>3775100</v>
       </c>
       <c r="H46" s="3">
-        <v>4668500</v>
+        <v>4149000</v>
       </c>
       <c r="I46" s="3">
+        <v>3877300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4525000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3688800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4119500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3840800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4339300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3550100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3429400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2884700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3545900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2770600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3053400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2757900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4156800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2953200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3158200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3215200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3846200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2170400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2072600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1998100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>2120500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>685600</v>
+        <v>713300</v>
       </c>
       <c r="E47" s="3">
-        <v>788300</v>
+        <v>669000</v>
       </c>
       <c r="F47" s="3">
-        <v>710200</v>
+        <v>664500</v>
       </c>
       <c r="G47" s="3">
-        <v>690100</v>
+        <v>764000</v>
       </c>
       <c r="H47" s="3">
-        <v>705000</v>
+        <v>688400</v>
       </c>
       <c r="I47" s="3">
+        <v>668900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>683400</v>
+      </c>
+      <c r="K47" s="3">
         <v>708500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>717200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>695900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>669700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>717500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>690000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>836500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>803400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>800000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>383100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>364700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>325200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>263700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>260300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>83900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>89100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>94200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>93500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>147400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>146000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2433200</v>
+        <v>2346000</v>
       </c>
       <c r="E48" s="3">
-        <v>2276100</v>
+        <v>2341800</v>
       </c>
       <c r="F48" s="3">
-        <v>2215800</v>
+        <v>2358400</v>
       </c>
       <c r="G48" s="3">
-        <v>2217500</v>
+        <v>2206100</v>
       </c>
       <c r="H48" s="3">
-        <v>2206900</v>
+        <v>2147700</v>
       </c>
       <c r="I48" s="3">
+        <v>2149400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2139000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2187500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2172100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2092300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2111000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2241600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2119000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2031700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1997500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1845300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1555700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1407900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1297800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1072900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1018600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>961500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>988500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>914400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>817800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>671000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>649700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>155200</v>
+        <v>150200</v>
       </c>
       <c r="E49" s="3">
-        <v>131700</v>
+        <v>150300</v>
       </c>
       <c r="F49" s="3">
-        <v>131900</v>
+        <v>150400</v>
       </c>
       <c r="G49" s="3">
-        <v>132000</v>
+        <v>127700</v>
       </c>
       <c r="H49" s="3">
-        <v>129400</v>
+        <v>127800</v>
       </c>
       <c r="I49" s="3">
+        <v>127900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K49" s="3">
         <v>130000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>130000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>128100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>129000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>139700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>107600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>86600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>88400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>111200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>108100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>109400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>109600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>100900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>103600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>103700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>114000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>126400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>139000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>148500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>158800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1237900</v>
+        <v>1370400</v>
       </c>
       <c r="E52" s="3">
-        <v>1169600</v>
+        <v>1217100</v>
       </c>
       <c r="F52" s="3">
-        <v>1186200</v>
+        <v>1199900</v>
       </c>
       <c r="G52" s="3">
-        <v>1073300</v>
+        <v>1133700</v>
       </c>
       <c r="H52" s="3">
-        <v>1144400</v>
+        <v>1149700</v>
       </c>
       <c r="I52" s="3">
+        <v>1040300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1109200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1103400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1036600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>975000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>955600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1049300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1037200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1059000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1045600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>999000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>893800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>870200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>737400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>670300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>644100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>648800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>599200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>590200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>602000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>628200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>574400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9307300</v>
+        <v>8333800</v>
       </c>
       <c r="E54" s="3">
-        <v>8260500</v>
+        <v>8160300</v>
       </c>
       <c r="F54" s="3">
-        <v>8524600</v>
+        <v>9021200</v>
       </c>
       <c r="G54" s="3">
-        <v>8113200</v>
+        <v>8006600</v>
       </c>
       <c r="H54" s="3">
-        <v>8854200</v>
+        <v>8262500</v>
       </c>
       <c r="I54" s="3">
+        <v>7863800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>8582000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7818200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8175500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7732100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8204600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7698200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7383200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6898400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7480800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6526100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5994100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5510100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6626800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5060900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5184800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5013200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5637000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3895700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3724800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3593200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>3649500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,340 +4578,366 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2134800</v>
+        <v>1841200</v>
       </c>
       <c r="E57" s="3">
-        <v>1544100</v>
+        <v>1637600</v>
       </c>
       <c r="F57" s="3">
-        <v>1747500</v>
+        <v>2069200</v>
       </c>
       <c r="G57" s="3">
-        <v>1464600</v>
+        <v>1496600</v>
       </c>
       <c r="H57" s="3">
-        <v>1868600</v>
+        <v>1693800</v>
       </c>
       <c r="I57" s="3">
+        <v>1419600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1811100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1395600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1747000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1501800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2114600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1683100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1753900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1452800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2123700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1566300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1644200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1451300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1769200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>969900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1206500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1373100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1698600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1252000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1209800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1139500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1212000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>382000</v>
+        <v>70000</v>
       </c>
       <c r="E58" s="3">
-        <v>192500</v>
+        <v>137700</v>
       </c>
       <c r="F58" s="3">
-        <v>252800</v>
+        <v>370300</v>
       </c>
       <c r="G58" s="3">
-        <v>274200</v>
+        <v>186600</v>
       </c>
       <c r="H58" s="3">
-        <v>280800</v>
+        <v>245100</v>
       </c>
       <c r="I58" s="3">
+        <v>265800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>272100</v>
+      </c>
+      <c r="K58" s="3">
         <v>256100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>278500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>17000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>145200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>299900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>272700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>291200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>168400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>236700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>172900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>147400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1010000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>979100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>950500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>742300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>247400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>124500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>42700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>41400</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1538100</v>
+        <v>1368100</v>
       </c>
       <c r="E59" s="3">
-        <v>1264600</v>
+        <v>1342100</v>
       </c>
       <c r="F59" s="3">
-        <v>1312300</v>
+        <v>1490900</v>
       </c>
       <c r="G59" s="3">
-        <v>1257700</v>
+        <v>1225700</v>
       </c>
       <c r="H59" s="3">
-        <v>1514000</v>
+        <v>1271900</v>
       </c>
       <c r="I59" s="3">
+        <v>1219100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1467500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1241900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1334200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1406100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1438500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1314600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1161100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1107600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1391900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1196000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1040800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1004800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1167700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>688800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>678100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>678100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>912000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>699500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>724200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>778600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>908900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4055000</v>
+        <v>3279300</v>
       </c>
       <c r="E60" s="3">
-        <v>3001300</v>
+        <v>3117400</v>
       </c>
       <c r="F60" s="3">
-        <v>3312600</v>
+        <v>3930300</v>
       </c>
       <c r="G60" s="3">
-        <v>2996600</v>
+        <v>2909000</v>
       </c>
       <c r="H60" s="3">
-        <v>3663400</v>
+        <v>3210800</v>
       </c>
       <c r="I60" s="3">
+        <v>2904500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3550700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2893700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3359800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2924900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3698400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3297600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3187700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2851700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3684100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2998900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2857900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2603600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3946900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2637800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2835000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2793500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2858000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2076000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1976700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1959500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>2120900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4683,141 +4969,153 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>29200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>29200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>41100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>52400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>69100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>607700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>621500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>633200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>631500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>637200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>408900</v>
+        <v>409600</v>
       </c>
       <c r="E62" s="3">
-        <v>418500</v>
+        <v>409500</v>
       </c>
       <c r="F62" s="3">
-        <v>355600</v>
+        <v>396300</v>
       </c>
       <c r="G62" s="3">
-        <v>307300</v>
+        <v>405700</v>
       </c>
       <c r="H62" s="3">
-        <v>382100</v>
+        <v>344600</v>
       </c>
       <c r="I62" s="3">
+        <v>297900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>370400</v>
+      </c>
+      <c r="K62" s="3">
         <v>390400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>404300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>402100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>415700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>444400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>455800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>381100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>360700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>286500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>187500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>125600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>61700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>53900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>55600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>52700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>56300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>52500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>55100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>48500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>50500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4651600</v>
+        <v>3875900</v>
       </c>
       <c r="E66" s="3">
-        <v>3607300</v>
+        <v>3709200</v>
       </c>
       <c r="F66" s="3">
-        <v>3854600</v>
+        <v>4508600</v>
       </c>
       <c r="G66" s="3">
-        <v>3471100</v>
+        <v>3496400</v>
       </c>
       <c r="H66" s="3">
-        <v>4215400</v>
+        <v>3736100</v>
       </c>
       <c r="I66" s="3">
+        <v>3364400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4085800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3426800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3905400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3460700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4237700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3879100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3778100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3348600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4119800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3377700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3039400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2722400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4000900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2753700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2883700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2839200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3515600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2745200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>2663200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2645500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2815900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4082600</v>
+        <v>4502200</v>
       </c>
       <c r="E72" s="3">
-        <v>3765100</v>
+        <v>4213200</v>
       </c>
       <c r="F72" s="3">
-        <v>3525300</v>
+        <v>3957100</v>
       </c>
       <c r="G72" s="3">
-        <v>3343000</v>
+        <v>3649300</v>
       </c>
       <c r="H72" s="3">
-        <v>3187200</v>
+        <v>3416900</v>
       </c>
       <c r="I72" s="3">
+        <v>3240200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3089200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2986100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2896800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2684600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2469500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2254500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2071200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1959900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1836100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1612000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1465600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1335600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1202900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1010400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1003000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>905200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>831500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>731600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>681400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>611500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>531300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4655700</v>
+        <v>4457900</v>
       </c>
       <c r="E76" s="3">
-        <v>4653300</v>
+        <v>4451100</v>
       </c>
       <c r="F76" s="3">
-        <v>4670100</v>
+        <v>4512600</v>
       </c>
       <c r="G76" s="3">
-        <v>4642100</v>
+        <v>4510200</v>
       </c>
       <c r="H76" s="3">
-        <v>4638800</v>
+        <v>4526500</v>
       </c>
       <c r="I76" s="3">
+        <v>4499400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4496200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4391400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4270100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4271400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3966900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3819100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3605000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3549800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3360900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3148400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2954700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2787600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2625900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2307200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2301100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2174000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2121400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1150500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1061600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>947600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>833600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>317500</v>
+        <v>289000</v>
       </c>
       <c r="E81" s="3">
-        <v>239700</v>
+        <v>256100</v>
       </c>
       <c r="F81" s="3">
-        <v>182400</v>
+        <v>307800</v>
       </c>
       <c r="G81" s="3">
-        <v>155700</v>
+        <v>232400</v>
       </c>
       <c r="H81" s="3">
-        <v>201100</v>
+        <v>176800</v>
       </c>
       <c r="I81" s="3">
+        <v>151000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K81" s="3">
         <v>89300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>155300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>215100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>339800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>183400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>226500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>107200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>224100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>134800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>124300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>132700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>104800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>32000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>97800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>76000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>99900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>50200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>57400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>80300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>111700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7601,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7765,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>VIPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3841200</v>
+        <v>3143500</v>
       </c>
       <c r="E8" s="3">
-        <v>3794000</v>
+        <v>3849600</v>
       </c>
       <c r="F8" s="3">
-        <v>4375600</v>
+        <v>3802200</v>
       </c>
       <c r="G8" s="3">
-        <v>2978100</v>
+        <v>4385100</v>
       </c>
       <c r="H8" s="3">
-        <v>3380500</v>
+        <v>2984600</v>
       </c>
       <c r="I8" s="3">
-        <v>3478200</v>
+        <v>3387800</v>
       </c>
       <c r="J8" s="3">
+        <v>3485800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4702700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3542600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4208700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3953100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4979900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3415800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3553000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2942200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4514600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3020000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3474800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3243000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3967800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2495700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2975500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2851000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3581100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2272600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2599600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2320000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2760300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1745500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2986700</v>
+        <v>2400400</v>
       </c>
       <c r="E9" s="3">
-        <v>2980400</v>
+        <v>2993200</v>
       </c>
       <c r="F9" s="3">
-        <v>3424900</v>
+        <v>2986900</v>
       </c>
       <c r="G9" s="3">
-        <v>2332900</v>
+        <v>3432300</v>
       </c>
       <c r="H9" s="3">
-        <v>2688200</v>
+        <v>2338000</v>
       </c>
       <c r="I9" s="3">
-        <v>2788100</v>
+        <v>2694100</v>
       </c>
       <c r="J9" s="3">
+        <v>2794200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3777700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2854400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3362000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3174300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3887500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2696500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2825000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2375900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3436600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2368100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2697300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2580300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3148700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1987500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2395300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2275800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2803400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1753300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2026800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1782700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2110600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1319100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>854500</v>
+        <v>743100</v>
       </c>
       <c r="E10" s="3">
-        <v>813500</v>
+        <v>856400</v>
       </c>
       <c r="F10" s="3">
-        <v>950700</v>
+        <v>815300</v>
       </c>
       <c r="G10" s="3">
-        <v>645200</v>
+        <v>952800</v>
       </c>
       <c r="H10" s="3">
-        <v>692300</v>
+        <v>646600</v>
       </c>
       <c r="I10" s="3">
-        <v>690100</v>
+        <v>693800</v>
       </c>
       <c r="J10" s="3">
+        <v>691600</v>
+      </c>
+      <c r="K10" s="3">
         <v>925000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>688200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>846800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>778800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1092400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>719300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>727900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>566300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1078000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>652000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>777500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>662700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>819100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>508300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>580200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>575300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>777700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>519400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>572800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>537300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>649700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2600</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6900</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>5300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>49600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12900</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>3100</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4400</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>15300</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,8 +1409,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1404,47 +1427,50 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="W15" s="3">
-        <v>100</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
       </c>
       <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3">
         <v>6300</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>12500</v>
       </c>
       <c r="AB15" s="3">
         <v>12500</v>
       </c>
       <c r="AC15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="AD15" s="3">
         <v>12700</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3579800</v>
+        <v>2931700</v>
       </c>
       <c r="E17" s="3">
-        <v>3520400</v>
+        <v>3587600</v>
       </c>
       <c r="F17" s="3">
-        <v>4034600</v>
+        <v>3528000</v>
       </c>
       <c r="G17" s="3">
-        <v>2822700</v>
+        <v>4043400</v>
       </c>
       <c r="H17" s="3">
-        <v>3212600</v>
+        <v>2828900</v>
       </c>
       <c r="I17" s="3">
-        <v>3301500</v>
+        <v>3219600</v>
       </c>
       <c r="J17" s="3">
+        <v>3308700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4480500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3438200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4022700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3742700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4624700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3231900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3370200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2820500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4247900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2852800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3327300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3111700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3818200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2446100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2918100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2756000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3465300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2221400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2550100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2237600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2643200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1698400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>261400</v>
+        <v>211800</v>
       </c>
       <c r="E18" s="3">
-        <v>273600</v>
+        <v>262000</v>
       </c>
       <c r="F18" s="3">
-        <v>341000</v>
+        <v>274200</v>
       </c>
       <c r="G18" s="3">
-        <v>155400</v>
+        <v>341700</v>
       </c>
       <c r="H18" s="3">
-        <v>167900</v>
+        <v>155700</v>
       </c>
       <c r="I18" s="3">
-        <v>176700</v>
+        <v>168200</v>
       </c>
       <c r="J18" s="3">
+        <v>177100</v>
+      </c>
+      <c r="K18" s="3">
         <v>222200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>186000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>210400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>355200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>183900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>182700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>121700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>266600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>167200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>147500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>131300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>149600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>49600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>57400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>95100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>115800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>51200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>49600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>82500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>117100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>47100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,97 +1717,101 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>69600</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>35200</v>
+        <v>69800</v>
       </c>
       <c r="F20" s="3">
-        <v>84800</v>
+        <v>35300</v>
       </c>
       <c r="G20" s="3">
-        <v>114200</v>
+        <v>85000</v>
       </c>
       <c r="H20" s="3">
-        <v>55100</v>
+        <v>114500</v>
       </c>
       <c r="I20" s="3">
+        <v>55200</v>
+      </c>
+      <c r="J20" s="3">
         <v>21100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>39300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>93900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>13400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>37000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>64700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>12500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>14000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>34600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>26900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>30400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1862,275 +1899,287 @@
       <c r="AE21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>3000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>330700</v>
+        <v>216900</v>
       </c>
       <c r="E23" s="3">
-        <v>308000</v>
+        <v>331500</v>
       </c>
       <c r="F23" s="3">
-        <v>425200</v>
+        <v>308700</v>
       </c>
       <c r="G23" s="3">
-        <v>268400</v>
+        <v>426200</v>
       </c>
       <c r="H23" s="3">
-        <v>222100</v>
+        <v>269000</v>
       </c>
       <c r="I23" s="3">
-        <v>197200</v>
+        <v>222500</v>
       </c>
       <c r="J23" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K23" s="3">
         <v>256300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>125200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>190800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>249200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>390200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>213100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>273600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>143100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>265000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>170400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>159000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>163400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>150000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>116500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>90400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>125400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>62500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>81300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>105700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>144500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>72200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46700</v>
+        <v>50400</v>
       </c>
       <c r="E24" s="3">
+        <v>46800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>53900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>124800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>36800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>41000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K24" s="3">
         <v>53800</v>
       </c>
-      <c r="F24" s="3">
-        <v>124500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>36700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>40900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>40200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>53800</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>53500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>28000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>25200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>24100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>30100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>284000</v>
+        <v>166500</v>
       </c>
       <c r="E26" s="3">
-        <v>254300</v>
+        <v>284700</v>
       </c>
       <c r="F26" s="3">
-        <v>300700</v>
+        <v>254800</v>
       </c>
       <c r="G26" s="3">
-        <v>231700</v>
+        <v>301400</v>
       </c>
       <c r="H26" s="3">
-        <v>181200</v>
+        <v>232200</v>
       </c>
       <c r="I26" s="3">
-        <v>156900</v>
+        <v>181600</v>
       </c>
       <c r="J26" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K26" s="3">
         <v>202500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>95000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>146400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>206400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>336600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>176500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>225700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>116100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>216700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>137700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>126400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>126300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>114700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>98500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>75200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>97400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>47400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>56100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>81600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>114400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>289000</v>
+        <v>166800</v>
       </c>
       <c r="E27" s="3">
-        <v>256100</v>
+        <v>289600</v>
       </c>
       <c r="F27" s="3">
-        <v>307800</v>
+        <v>256700</v>
       </c>
       <c r="G27" s="3">
-        <v>232400</v>
+        <v>308400</v>
       </c>
       <c r="H27" s="3">
-        <v>176800</v>
+        <v>232900</v>
       </c>
       <c r="I27" s="3">
-        <v>151000</v>
+        <v>177100</v>
       </c>
       <c r="J27" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K27" s="3">
         <v>194900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>89300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>155300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>215100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>339800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>183400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>226500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>224100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>134800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>124300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>132700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>104800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>32000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>97800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>76000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>99900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>50200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>57400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>80300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>111700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69600</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-35200</v>
+        <v>-69800</v>
       </c>
       <c r="F32" s="3">
-        <v>-84800</v>
+        <v>-35300</v>
       </c>
       <c r="G32" s="3">
-        <v>-114200</v>
+        <v>-85000</v>
       </c>
       <c r="H32" s="3">
-        <v>-55100</v>
+        <v>-114500</v>
       </c>
       <c r="I32" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-21100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-39300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-93900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-13400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-37000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-64700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-12500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-34600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-26900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-30400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>289000</v>
+        <v>166800</v>
       </c>
       <c r="E33" s="3">
-        <v>256100</v>
+        <v>289600</v>
       </c>
       <c r="F33" s="3">
-        <v>307800</v>
+        <v>256700</v>
       </c>
       <c r="G33" s="3">
-        <v>232400</v>
+        <v>308400</v>
       </c>
       <c r="H33" s="3">
-        <v>176800</v>
+        <v>232900</v>
       </c>
       <c r="I33" s="3">
-        <v>151000</v>
+        <v>177100</v>
       </c>
       <c r="J33" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K33" s="3">
         <v>194900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>155300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>215100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>339800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>183400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>226500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>224100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>134800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>124300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>132700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>104800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>32000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>97800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>76000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>99900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>50200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>57400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>80300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>111700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>289000</v>
+        <v>166800</v>
       </c>
       <c r="E35" s="3">
-        <v>256100</v>
+        <v>289600</v>
       </c>
       <c r="F35" s="3">
-        <v>307800</v>
+        <v>256700</v>
       </c>
       <c r="G35" s="3">
-        <v>232400</v>
+        <v>308400</v>
       </c>
       <c r="H35" s="3">
-        <v>176800</v>
+        <v>232900</v>
       </c>
       <c r="I35" s="3">
-        <v>151000</v>
+        <v>177100</v>
       </c>
       <c r="J35" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K35" s="3">
         <v>194900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>155300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>215100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>339800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>183400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>226500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>224100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>134800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>124300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>132700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>104800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>32000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>97800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>76000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>99900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>50200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>57400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>80300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>111700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2380800</v>
+        <v>2601500</v>
       </c>
       <c r="E41" s="3">
-        <v>2477700</v>
+        <v>2386000</v>
       </c>
       <c r="F41" s="3">
-        <v>3022700</v>
+        <v>2483100</v>
       </c>
       <c r="G41" s="3">
-        <v>2052900</v>
+        <v>3029300</v>
       </c>
       <c r="H41" s="3">
-        <v>2244300</v>
+        <v>2057300</v>
       </c>
       <c r="I41" s="3">
-        <v>1880400</v>
+        <v>2249200</v>
       </c>
       <c r="J41" s="3">
+        <v>1884500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2245500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1781000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2227000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2009400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1669800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1309100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1089700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>770000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1012200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>882000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1044600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>882300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1451300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>864900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>868200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1005500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1480200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>544000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>615700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>645000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>597700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>709200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200000</v>
+        <v>62400</v>
       </c>
       <c r="E42" s="3">
-        <v>205300</v>
+        <v>200400</v>
       </c>
       <c r="F42" s="3">
-        <v>219900</v>
+        <v>205800</v>
       </c>
       <c r="G42" s="3">
-        <v>468500</v>
+        <v>220400</v>
       </c>
       <c r="H42" s="3">
-        <v>567900</v>
+        <v>469500</v>
       </c>
       <c r="I42" s="3">
-        <v>691600</v>
+        <v>569100</v>
       </c>
       <c r="J42" s="3">
+        <v>693100</v>
+      </c>
+      <c r="K42" s="3">
         <v>741500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>521500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>517800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>518200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1020200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>729000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>875300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>536100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>470100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>36400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>353100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>266200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>296900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>259300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>36500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>34200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>50900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>108500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>97700</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>472100</v>
+        <v>497100</v>
       </c>
       <c r="E43" s="3">
-        <v>411200</v>
+        <v>473200</v>
       </c>
       <c r="F43" s="3">
-        <v>484900</v>
+        <v>412100</v>
       </c>
       <c r="G43" s="3">
-        <v>433500</v>
+        <v>485900</v>
       </c>
       <c r="H43" s="3">
-        <v>474800</v>
+        <v>434400</v>
       </c>
       <c r="I43" s="3">
-        <v>493400</v>
+        <v>475900</v>
       </c>
       <c r="J43" s="3">
+        <v>494400</v>
+      </c>
+      <c r="K43" s="3">
         <v>471800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>427000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>413800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>409700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>415100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>461200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>511000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>640200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1657700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1134500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1183100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1460000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1173000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1280600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1171200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1258200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>941600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>845400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>717900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>673000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>492200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>562300</v>
+        <v>570200</v>
       </c>
       <c r="E44" s="3">
-        <v>558800</v>
+        <v>563600</v>
       </c>
       <c r="F44" s="3">
-        <v>760000</v>
+        <v>560000</v>
       </c>
       <c r="G44" s="3">
-        <v>642300</v>
+        <v>761600</v>
       </c>
       <c r="H44" s="3">
-        <v>716100</v>
+        <v>643700</v>
       </c>
       <c r="I44" s="3">
-        <v>721400</v>
+        <v>717700</v>
       </c>
       <c r="J44" s="3">
+        <v>723000</v>
+      </c>
+      <c r="K44" s="3">
         <v>945900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>869500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>844500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>810000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1063800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>946100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>849500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>800400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1186900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>82700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>685900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>610700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>816600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>599500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>658600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>729100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1033000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>644300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>551600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>525900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>719700</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>513600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138700</v>
+        <v>111700</v>
       </c>
       <c r="E45" s="3">
-        <v>129200</v>
+        <v>139000</v>
       </c>
       <c r="F45" s="3">
-        <v>160500</v>
+        <v>129400</v>
       </c>
       <c r="G45" s="3">
-        <v>178000</v>
+        <v>160800</v>
       </c>
       <c r="H45" s="3">
-        <v>145800</v>
+        <v>178400</v>
       </c>
       <c r="I45" s="3">
-        <v>90500</v>
+        <v>146100</v>
       </c>
       <c r="J45" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K45" s="3">
         <v>120400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>89900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>116300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>93500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>170500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>104700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>138100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>176400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>139300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>152100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>75600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>75700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>49600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>53900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>50000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>38300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>6400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>8900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>32500</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3754000</v>
+        <v>3842900</v>
       </c>
       <c r="E46" s="3">
-        <v>3782200</v>
+        <v>3762200</v>
       </c>
       <c r="F46" s="3">
-        <v>4647900</v>
+        <v>3790400</v>
       </c>
       <c r="G46" s="3">
-        <v>3775100</v>
+        <v>4658100</v>
       </c>
       <c r="H46" s="3">
-        <v>4149000</v>
+        <v>3783300</v>
       </c>
       <c r="I46" s="3">
-        <v>3877300</v>
+        <v>4158000</v>
       </c>
       <c r="J46" s="3">
+        <v>3885800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4525000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3688800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4119500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3840800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4339300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3550100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3429400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2884700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3545900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2770600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3053400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2757900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4156800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2953200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3158200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3215200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3846200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2170400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2072600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1998100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2120500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1785100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>713300</v>
+        <v>706900</v>
       </c>
       <c r="E47" s="3">
-        <v>669000</v>
+        <v>714900</v>
       </c>
       <c r="F47" s="3">
-        <v>664500</v>
+        <v>670400</v>
       </c>
       <c r="G47" s="3">
-        <v>764000</v>
+        <v>666000</v>
       </c>
       <c r="H47" s="3">
-        <v>688400</v>
+        <v>765700</v>
       </c>
       <c r="I47" s="3">
-        <v>668900</v>
+        <v>689900</v>
       </c>
       <c r="J47" s="3">
+        <v>670300</v>
+      </c>
+      <c r="K47" s="3">
         <v>683400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>708500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>717200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>695900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>669700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>717500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>690000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>836500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>803400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>800000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>383100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>364700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>325200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>263700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>260300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>83900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>89100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>94200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>93500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>147400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>146000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>141100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2346000</v>
+        <v>2378000</v>
       </c>
       <c r="E48" s="3">
-        <v>2341800</v>
+        <v>2351100</v>
       </c>
       <c r="F48" s="3">
-        <v>2358400</v>
+        <v>2346900</v>
       </c>
       <c r="G48" s="3">
-        <v>2206100</v>
+        <v>2363600</v>
       </c>
       <c r="H48" s="3">
-        <v>2147700</v>
+        <v>2210900</v>
       </c>
       <c r="I48" s="3">
-        <v>2149400</v>
+        <v>2152400</v>
       </c>
       <c r="J48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2139000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2187500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2172100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2092300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2111000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2241600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2119000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2031700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1997500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1845300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1555700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1407900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1297800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1072900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1018600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>961500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>988500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>914400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>817800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>671000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>649700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>597600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150200</v>
+        <v>150400</v>
       </c>
       <c r="E49" s="3">
-        <v>150300</v>
+        <v>150500</v>
       </c>
       <c r="F49" s="3">
-        <v>150400</v>
+        <v>150600</v>
       </c>
       <c r="G49" s="3">
-        <v>127700</v>
+        <v>150800</v>
       </c>
       <c r="H49" s="3">
-        <v>127800</v>
+        <v>128000</v>
       </c>
       <c r="I49" s="3">
-        <v>127900</v>
+        <v>128100</v>
       </c>
       <c r="J49" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K49" s="3">
         <v>125400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>130000</v>
       </c>
       <c r="L49" s="3">
         <v>130000</v>
       </c>
       <c r="M49" s="3">
+        <v>130000</v>
+      </c>
+      <c r="N49" s="3">
         <v>128100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>129000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>139700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>107600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>88400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>111200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>108100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>109400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>109600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>100900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>103600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>103700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>114000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>126400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>139000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>148500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>158800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>172400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1370400</v>
+        <v>1514900</v>
       </c>
       <c r="E52" s="3">
-        <v>1217100</v>
+        <v>1373300</v>
       </c>
       <c r="F52" s="3">
-        <v>1199900</v>
+        <v>1219700</v>
       </c>
       <c r="G52" s="3">
-        <v>1133700</v>
+        <v>1202500</v>
       </c>
       <c r="H52" s="3">
-        <v>1149700</v>
+        <v>1136100</v>
       </c>
       <c r="I52" s="3">
-        <v>1040300</v>
+        <v>1152200</v>
       </c>
       <c r="J52" s="3">
+        <v>1042500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1109200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1103400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1036600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>975000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>955600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1049300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1037200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1059000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1045600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>999000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>893800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>870200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>737400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>670300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>644100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>648800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>599200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>590200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>602000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>628200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>574400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>525200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8333800</v>
+        <v>8593000</v>
       </c>
       <c r="E54" s="3">
-        <v>8160300</v>
+        <v>8352000</v>
       </c>
       <c r="F54" s="3">
-        <v>9021200</v>
+        <v>8178100</v>
       </c>
       <c r="G54" s="3">
-        <v>8006600</v>
+        <v>9040900</v>
       </c>
       <c r="H54" s="3">
-        <v>8262500</v>
+        <v>8024000</v>
       </c>
       <c r="I54" s="3">
-        <v>7863800</v>
+        <v>8280500</v>
       </c>
       <c r="J54" s="3">
+        <v>7880900</v>
+      </c>
+      <c r="K54" s="3">
         <v>8582000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7818200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8175500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7732100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8204600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7698200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7383200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6898400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7480800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6526100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5994100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5510100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6626800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5060900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5184800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5013200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5637000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3895700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3724800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3593200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3649500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3221400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,364 +4710,377 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1841200</v>
+        <v>1809000</v>
       </c>
       <c r="E57" s="3">
-        <v>1637600</v>
+        <v>1845300</v>
       </c>
       <c r="F57" s="3">
-        <v>2069200</v>
+        <v>1641200</v>
       </c>
       <c r="G57" s="3">
-        <v>1496600</v>
+        <v>2073700</v>
       </c>
       <c r="H57" s="3">
-        <v>1693800</v>
+        <v>1499900</v>
       </c>
       <c r="I57" s="3">
-        <v>1419600</v>
+        <v>1697500</v>
       </c>
       <c r="J57" s="3">
+        <v>1422700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1811100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1395600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1747000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1501800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2114600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1683100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1753900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1452800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2123700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1566300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1644200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1451300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1769200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>969900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1206500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1373100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1698600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1252000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1209800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1139500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1212000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1033500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>70000</v>
+        <v>109200</v>
       </c>
       <c r="E58" s="3">
-        <v>137700</v>
+        <v>70100</v>
       </c>
       <c r="F58" s="3">
-        <v>370300</v>
+        <v>138000</v>
       </c>
       <c r="G58" s="3">
-        <v>186600</v>
+        <v>371100</v>
       </c>
       <c r="H58" s="3">
-        <v>245100</v>
+        <v>187000</v>
       </c>
       <c r="I58" s="3">
-        <v>265800</v>
+        <v>245600</v>
       </c>
       <c r="J58" s="3">
+        <v>266400</v>
+      </c>
+      <c r="K58" s="3">
         <v>272100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>256100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>278500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>145200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>299900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>272700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>291200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>168400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>236700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>172900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>147400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1010000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>979100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>950500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>742300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>247400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>124500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>42700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>41400</v>
       </c>
-      <c r="AD58" s="3">
-        <v>0</v>
-      </c>
       <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1368100</v>
+        <v>1420300</v>
       </c>
       <c r="E59" s="3">
-        <v>1342100</v>
+        <v>1371000</v>
       </c>
       <c r="F59" s="3">
-        <v>1490900</v>
+        <v>1345000</v>
       </c>
       <c r="G59" s="3">
-        <v>1225700</v>
+        <v>1494100</v>
       </c>
       <c r="H59" s="3">
-        <v>1271900</v>
+        <v>1228400</v>
       </c>
       <c r="I59" s="3">
-        <v>1219100</v>
+        <v>1274700</v>
       </c>
       <c r="J59" s="3">
+        <v>1221700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1467500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1241900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1334200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1406100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1438500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1314600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1161100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1107600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1391900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1196000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1040800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1004800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1167700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>688800</v>
-      </c>
-      <c r="X59" s="3">
-        <v>678100</v>
       </c>
       <c r="Y59" s="3">
         <v>678100</v>
       </c>
       <c r="Z59" s="3">
+        <v>678100</v>
+      </c>
+      <c r="AA59" s="3">
         <v>912000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>699500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>724200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>778600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>908900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>781000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3279300</v>
+        <v>3338600</v>
       </c>
       <c r="E60" s="3">
-        <v>3117400</v>
+        <v>3286400</v>
       </c>
       <c r="F60" s="3">
-        <v>3930300</v>
+        <v>3124200</v>
       </c>
       <c r="G60" s="3">
-        <v>2909000</v>
+        <v>3938900</v>
       </c>
       <c r="H60" s="3">
-        <v>3210800</v>
+        <v>2915300</v>
       </c>
       <c r="I60" s="3">
-        <v>2904500</v>
+        <v>3217800</v>
       </c>
       <c r="J60" s="3">
+        <v>2910800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3550700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2893700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3359800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2924900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3698400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3297600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3187700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2851700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3684100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2998900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2857900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2603600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3946900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2637800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2835000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2793500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2858000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2076000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1976700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1959500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2120900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1814900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4975,23 +5118,23 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>29200</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>29200</v>
       </c>
       <c r="Q61" s="3">
+        <v>29200</v>
+      </c>
+      <c r="R61" s="3">
         <v>41100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>52400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4999,123 +5142,129 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>69100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>607700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>621500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>633200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>631500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>637200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>611300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>409600</v>
+        <v>403800</v>
       </c>
       <c r="E62" s="3">
-        <v>409500</v>
+        <v>410500</v>
       </c>
       <c r="F62" s="3">
-        <v>396300</v>
+        <v>410400</v>
       </c>
       <c r="G62" s="3">
-        <v>405700</v>
+        <v>397200</v>
       </c>
       <c r="H62" s="3">
-        <v>344600</v>
+        <v>406500</v>
       </c>
       <c r="I62" s="3">
-        <v>297900</v>
+        <v>345400</v>
       </c>
       <c r="J62" s="3">
+        <v>298500</v>
+      </c>
+      <c r="K62" s="3">
         <v>370400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>390400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>404300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>402100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>415700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>444400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>455800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>381100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>360700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>286500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>187500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>125600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>61700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>53900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>55600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>52700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>56300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>52500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>55100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>48500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>50500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3875900</v>
+        <v>3928300</v>
       </c>
       <c r="E66" s="3">
-        <v>3709200</v>
+        <v>3884400</v>
       </c>
       <c r="F66" s="3">
-        <v>4508600</v>
+        <v>3717300</v>
       </c>
       <c r="G66" s="3">
-        <v>3496400</v>
+        <v>4518500</v>
       </c>
       <c r="H66" s="3">
-        <v>3736100</v>
+        <v>3504000</v>
       </c>
       <c r="I66" s="3">
-        <v>3364400</v>
+        <v>3744200</v>
       </c>
       <c r="J66" s="3">
+        <v>3371700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4085800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3426800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3905400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3460700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4237700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3879100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3778100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3348600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4119800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3377700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3039400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2722400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4000900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2753700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2883700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2839200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3515600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2745200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2663200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2645500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2815900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2484400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4502200</v>
+        <v>4678800</v>
       </c>
       <c r="E72" s="3">
-        <v>4213200</v>
+        <v>4512000</v>
       </c>
       <c r="F72" s="3">
-        <v>3957100</v>
+        <v>4222400</v>
       </c>
       <c r="G72" s="3">
-        <v>3649300</v>
+        <v>3965700</v>
       </c>
       <c r="H72" s="3">
-        <v>3416900</v>
+        <v>3657300</v>
       </c>
       <c r="I72" s="3">
-        <v>3240200</v>
+        <v>3424400</v>
       </c>
       <c r="J72" s="3">
+        <v>3247200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3089200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2986100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2896800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2684600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2469500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2254500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2071200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1959900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1836100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1612000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1465600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1335600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1202900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1010400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1003000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>905200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>831500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>731600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>681400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>611500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>531300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>419600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4457900</v>
+        <v>4664700</v>
       </c>
       <c r="E76" s="3">
-        <v>4451100</v>
+        <v>4467600</v>
       </c>
       <c r="F76" s="3">
-        <v>4512600</v>
+        <v>4460800</v>
       </c>
       <c r="G76" s="3">
-        <v>4510200</v>
+        <v>4522400</v>
       </c>
       <c r="H76" s="3">
-        <v>4526500</v>
+        <v>4520000</v>
       </c>
       <c r="I76" s="3">
-        <v>4499400</v>
+        <v>4536300</v>
       </c>
       <c r="J76" s="3">
+        <v>4509200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4496200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4391400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4270100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4271400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3966900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3819100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3605000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3549800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3360900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3148400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2954700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2787600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2625900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2307200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2301100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2174000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2121400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1150500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1061600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>947600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>833600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>289000</v>
+        <v>166800</v>
       </c>
       <c r="E81" s="3">
-        <v>256100</v>
+        <v>289600</v>
       </c>
       <c r="F81" s="3">
-        <v>307800</v>
+        <v>256700</v>
       </c>
       <c r="G81" s="3">
-        <v>232400</v>
+        <v>308400</v>
       </c>
       <c r="H81" s="3">
-        <v>176800</v>
+        <v>232900</v>
       </c>
       <c r="I81" s="3">
-        <v>151000</v>
+        <v>177100</v>
       </c>
       <c r="J81" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K81" s="3">
         <v>194900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>155300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>215100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>339800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>183400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>226500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>224100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>134800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>124300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>132700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>104800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>32000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>97800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>76000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>99900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>50200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>57400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>80300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>111700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,31 +7357,34 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>166300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>559700</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>63600</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,16 +7485,17 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1071600</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1658500</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
